--- a/database/industries/ghaza/gheshahdab/product/monthly.xlsx
+++ b/database/industries/ghaza/gheshahdab/product/monthly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\ghaza\gheshahdab\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ghaza\gheshahdab\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A649BA12-014C-4B2D-9C9D-0D305629E151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2284" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2274" uniqueCount="81">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 7 منتهی به 1397/07</t>
   </si>
   <si>
     <t>ماه 8 منتهی به 1397/08</t>
@@ -186,6 +184,9 @@
     <t>ماه 8 منتهی به 1401/08</t>
   </si>
   <si>
+    <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>سایر</t>
   </si>
   <si>
@@ -263,20 +264,11 @@
   <si>
     <t>نرخ درآمد ارایه خدمات</t>
   </si>
-  <si>
-    <t xml:space="preserve"> رب</t>
-  </si>
-  <si>
-    <t>رب</t>
-  </si>
-  <si>
-    <t>سس</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -463,7 +455,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -475,7 +467,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -522,6 +514,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -557,6 +566,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -708,19 +734,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BB100"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -775,7 +799,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -832,7 +856,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -889,7 +913,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -944,7 +968,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1001,7 +1025,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1058,7 +1082,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1113,7 +1137,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1270,7 +1294,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1325,7 +1349,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
@@ -1382,7 +1406,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>55</v>
       </c>
@@ -1391,290 +1415,290 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>601</v>
+      </c>
+      <c r="F11" s="11">
+        <v>472</v>
+      </c>
+      <c r="G11" s="11">
+        <v>204</v>
+      </c>
+      <c r="H11" s="11">
         <v>111</v>
       </c>
-      <c r="F11" s="11">
-        <v>601</v>
-      </c>
-      <c r="G11" s="11">
-        <v>472</v>
-      </c>
-      <c r="H11" s="11">
-        <v>204</v>
-      </c>
       <c r="I11" s="11">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="J11" s="11">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="K11" s="11">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="L11" s="11">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="M11" s="11">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="N11" s="11">
+        <v>94</v>
+      </c>
+      <c r="O11" s="11">
+        <v>67</v>
+      </c>
+      <c r="P11" s="11">
+        <v>385</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>141</v>
+      </c>
+      <c r="R11" s="11">
+        <v>93</v>
+      </c>
+      <c r="S11" s="11">
+        <v>95</v>
+      </c>
+      <c r="T11" s="11">
+        <v>129</v>
+      </c>
+      <c r="U11" s="11">
+        <v>143</v>
+      </c>
+      <c r="V11" s="11">
+        <v>0</v>
+      </c>
+      <c r="W11" s="11">
+        <v>131</v>
+      </c>
+      <c r="X11" s="11">
+        <v>96</v>
+      </c>
+      <c r="Y11" s="11">
+        <v>46</v>
+      </c>
+      <c r="Z11" s="11">
+        <v>55</v>
+      </c>
+      <c r="AA11" s="11">
+        <v>85</v>
+      </c>
+      <c r="AB11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="11">
+        <v>123</v>
+      </c>
+      <c r="AD11" s="11">
+        <v>45</v>
+      </c>
+      <c r="AE11" s="11">
         <v>40</v>
       </c>
-      <c r="O11" s="11">
+      <c r="AF11" s="11">
+        <v>148</v>
+      </c>
+      <c r="AG11" s="11">
+        <v>92</v>
+      </c>
+      <c r="AH11" s="11">
+        <v>23</v>
+      </c>
+      <c r="AI11" s="11">
+        <v>356</v>
+      </c>
+      <c r="AJ11" s="11">
+        <v>239</v>
+      </c>
+      <c r="AK11" s="11">
+        <v>219</v>
+      </c>
+      <c r="AL11" s="11">
+        <v>173</v>
+      </c>
+      <c r="AM11" s="11">
+        <v>139</v>
+      </c>
+      <c r="AN11" s="11">
+        <v>306</v>
+      </c>
+      <c r="AO11" s="11">
+        <v>329</v>
+      </c>
+      <c r="AP11" s="11">
+        <v>275</v>
+      </c>
+      <c r="AQ11" s="11">
+        <v>146</v>
+      </c>
+      <c r="AR11" s="11">
         <v>94</v>
       </c>
-      <c r="P11" s="11">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="11">
-        <v>385</v>
-      </c>
-      <c r="R11" s="11">
-        <v>141</v>
-      </c>
-      <c r="S11" s="11">
-        <v>93</v>
-      </c>
-      <c r="T11" s="11">
-        <v>95</v>
-      </c>
-      <c r="U11" s="11">
-        <v>129</v>
-      </c>
-      <c r="V11" s="11">
-        <v>143</v>
-      </c>
-      <c r="W11" s="11">
-        <v>0</v>
-      </c>
-      <c r="X11" s="11">
-        <v>131</v>
-      </c>
-      <c r="Y11" s="11">
-        <v>96</v>
-      </c>
-      <c r="Z11" s="11">
-        <v>46</v>
-      </c>
-      <c r="AA11" s="11">
-        <v>55</v>
-      </c>
-      <c r="AB11" s="11">
-        <v>85</v>
-      </c>
-      <c r="AC11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="11">
-        <v>123</v>
-      </c>
-      <c r="AE11" s="11">
-        <v>45</v>
-      </c>
-      <c r="AF11" s="11">
-        <v>40</v>
-      </c>
-      <c r="AG11" s="11">
-        <v>148</v>
-      </c>
-      <c r="AH11" s="11">
-        <v>92</v>
-      </c>
-      <c r="AI11" s="11">
-        <v>23</v>
-      </c>
-      <c r="AJ11" s="11">
-        <v>356</v>
-      </c>
-      <c r="AK11" s="11">
-        <v>239</v>
-      </c>
-      <c r="AL11" s="11">
-        <v>219</v>
-      </c>
-      <c r="AM11" s="11">
-        <v>173</v>
-      </c>
-      <c r="AN11" s="11">
-        <v>139</v>
-      </c>
-      <c r="AO11" s="11">
-        <v>306</v>
-      </c>
-      <c r="AP11" s="11">
-        <v>329</v>
-      </c>
-      <c r="AQ11" s="11">
-        <v>275</v>
-      </c>
-      <c r="AR11" s="11">
-        <v>146</v>
-      </c>
       <c r="AS11" s="11">
-        <v>94</v>
+        <v>236</v>
       </c>
       <c r="AT11" s="11">
-        <v>236</v>
+        <v>0</v>
       </c>
       <c r="AU11" s="11">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AV11" s="11">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="AW11" s="11">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="AX11" s="11">
-        <v>190</v>
+        <v>73</v>
       </c>
       <c r="AY11" s="11">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="AZ11" s="11">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="BA11" s="11">
-        <v>97</v>
+        <v>613</v>
       </c>
       <c r="BB11" s="11">
-        <v>613</v>
+        <v>122</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>4483</v>
+        <v>1472</v>
       </c>
       <c r="F12" s="13">
-        <v>1472</v>
+        <v>978</v>
       </c>
       <c r="G12" s="13">
-        <v>978</v>
+        <v>209</v>
       </c>
       <c r="H12" s="13">
-        <v>209</v>
+        <v>0</v>
       </c>
       <c r="I12" s="13">
         <v>0</v>
       </c>
       <c r="J12" s="13">
-        <v>0</v>
+        <v>486</v>
       </c>
       <c r="K12" s="13">
-        <v>486</v>
+        <v>2071</v>
       </c>
       <c r="L12" s="13">
-        <v>2071</v>
+        <v>227</v>
       </c>
       <c r="M12" s="13">
-        <v>227</v>
+        <v>646</v>
       </c>
       <c r="N12" s="13">
-        <v>646</v>
+        <v>2762</v>
       </c>
       <c r="O12" s="13">
-        <v>2762</v>
+        <v>6845</v>
       </c>
       <c r="P12" s="13">
-        <v>6845</v>
+        <v>6092</v>
       </c>
       <c r="Q12" s="13">
-        <v>6092</v>
+        <v>1787</v>
       </c>
       <c r="R12" s="13">
-        <v>1787</v>
+        <v>587</v>
       </c>
       <c r="S12" s="13">
-        <v>587</v>
+        <v>535</v>
       </c>
       <c r="T12" s="13">
-        <v>535</v>
+        <v>223</v>
       </c>
       <c r="U12" s="13">
-        <v>223</v>
+        <v>268</v>
       </c>
       <c r="V12" s="13">
-        <v>268</v>
+        <v>455</v>
       </c>
       <c r="W12" s="13">
-        <v>455</v>
+        <v>702</v>
       </c>
       <c r="X12" s="13">
-        <v>702</v>
+        <v>71</v>
       </c>
       <c r="Y12" s="13">
-        <v>71</v>
+        <v>957</v>
       </c>
       <c r="Z12" s="13">
-        <v>957</v>
+        <v>1686</v>
       </c>
       <c r="AA12" s="13">
-        <v>1686</v>
+        <v>7720</v>
       </c>
       <c r="AB12" s="13">
-        <v>7720</v>
+        <v>5273</v>
       </c>
       <c r="AC12" s="13">
-        <v>5273</v>
+        <v>584</v>
       </c>
       <c r="AD12" s="13">
-        <v>584</v>
+        <v>444</v>
       </c>
       <c r="AE12" s="13">
-        <v>444</v>
+        <v>272</v>
       </c>
       <c r="AF12" s="13">
-        <v>272</v>
+        <v>409</v>
       </c>
       <c r="AG12" s="13">
-        <v>409</v>
+        <v>50</v>
       </c>
       <c r="AH12" s="13">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AI12" s="13">
-        <v>0</v>
+        <v>559</v>
       </c>
       <c r="AJ12" s="13">
-        <v>559</v>
+        <v>655</v>
       </c>
       <c r="AK12" s="13">
-        <v>655</v>
+        <v>554</v>
       </c>
       <c r="AL12" s="13">
-        <v>554</v>
+        <v>965</v>
       </c>
       <c r="AM12" s="13">
-        <v>965</v>
+        <v>5260</v>
       </c>
       <c r="AN12" s="13">
-        <v>5260</v>
+        <v>2243</v>
       </c>
       <c r="AO12" s="13">
-        <v>2243</v>
+        <v>1153</v>
       </c>
       <c r="AP12" s="13">
-        <v>1153</v>
+        <v>319</v>
       </c>
       <c r="AQ12" s="13">
-        <v>319</v>
+        <v>959</v>
       </c>
       <c r="AR12" s="13">
-        <v>959</v>
+        <v>170</v>
       </c>
       <c r="AS12" s="13">
-        <v>170</v>
-      </c>
-      <c r="AT12" s="13">
         <v>725</v>
       </c>
+      <c r="AT12" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AU12" s="13" t="s">
         <v>58</v>
       </c>
@@ -1700,140 +1724,140 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>56</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>436</v>
+        <v>699</v>
       </c>
       <c r="F13" s="11">
-        <v>699</v>
+        <v>798</v>
       </c>
       <c r="G13" s="11">
-        <v>798</v>
+        <v>1105</v>
       </c>
       <c r="H13" s="11">
-        <v>1105</v>
+        <v>947</v>
       </c>
       <c r="I13" s="11">
-        <v>947</v>
+        <v>896</v>
       </c>
       <c r="J13" s="11">
-        <v>896</v>
+        <v>505</v>
       </c>
       <c r="K13" s="11">
-        <v>505</v>
+        <v>944</v>
       </c>
       <c r="L13" s="11">
-        <v>944</v>
+        <v>453</v>
       </c>
       <c r="M13" s="11">
-        <v>453</v>
+        <v>609</v>
       </c>
       <c r="N13" s="11">
-        <v>609</v>
+        <v>585</v>
       </c>
       <c r="O13" s="11">
-        <v>585</v>
+        <v>725</v>
       </c>
       <c r="P13" s="11">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="Q13" s="11">
-        <v>675</v>
+        <v>995</v>
       </c>
       <c r="R13" s="11">
-        <v>995</v>
+        <v>976</v>
       </c>
       <c r="S13" s="11">
-        <v>976</v>
+        <v>980</v>
       </c>
       <c r="T13" s="11">
-        <v>980</v>
+        <v>1297</v>
       </c>
       <c r="U13" s="11">
-        <v>1297</v>
+        <v>1485</v>
       </c>
       <c r="V13" s="11">
-        <v>1485</v>
+        <v>877</v>
       </c>
       <c r="W13" s="11">
-        <v>877</v>
+        <v>1331</v>
       </c>
       <c r="X13" s="11">
-        <v>1331</v>
+        <v>711</v>
       </c>
       <c r="Y13" s="11">
-        <v>711</v>
+        <v>847</v>
       </c>
       <c r="Z13" s="11">
-        <v>847</v>
+        <v>410</v>
       </c>
       <c r="AA13" s="11">
-        <v>410</v>
+        <v>836</v>
       </c>
       <c r="AB13" s="11">
-        <v>836</v>
+        <v>813</v>
       </c>
       <c r="AC13" s="11">
-        <v>813</v>
+        <v>756</v>
       </c>
       <c r="AD13" s="11">
-        <v>756</v>
+        <v>764</v>
       </c>
       <c r="AE13" s="11">
-        <v>764</v>
+        <v>1051</v>
       </c>
       <c r="AF13" s="11">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="AG13" s="11">
-        <v>1048</v>
+        <v>1171</v>
       </c>
       <c r="AH13" s="11">
-        <v>1171</v>
+        <v>843</v>
       </c>
       <c r="AI13" s="11">
-        <v>843</v>
+        <v>786</v>
       </c>
       <c r="AJ13" s="11">
-        <v>786</v>
+        <v>606</v>
       </c>
       <c r="AK13" s="11">
-        <v>606</v>
+        <v>543</v>
       </c>
       <c r="AL13" s="11">
-        <v>543</v>
+        <v>713</v>
       </c>
       <c r="AM13" s="11">
-        <v>713</v>
+        <v>721</v>
       </c>
       <c r="AN13" s="11">
-        <v>721</v>
+        <v>805</v>
       </c>
       <c r="AO13" s="11">
-        <v>805</v>
+        <v>1197</v>
       </c>
       <c r="AP13" s="11">
-        <v>1197</v>
+        <v>887</v>
       </c>
       <c r="AQ13" s="11">
-        <v>887</v>
+        <v>1529</v>
       </c>
       <c r="AR13" s="11">
-        <v>1529</v>
+        <v>1027</v>
       </c>
       <c r="AS13" s="11">
-        <v>1027</v>
-      </c>
-      <c r="AT13" s="11">
         <v>1110</v>
       </c>
+      <c r="AT13" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AU13" s="11" t="s">
         <v>58</v>
       </c>
@@ -1859,7 +1883,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>60</v>
       </c>
@@ -1990,8 +2014,8 @@
       <c r="AS14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT14" s="13" t="s">
-        <v>58</v>
+      <c r="AT14" s="13">
+        <v>0</v>
       </c>
       <c r="AU14" s="13">
         <v>0</v>
@@ -2003,22 +2027,22 @@
         <v>0</v>
       </c>
       <c r="AX14" s="13">
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="AY14" s="13">
-        <v>228</v>
+        <v>2143</v>
       </c>
       <c r="AZ14" s="13">
-        <v>2143</v>
+        <v>4102</v>
       </c>
       <c r="BA14" s="13">
-        <v>4102</v>
+        <v>402</v>
       </c>
       <c r="BB14" s="13">
-        <v>402</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>61</v>
       </c>
@@ -2027,10 +2051,10 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>8746</v>
+        <v>1226</v>
       </c>
       <c r="F15" s="11">
-        <v>1226</v>
+        <v>0</v>
       </c>
       <c r="G15" s="11">
         <v>0</v>
@@ -2041,8 +2065,8 @@
       <c r="I15" s="11">
         <v>0</v>
       </c>
-      <c r="J15" s="11">
-        <v>0</v>
+      <c r="J15" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="K15" s="11" t="s">
         <v>58</v>
@@ -2053,20 +2077,20 @@
       <c r="M15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="N15" s="11" t="s">
-        <v>58</v>
+      <c r="N15" s="11">
+        <v>6243</v>
       </c>
       <c r="O15" s="11">
-        <v>6243</v>
+        <v>16956</v>
       </c>
       <c r="P15" s="11">
-        <v>16956</v>
+        <v>13258</v>
       </c>
       <c r="Q15" s="11">
-        <v>13258</v>
+        <v>1440</v>
       </c>
       <c r="R15" s="11">
-        <v>1440</v>
+        <v>0</v>
       </c>
       <c r="S15" s="11">
         <v>0</v>
@@ -2113,8 +2137,8 @@
       <c r="AG15" s="11">
         <v>0</v>
       </c>
-      <c r="AH15" s="11">
-        <v>0</v>
+      <c r="AH15" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI15" s="11" t="s">
         <v>58</v>
@@ -2177,7 +2201,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>62</v>
       </c>
@@ -2308,35 +2332,35 @@
       <c r="AS16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT16" s="13" t="s">
-        <v>58</v>
+      <c r="AT16" s="13">
+        <v>869</v>
       </c>
       <c r="AU16" s="13">
-        <v>869</v>
+        <v>668</v>
       </c>
       <c r="AV16" s="13">
-        <v>668</v>
+        <v>703</v>
       </c>
       <c r="AW16" s="13">
-        <v>703</v>
+        <v>712</v>
       </c>
       <c r="AX16" s="13">
-        <v>712</v>
+        <v>681</v>
       </c>
       <c r="AY16" s="13">
-        <v>681</v>
+        <v>830</v>
       </c>
       <c r="AZ16" s="13">
-        <v>830</v>
+        <v>776</v>
       </c>
       <c r="BA16" s="13">
-        <v>776</v>
+        <v>1180</v>
       </c>
       <c r="BB16" s="13">
-        <v>1180</v>
+        <v>984</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>63</v>
       </c>
@@ -2467,35 +2491,35 @@
       <c r="AS17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT17" s="11" t="s">
-        <v>58</v>
+      <c r="AT17" s="11">
+        <v>163</v>
       </c>
       <c r="AU17" s="11">
-        <v>163</v>
+        <v>543</v>
       </c>
       <c r="AV17" s="11">
-        <v>543</v>
+        <v>309</v>
       </c>
       <c r="AW17" s="11">
-        <v>309</v>
+        <v>940</v>
       </c>
       <c r="AX17" s="11">
-        <v>940</v>
+        <v>1001</v>
       </c>
       <c r="AY17" s="11">
-        <v>1001</v>
+        <v>2504</v>
       </c>
       <c r="AZ17" s="11">
-        <v>2504</v>
+        <v>1469</v>
       </c>
       <c r="BA17" s="11">
-        <v>1469</v>
+        <v>1142</v>
       </c>
       <c r="BB17" s="11">
-        <v>1142</v>
+        <v>592</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>64</v>
       </c>
@@ -2552,7 +2576,7 @@
       <c r="BA18" s="9"/>
       <c r="BB18" s="9"/>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>55</v>
       </c>
@@ -2620,8 +2644,8 @@
       <c r="X19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y19" s="11" t="s">
-        <v>58</v>
+      <c r="Y19" s="11">
+        <v>0</v>
       </c>
       <c r="Z19" s="11">
         <v>0</v>
@@ -2644,8 +2668,8 @@
       <c r="AF19" s="11">
         <v>0</v>
       </c>
-      <c r="AG19" s="11">
-        <v>0</v>
+      <c r="AG19" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH19" s="11" t="s">
         <v>58</v>
@@ -2711,7 +2735,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>57</v>
       </c>
@@ -2779,8 +2803,8 @@
       <c r="X20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y20" s="13" t="s">
-        <v>58</v>
+      <c r="Y20" s="13">
+        <v>0</v>
       </c>
       <c r="Z20" s="13">
         <v>0</v>
@@ -2803,8 +2827,8 @@
       <c r="AF20" s="13">
         <v>0</v>
       </c>
-      <c r="AG20" s="13">
-        <v>0</v>
+      <c r="AG20" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH20" s="13" t="s">
         <v>58</v>
@@ -2870,7 +2894,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>59</v>
       </c>
@@ -2938,8 +2962,8 @@
       <c r="X21" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y21" s="11" t="s">
-        <v>58</v>
+      <c r="Y21" s="11">
+        <v>0</v>
       </c>
       <c r="Z21" s="11">
         <v>0</v>
@@ -2962,8 +2986,8 @@
       <c r="AF21" s="11">
         <v>0</v>
       </c>
-      <c r="AG21" s="11">
-        <v>0</v>
+      <c r="AG21" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH21" s="11" t="s">
         <v>58</v>
@@ -3029,7 +3053,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B22" s="12" t="s">
         <v>65</v>
       </c>
@@ -3154,11 +3178,11 @@
       <c r="AQ22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR22" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS22" s="13">
-        <v>0</v>
+      <c r="AR22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS22" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT22" s="13" t="s">
         <v>58</v>
@@ -3188,7 +3212,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B23" s="14" t="s">
         <v>66</v>
       </c>
@@ -3254,8 +3278,8 @@
       <c r="X23" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y23" s="15" t="s">
-        <v>58</v>
+      <c r="Y23" s="15">
+        <v>0</v>
       </c>
       <c r="Z23" s="15">
         <v>0</v>
@@ -3345,164 +3369,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>67</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
       <c r="E24" s="17">
-        <v>13776</v>
+        <v>3998</v>
       </c>
       <c r="F24" s="17">
-        <v>3998</v>
+        <v>2248</v>
       </c>
       <c r="G24" s="17">
-        <v>2248</v>
+        <v>1518</v>
       </c>
       <c r="H24" s="17">
-        <v>1518</v>
+        <v>1058</v>
       </c>
       <c r="I24" s="17">
-        <v>1058</v>
+        <v>984</v>
       </c>
       <c r="J24" s="17">
-        <v>984</v>
+        <v>991</v>
       </c>
       <c r="K24" s="17">
-        <v>991</v>
+        <v>3044</v>
       </c>
       <c r="L24" s="17">
-        <v>3044</v>
+        <v>779</v>
       </c>
       <c r="M24" s="17">
-        <v>779</v>
+        <v>1295</v>
       </c>
       <c r="N24" s="17">
-        <v>1295</v>
+        <v>9684</v>
       </c>
       <c r="O24" s="17">
-        <v>9684</v>
+        <v>24593</v>
       </c>
       <c r="P24" s="17">
-        <v>24593</v>
+        <v>20410</v>
       </c>
       <c r="Q24" s="17">
-        <v>20410</v>
+        <v>4363</v>
       </c>
       <c r="R24" s="17">
-        <v>4363</v>
+        <v>1656</v>
       </c>
       <c r="S24" s="17">
-        <v>1656</v>
+        <v>1610</v>
       </c>
       <c r="T24" s="17">
-        <v>1610</v>
+        <v>1649</v>
       </c>
       <c r="U24" s="17">
-        <v>1649</v>
+        <v>1896</v>
       </c>
       <c r="V24" s="17">
-        <v>1896</v>
+        <v>1332</v>
       </c>
       <c r="W24" s="17">
-        <v>1332</v>
+        <v>2164</v>
       </c>
       <c r="X24" s="17">
-        <v>2164</v>
+        <v>878</v>
       </c>
       <c r="Y24" s="17">
-        <v>878</v>
+        <v>1850</v>
       </c>
       <c r="Z24" s="17">
-        <v>1850</v>
+        <v>2151</v>
       </c>
       <c r="AA24" s="17">
-        <v>2151</v>
+        <v>8641</v>
       </c>
       <c r="AB24" s="17">
-        <v>8641</v>
+        <v>6086</v>
       </c>
       <c r="AC24" s="17">
-        <v>6086</v>
+        <v>1463</v>
       </c>
       <c r="AD24" s="17">
-        <v>1463</v>
+        <v>1253</v>
       </c>
       <c r="AE24" s="17">
-        <v>1253</v>
+        <v>1363</v>
       </c>
       <c r="AF24" s="17">
-        <v>1363</v>
+        <v>1605</v>
       </c>
       <c r="AG24" s="17">
-        <v>1605</v>
+        <v>1313</v>
       </c>
       <c r="AH24" s="17">
-        <v>1313</v>
+        <v>866</v>
       </c>
       <c r="AI24" s="17">
-        <v>866</v>
+        <v>1701</v>
       </c>
       <c r="AJ24" s="17">
-        <v>1701</v>
+        <v>1500</v>
       </c>
       <c r="AK24" s="17">
-        <v>1500</v>
+        <v>1316</v>
       </c>
       <c r="AL24" s="17">
-        <v>1316</v>
+        <v>1851</v>
       </c>
       <c r="AM24" s="17">
-        <v>1851</v>
+        <v>6120</v>
       </c>
       <c r="AN24" s="17">
-        <v>6120</v>
+        <v>3354</v>
       </c>
       <c r="AO24" s="17">
-        <v>3354</v>
+        <v>2679</v>
       </c>
       <c r="AP24" s="17">
-        <v>2679</v>
+        <v>1481</v>
       </c>
       <c r="AQ24" s="17">
-        <v>1481</v>
+        <v>2634</v>
       </c>
       <c r="AR24" s="17">
-        <v>2634</v>
+        <v>1291</v>
       </c>
       <c r="AS24" s="17">
-        <v>1291</v>
+        <v>2071</v>
       </c>
       <c r="AT24" s="17">
-        <v>2071</v>
+        <v>1032</v>
       </c>
       <c r="AU24" s="17">
-        <v>1032</v>
+        <v>1321</v>
       </c>
       <c r="AV24" s="17">
-        <v>1321</v>
+        <v>1012</v>
       </c>
       <c r="AW24" s="17">
-        <v>1012</v>
+        <v>1842</v>
       </c>
       <c r="AX24" s="17">
-        <v>1842</v>
+        <v>1983</v>
       </c>
       <c r="AY24" s="17">
-        <v>1983</v>
+        <v>5536</v>
       </c>
       <c r="AZ24" s="17">
-        <v>5536</v>
+        <v>6444</v>
       </c>
       <c r="BA24" s="17">
-        <v>6444</v>
+        <v>3337</v>
       </c>
       <c r="BB24" s="17">
-        <v>3337</v>
+        <v>1698</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -3557,7 +3581,7 @@
       <c r="BA25" s="1"/>
       <c r="BB25" s="1"/>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -3612,7 +3636,7 @@
       <c r="BA26" s="1"/>
       <c r="BB26" s="1"/>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -3667,7 +3691,7 @@
       <c r="BA27" s="1"/>
       <c r="BB27" s="1"/>
     </row>
-    <row r="28" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B28" s="7" t="s">
         <v>68</v>
       </c>
@@ -3824,7 +3848,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -3879,7 +3903,7 @@
       <c r="BA29" s="1"/>
       <c r="BB29" s="1"/>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
         <v>68</v>
       </c>
@@ -3936,7 +3960,7 @@
       <c r="BA30" s="9"/>
       <c r="BB30" s="9"/>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>55</v>
       </c>
@@ -3945,290 +3969,290 @@
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11">
-        <v>18</v>
+        <v>502</v>
       </c>
       <c r="F31" s="11">
-        <v>502</v>
+        <v>257</v>
       </c>
       <c r="G31" s="11">
-        <v>257</v>
+        <v>34</v>
       </c>
       <c r="H31" s="11">
         <v>34</v>
       </c>
       <c r="I31" s="11">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="J31" s="11">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K31" s="11">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L31" s="11">
+        <v>18</v>
+      </c>
+      <c r="M31" s="11">
+        <v>10</v>
+      </c>
+      <c r="N31" s="11">
+        <v>20</v>
+      </c>
+      <c r="O31" s="11">
+        <v>22</v>
+      </c>
+      <c r="P31" s="11">
+        <v>260</v>
+      </c>
+      <c r="Q31" s="11">
+        <v>117</v>
+      </c>
+      <c r="R31" s="11">
+        <v>53</v>
+      </c>
+      <c r="S31" s="11">
+        <v>43</v>
+      </c>
+      <c r="T31" s="11">
+        <v>56</v>
+      </c>
+      <c r="U31" s="11">
+        <v>35</v>
+      </c>
+      <c r="V31" s="11">
+        <v>21</v>
+      </c>
+      <c r="W31" s="11">
+        <v>55</v>
+      </c>
+      <c r="X31" s="11">
+        <v>16</v>
+      </c>
+      <c r="Y31" s="11">
+        <v>28</v>
+      </c>
+      <c r="Z31" s="11">
+        <v>41</v>
+      </c>
+      <c r="AA31" s="11">
+        <v>24</v>
+      </c>
+      <c r="AB31" s="11">
+        <v>35</v>
+      </c>
+      <c r="AC31" s="11">
+        <v>58</v>
+      </c>
+      <c r="AD31" s="11">
+        <v>36</v>
+      </c>
+      <c r="AE31" s="11">
+        <v>20</v>
+      </c>
+      <c r="AF31" s="11">
+        <v>30</v>
+      </c>
+      <c r="AG31" s="11">
+        <v>19</v>
+      </c>
+      <c r="AH31" s="11">
+        <v>37</v>
+      </c>
+      <c r="AI31" s="11">
+        <v>74</v>
+      </c>
+      <c r="AJ31" s="11">
+        <v>75</v>
+      </c>
+      <c r="AK31" s="11">
+        <v>77</v>
+      </c>
+      <c r="AL31" s="11">
+        <v>98</v>
+      </c>
+      <c r="AM31" s="11">
+        <v>145</v>
+      </c>
+      <c r="AN31" s="11">
+        <v>166</v>
+      </c>
+      <c r="AO31" s="11">
+        <v>261</v>
+      </c>
+      <c r="AP31" s="11">
+        <v>126</v>
+      </c>
+      <c r="AQ31" s="11">
+        <v>67</v>
+      </c>
+      <c r="AR31" s="11">
+        <v>69</v>
+      </c>
+      <c r="AS31" s="11">
+        <v>44</v>
+      </c>
+      <c r="AT31" s="11">
+        <v>63</v>
+      </c>
+      <c r="AU31" s="11">
+        <v>31</v>
+      </c>
+      <c r="AV31" s="11">
         <v>13</v>
       </c>
-      <c r="M31" s="11">
-        <v>18</v>
-      </c>
-      <c r="N31" s="11">
-        <v>10</v>
-      </c>
-      <c r="O31" s="11">
-        <v>20</v>
-      </c>
-      <c r="P31" s="11">
-        <v>22</v>
-      </c>
-      <c r="Q31" s="11">
-        <v>260</v>
-      </c>
-      <c r="R31" s="11">
-        <v>117</v>
-      </c>
-      <c r="S31" s="11">
-        <v>53</v>
-      </c>
-      <c r="T31" s="11">
-        <v>43</v>
-      </c>
-      <c r="U31" s="11">
-        <v>56</v>
-      </c>
-      <c r="V31" s="11">
-        <v>35</v>
-      </c>
-      <c r="W31" s="11">
-        <v>21</v>
-      </c>
-      <c r="X31" s="11">
+      <c r="AW31" s="11">
+        <v>33</v>
+      </c>
+      <c r="AX31" s="11">
         <v>55</v>
       </c>
-      <c r="Y31" s="11">
-        <v>16</v>
-      </c>
-      <c r="Z31" s="11">
-        <v>28</v>
-      </c>
-      <c r="AA31" s="11">
-        <v>41</v>
-      </c>
-      <c r="AB31" s="11">
-        <v>24</v>
-      </c>
-      <c r="AC31" s="11">
-        <v>35</v>
-      </c>
-      <c r="AD31" s="11">
-        <v>58</v>
-      </c>
-      <c r="AE31" s="11">
-        <v>36</v>
-      </c>
-      <c r="AF31" s="11">
-        <v>20</v>
-      </c>
-      <c r="AG31" s="11">
-        <v>30</v>
-      </c>
-      <c r="AH31" s="11">
-        <v>19</v>
-      </c>
-      <c r="AI31" s="11">
-        <v>37</v>
-      </c>
-      <c r="AJ31" s="11">
-        <v>74</v>
-      </c>
-      <c r="AK31" s="11">
-        <v>75</v>
-      </c>
-      <c r="AL31" s="11">
-        <v>77</v>
-      </c>
-      <c r="AM31" s="11">
-        <v>98</v>
-      </c>
-      <c r="AN31" s="11">
-        <v>145</v>
-      </c>
-      <c r="AO31" s="11">
-        <v>166</v>
-      </c>
-      <c r="AP31" s="11">
-        <v>261</v>
-      </c>
-      <c r="AQ31" s="11">
-        <v>126</v>
-      </c>
-      <c r="AR31" s="11">
-        <v>67</v>
-      </c>
-      <c r="AS31" s="11">
-        <v>69</v>
-      </c>
-      <c r="AT31" s="11">
-        <v>44</v>
-      </c>
-      <c r="AU31" s="11">
-        <v>63</v>
-      </c>
-      <c r="AV31" s="11">
-        <v>31</v>
-      </c>
-      <c r="AW31" s="11">
-        <v>13</v>
-      </c>
-      <c r="AX31" s="11">
+      <c r="AY31" s="11">
         <v>33</v>
       </c>
-      <c r="AY31" s="11">
-        <v>55</v>
-      </c>
       <c r="AZ31" s="11">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="BA31" s="11">
-        <v>84</v>
+        <v>185</v>
       </c>
       <c r="BB31" s="11">
-        <v>185</v>
+        <v>123</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B32" s="12" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="C32" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D32" s="13"/>
       <c r="E32" s="13">
-        <v>499</v>
+        <v>651</v>
       </c>
       <c r="F32" s="13">
-        <v>651</v>
+        <v>683</v>
       </c>
       <c r="G32" s="13">
-        <v>683</v>
+        <v>575</v>
       </c>
       <c r="H32" s="13">
-        <v>575</v>
+        <v>1447</v>
       </c>
       <c r="I32" s="13">
-        <v>1447</v>
+        <v>1059</v>
       </c>
       <c r="J32" s="13">
-        <v>1059</v>
+        <v>881</v>
       </c>
       <c r="K32" s="13">
-        <v>881</v>
+        <v>2081</v>
       </c>
       <c r="L32" s="13">
-        <v>2081</v>
+        <v>478</v>
       </c>
       <c r="M32" s="13">
-        <v>478</v>
+        <v>392</v>
       </c>
       <c r="N32" s="13">
-        <v>392</v>
+        <v>1068</v>
       </c>
       <c r="O32" s="13">
-        <v>1068</v>
+        <v>690</v>
       </c>
       <c r="P32" s="13">
-        <v>690</v>
+        <v>365</v>
       </c>
       <c r="Q32" s="13">
-        <v>365</v>
+        <v>1502</v>
       </c>
       <c r="R32" s="13">
-        <v>1502</v>
+        <v>1891</v>
       </c>
       <c r="S32" s="13">
-        <v>1891</v>
+        <v>177</v>
       </c>
       <c r="T32" s="13">
-        <v>177</v>
+        <v>230</v>
       </c>
       <c r="U32" s="13">
-        <v>230</v>
+        <v>845</v>
       </c>
       <c r="V32" s="13">
-        <v>845</v>
+        <v>677</v>
       </c>
       <c r="W32" s="13">
-        <v>677</v>
+        <v>729</v>
       </c>
       <c r="X32" s="13">
-        <v>729</v>
+        <v>445</v>
       </c>
       <c r="Y32" s="13">
-        <v>445</v>
+        <v>739</v>
       </c>
       <c r="Z32" s="13">
-        <v>739</v>
+        <v>715</v>
       </c>
       <c r="AA32" s="13">
-        <v>715</v>
+        <v>1030</v>
       </c>
       <c r="AB32" s="13">
-        <v>1030</v>
+        <v>2699</v>
       </c>
       <c r="AC32" s="13">
-        <v>2699</v>
+        <v>1078</v>
       </c>
       <c r="AD32" s="13">
-        <v>1078</v>
+        <v>517</v>
       </c>
       <c r="AE32" s="13">
-        <v>517</v>
+        <v>490</v>
       </c>
       <c r="AF32" s="13">
-        <v>490</v>
+        <v>833</v>
       </c>
       <c r="AG32" s="13">
-        <v>833</v>
+        <v>890</v>
       </c>
       <c r="AH32" s="13">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="AI32" s="13">
-        <v>893</v>
+        <v>1646</v>
       </c>
       <c r="AJ32" s="13">
+        <v>2297</v>
+      </c>
+      <c r="AK32" s="13">
+        <v>1341</v>
+      </c>
+      <c r="AL32" s="13">
+        <v>2709</v>
+      </c>
+      <c r="AM32" s="13">
         <v>1646</v>
       </c>
-      <c r="AK32" s="13">
-        <v>2297</v>
-      </c>
-      <c r="AL32" s="13">
-        <v>1341</v>
-      </c>
-      <c r="AM32" s="13">
-        <v>2709</v>
-      </c>
       <c r="AN32" s="13">
-        <v>1646</v>
+        <v>2076</v>
       </c>
       <c r="AO32" s="13">
-        <v>2076</v>
+        <v>2024</v>
       </c>
       <c r="AP32" s="13">
-        <v>2024</v>
+        <v>1519</v>
       </c>
       <c r="AQ32" s="13">
-        <v>1519</v>
+        <v>1859</v>
       </c>
       <c r="AR32" s="13">
-        <v>1859</v>
+        <v>1372</v>
       </c>
       <c r="AS32" s="13">
-        <v>1372</v>
-      </c>
-      <c r="AT32" s="13">
         <v>749</v>
       </c>
+      <c r="AT32" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AU32" s="13" t="s">
         <v>58</v>
       </c>
@@ -4254,140 +4278,140 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>56</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11">
-        <v>538</v>
+        <v>676</v>
       </c>
       <c r="F33" s="11">
-        <v>676</v>
+        <v>821</v>
       </c>
       <c r="G33" s="11">
-        <v>821</v>
+        <v>946</v>
       </c>
       <c r="H33" s="11">
-        <v>946</v>
+        <v>1025</v>
       </c>
       <c r="I33" s="11">
-        <v>1025</v>
+        <v>858</v>
       </c>
       <c r="J33" s="11">
-        <v>858</v>
+        <v>611</v>
       </c>
       <c r="K33" s="11">
-        <v>611</v>
+        <v>797</v>
       </c>
       <c r="L33" s="11">
+        <v>564</v>
+      </c>
+      <c r="M33" s="11">
+        <v>626</v>
+      </c>
+      <c r="N33" s="11">
+        <v>600</v>
+      </c>
+      <c r="O33" s="11">
+        <v>671</v>
+      </c>
+      <c r="P33" s="11">
+        <v>715</v>
+      </c>
+      <c r="Q33" s="11">
+        <v>984</v>
+      </c>
+      <c r="R33" s="11">
+        <v>839</v>
+      </c>
+      <c r="S33" s="11">
+        <v>1157</v>
+      </c>
+      <c r="T33" s="11">
+        <v>1280</v>
+      </c>
+      <c r="U33" s="11">
+        <v>1311</v>
+      </c>
+      <c r="V33" s="11">
+        <v>997</v>
+      </c>
+      <c r="W33" s="11">
+        <v>1148</v>
+      </c>
+      <c r="X33" s="11">
+        <v>772</v>
+      </c>
+      <c r="Y33" s="11">
+        <v>855</v>
+      </c>
+      <c r="Z33" s="11">
+        <v>555</v>
+      </c>
+      <c r="AA33" s="11">
         <v>797</v>
       </c>
-      <c r="M33" s="11">
-        <v>564</v>
-      </c>
-      <c r="N33" s="11">
-        <v>626</v>
-      </c>
-      <c r="O33" s="11">
-        <v>600</v>
-      </c>
-      <c r="P33" s="11">
+      <c r="AB33" s="11">
+        <v>829</v>
+      </c>
+      <c r="AC33" s="11">
+        <v>752</v>
+      </c>
+      <c r="AD33" s="11">
+        <v>897</v>
+      </c>
+      <c r="AE33" s="11">
+        <v>956</v>
+      </c>
+      <c r="AF33" s="11">
+        <v>1061</v>
+      </c>
+      <c r="AG33" s="11">
+        <v>1172</v>
+      </c>
+      <c r="AH33" s="11">
+        <v>872</v>
+      </c>
+      <c r="AI33" s="11">
+        <v>789</v>
+      </c>
+      <c r="AJ33" s="11">
+        <v>594</v>
+      </c>
+      <c r="AK33" s="11">
+        <v>561</v>
+      </c>
+      <c r="AL33" s="11">
         <v>671</v>
       </c>
-      <c r="Q33" s="11">
-        <v>715</v>
-      </c>
-      <c r="R33" s="11">
-        <v>984</v>
-      </c>
-      <c r="S33" s="11">
-        <v>839</v>
-      </c>
-      <c r="T33" s="11">
+      <c r="AM33" s="11">
+        <v>743</v>
+      </c>
+      <c r="AN33" s="11">
+        <v>820</v>
+      </c>
+      <c r="AO33" s="11">
         <v>1157</v>
       </c>
-      <c r="U33" s="11">
-        <v>1280</v>
-      </c>
-      <c r="V33" s="11">
-        <v>1311</v>
-      </c>
-      <c r="W33" s="11">
-        <v>997</v>
-      </c>
-      <c r="X33" s="11">
-        <v>1148</v>
-      </c>
-      <c r="Y33" s="11">
-        <v>772</v>
-      </c>
-      <c r="Z33" s="11">
-        <v>855</v>
-      </c>
-      <c r="AA33" s="11">
-        <v>555</v>
-      </c>
-      <c r="AB33" s="11">
-        <v>797</v>
-      </c>
-      <c r="AC33" s="11">
-        <v>829</v>
-      </c>
-      <c r="AD33" s="11">
-        <v>752</v>
-      </c>
-      <c r="AE33" s="11">
-        <v>897</v>
-      </c>
-      <c r="AF33" s="11">
-        <v>956</v>
-      </c>
-      <c r="AG33" s="11">
-        <v>1061</v>
-      </c>
-      <c r="AH33" s="11">
-        <v>1172</v>
-      </c>
-      <c r="AI33" s="11">
-        <v>872</v>
-      </c>
-      <c r="AJ33" s="11">
-        <v>789</v>
-      </c>
-      <c r="AK33" s="11">
-        <v>594</v>
-      </c>
-      <c r="AL33" s="11">
-        <v>561</v>
-      </c>
-      <c r="AM33" s="11">
-        <v>671</v>
-      </c>
-      <c r="AN33" s="11">
-        <v>743</v>
-      </c>
-      <c r="AO33" s="11">
-        <v>820</v>
-      </c>
       <c r="AP33" s="11">
-        <v>1157</v>
+        <v>988</v>
       </c>
       <c r="AQ33" s="11">
-        <v>988</v>
+        <v>1490</v>
       </c>
       <c r="AR33" s="11">
-        <v>1490</v>
+        <v>1054</v>
       </c>
       <c r="AS33" s="11">
-        <v>1054</v>
-      </c>
-      <c r="AT33" s="11">
         <v>1078</v>
       </c>
+      <c r="AT33" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AU33" s="11" t="s">
         <v>58</v>
       </c>
@@ -4413,7 +4437,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
         <v>60</v>
       </c>
@@ -4544,8 +4568,8 @@
       <c r="AS34" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT34" s="13" t="s">
-        <v>58</v>
+      <c r="AT34" s="13">
+        <v>0</v>
       </c>
       <c r="AU34" s="13">
         <v>0</v>
@@ -4557,22 +4581,22 @@
         <v>0</v>
       </c>
       <c r="AX34" s="13">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AY34" s="13">
-        <v>12</v>
+        <v>235</v>
       </c>
       <c r="AZ34" s="13">
-        <v>235</v>
+        <v>1236</v>
       </c>
       <c r="BA34" s="13">
-        <v>1236</v>
+        <v>986</v>
       </c>
       <c r="BB34" s="13">
-        <v>986</v>
+        <v>355</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B35" s="10" t="s">
         <v>61</v>
       </c>
@@ -4581,10 +4605,10 @@
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11">
-        <v>8746</v>
+        <v>1226</v>
       </c>
       <c r="F35" s="11">
-        <v>1226</v>
+        <v>0</v>
       </c>
       <c r="G35" s="11">
         <v>0</v>
@@ -4595,8 +4619,8 @@
       <c r="I35" s="11">
         <v>0</v>
       </c>
-      <c r="J35" s="11">
-        <v>0</v>
+      <c r="J35" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="K35" s="11" t="s">
         <v>58</v>
@@ -4607,20 +4631,20 @@
       <c r="M35" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="N35" s="11" t="s">
-        <v>58</v>
+      <c r="N35" s="11">
+        <v>6243</v>
       </c>
       <c r="O35" s="11">
-        <v>6243</v>
+        <v>16956</v>
       </c>
       <c r="P35" s="11">
-        <v>16956</v>
+        <v>13258</v>
       </c>
       <c r="Q35" s="11">
-        <v>13258</v>
+        <v>1440</v>
       </c>
       <c r="R35" s="11">
-        <v>1440</v>
+        <v>0</v>
       </c>
       <c r="S35" s="11">
         <v>0</v>
@@ -4667,8 +4691,8 @@
       <c r="AG35" s="11">
         <v>0</v>
       </c>
-      <c r="AH35" s="11">
-        <v>0</v>
+      <c r="AH35" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI35" s="11" t="s">
         <v>58</v>
@@ -4731,7 +4755,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B36" s="12" t="s">
         <v>62</v>
       </c>
@@ -4862,35 +4886,35 @@
       <c r="AS36" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT36" s="13" t="s">
-        <v>58</v>
+      <c r="AT36" s="13">
+        <v>847</v>
       </c>
       <c r="AU36" s="13">
-        <v>847</v>
+        <v>748</v>
       </c>
       <c r="AV36" s="13">
-        <v>748</v>
+        <v>622</v>
       </c>
       <c r="AW36" s="13">
-        <v>622</v>
+        <v>685</v>
       </c>
       <c r="AX36" s="13">
-        <v>685</v>
+        <v>733</v>
       </c>
       <c r="AY36" s="13">
-        <v>733</v>
+        <v>780</v>
       </c>
       <c r="AZ36" s="13">
-        <v>780</v>
+        <v>901</v>
       </c>
       <c r="BA36" s="13">
-        <v>901</v>
+        <v>1024</v>
       </c>
       <c r="BB36" s="13">
-        <v>1024</v>
+        <v>1026</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
         <v>63</v>
       </c>
@@ -5021,35 +5045,35 @@
       <c r="AS37" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT37" s="11" t="s">
-        <v>58</v>
+      <c r="AT37" s="11">
+        <v>505</v>
       </c>
       <c r="AU37" s="11">
-        <v>505</v>
+        <v>616</v>
       </c>
       <c r="AV37" s="11">
-        <v>616</v>
+        <v>421</v>
       </c>
       <c r="AW37" s="11">
-        <v>421</v>
+        <v>849</v>
       </c>
       <c r="AX37" s="11">
-        <v>849</v>
+        <v>840</v>
       </c>
       <c r="AY37" s="11">
-        <v>840</v>
+        <v>925</v>
       </c>
       <c r="AZ37" s="11">
-        <v>925</v>
+        <v>1092</v>
       </c>
       <c r="BA37" s="11">
-        <v>1092</v>
+        <v>1215</v>
       </c>
       <c r="BB37" s="11">
-        <v>1215</v>
+        <v>830</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
         <v>64</v>
       </c>
@@ -5106,7 +5130,7 @@
       <c r="BA38" s="9"/>
       <c r="BB38" s="9"/>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>55</v>
       </c>
@@ -5174,8 +5198,8 @@
       <c r="X39" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y39" s="11" t="s">
-        <v>58</v>
+      <c r="Y39" s="11">
+        <v>0</v>
       </c>
       <c r="Z39" s="11">
         <v>0</v>
@@ -5198,8 +5222,8 @@
       <c r="AF39" s="11">
         <v>0</v>
       </c>
-      <c r="AG39" s="11">
-        <v>0</v>
+      <c r="AG39" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH39" s="11" t="s">
         <v>58</v>
@@ -5265,9 +5289,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B40" s="12" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="C40" s="13" t="s">
         <v>56</v>
@@ -5333,8 +5357,8 @@
       <c r="X40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y40" s="13" t="s">
-        <v>58</v>
+      <c r="Y40" s="13">
+        <v>0</v>
       </c>
       <c r="Z40" s="13">
         <v>0</v>
@@ -5357,8 +5381,8 @@
       <c r="AF40" s="13">
         <v>0</v>
       </c>
-      <c r="AG40" s="13">
-        <v>0</v>
+      <c r="AG40" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH40" s="13" t="s">
         <v>58</v>
@@ -5424,9 +5448,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>56</v>
@@ -5492,8 +5516,8 @@
       <c r="X41" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y41" s="11" t="s">
-        <v>58</v>
+      <c r="Y41" s="11">
+        <v>0</v>
       </c>
       <c r="Z41" s="11">
         <v>0</v>
@@ -5516,8 +5540,8 @@
       <c r="AF41" s="11">
         <v>0</v>
       </c>
-      <c r="AG41" s="11">
-        <v>0</v>
+      <c r="AG41" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH41" s="11" t="s">
         <v>58</v>
@@ -5583,7 +5607,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B42" s="12" t="s">
         <v>65</v>
       </c>
@@ -5708,11 +5732,11 @@
       <c r="AQ42" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR42" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS42" s="13">
-        <v>0</v>
+      <c r="AR42" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS42" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT42" s="13" t="s">
         <v>58</v>
@@ -5742,7 +5766,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B43" s="14" t="s">
         <v>66</v>
       </c>
@@ -5808,8 +5832,8 @@
       <c r="X43" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y43" s="15" t="s">
-        <v>58</v>
+      <c r="Y43" s="15">
+        <v>0</v>
       </c>
       <c r="Z43" s="15">
         <v>0</v>
@@ -5866,10 +5890,10 @@
         <v>0</v>
       </c>
       <c r="AR43" s="15">
-        <v>0</v>
+        <v>1250</v>
       </c>
       <c r="AS43" s="15">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="AT43" s="15">
         <v>0</v>
@@ -5899,7 +5923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>69</v>
       </c>
@@ -5956,7 +5980,7 @@
       <c r="BA44" s="9"/>
       <c r="BB44" s="9"/>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>55</v>
       </c>
@@ -6024,14 +6048,14 @@
       <c r="X45" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y45" s="11" t="s">
-        <v>58</v>
+      <c r="Y45" s="11">
+        <v>1</v>
       </c>
       <c r="Z45" s="11">
+        <v>2</v>
+      </c>
+      <c r="AA45" s="11">
         <v>1</v>
-      </c>
-      <c r="AA45" s="11">
-        <v>2</v>
       </c>
       <c r="AB45" s="11">
         <v>1</v>
@@ -6043,58 +6067,58 @@
         <v>1</v>
       </c>
       <c r="AE45" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF45" s="11">
         <v>1</v>
       </c>
-      <c r="AF45" s="11">
-        <v>0</v>
-      </c>
       <c r="AG45" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH45" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI45" s="11">
         <v>1</v>
       </c>
-      <c r="AH45" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI45" s="11">
-        <v>0</v>
-      </c>
       <c r="AJ45" s="11">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AK45" s="11">
-        <v>12</v>
-      </c>
-      <c r="AL45" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM45" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN45" s="11">
-        <v>0</v>
-      </c>
-      <c r="AO45" s="11" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AL45" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM45" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN45" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO45" s="11">
+        <v>0</v>
       </c>
       <c r="AP45" s="11">
         <v>0</v>
       </c>
       <c r="AQ45" s="11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AR45" s="11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AS45" s="11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AT45" s="11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AU45" s="11">
         <v>0</v>
       </c>
-      <c r="AV45" s="11">
-        <v>0</v>
+      <c r="AV45" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AW45" s="11" t="s">
         <v>58</v>
@@ -6115,9 +6139,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B46" s="12" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="C46" s="13" t="s">
         <v>56</v>
@@ -6183,100 +6207,100 @@
       <c r="X46" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y46" s="13" t="s">
-        <v>58</v>
+      <c r="Y46" s="13">
+        <v>9</v>
       </c>
       <c r="Z46" s="13">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AA46" s="13">
+        <v>4</v>
+      </c>
+      <c r="AB46" s="13">
+        <v>23</v>
+      </c>
+      <c r="AC46" s="13">
+        <v>20</v>
+      </c>
+      <c r="AD46" s="13">
+        <v>32</v>
+      </c>
+      <c r="AE46" s="13">
+        <v>13</v>
+      </c>
+      <c r="AF46" s="13">
         <v>3</v>
-      </c>
-      <c r="AB46" s="13">
-        <v>4</v>
-      </c>
-      <c r="AC46" s="13">
-        <v>23</v>
-      </c>
-      <c r="AD46" s="13">
-        <v>20</v>
-      </c>
-      <c r="AE46" s="13">
-        <v>32</v>
-      </c>
-      <c r="AF46" s="13">
-        <v>13</v>
       </c>
       <c r="AG46" s="13">
         <v>3</v>
       </c>
       <c r="AH46" s="13">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AI46" s="13">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="AJ46" s="13">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="AK46" s="13">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="AL46" s="13">
+        <v>9</v>
+      </c>
+      <c r="AM46" s="13">
+        <v>5</v>
+      </c>
+      <c r="AN46" s="13">
+        <v>55</v>
+      </c>
+      <c r="AO46" s="13">
+        <v>110</v>
+      </c>
+      <c r="AP46" s="13">
+        <v>36</v>
+      </c>
+      <c r="AQ46" s="13">
+        <v>7</v>
+      </c>
+      <c r="AR46" s="13">
+        <v>2</v>
+      </c>
+      <c r="AS46" s="13">
+        <v>24</v>
+      </c>
+      <c r="AT46" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU46" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV46" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW46" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX46" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY46" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ46" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA46" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB46" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+      <c r="B47" s="10" t="s">
         <v>59</v>
-      </c>
-      <c r="AM46" s="13">
-        <v>9</v>
-      </c>
-      <c r="AN46" s="13">
-        <v>5</v>
-      </c>
-      <c r="AO46" s="13">
-        <v>55</v>
-      </c>
-      <c r="AP46" s="13">
-        <v>110</v>
-      </c>
-      <c r="AQ46" s="13">
-        <v>36</v>
-      </c>
-      <c r="AR46" s="13">
-        <v>7</v>
-      </c>
-      <c r="AS46" s="13">
-        <v>2</v>
-      </c>
-      <c r="AT46" s="13">
-        <v>24</v>
-      </c>
-      <c r="AU46" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV46" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW46" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX46" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY46" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ46" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA46" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB46" s="13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="B47" s="10" t="s">
-        <v>83</v>
       </c>
       <c r="C47" s="11" t="s">
         <v>56</v>
@@ -6342,56 +6366,56 @@
       <c r="X47" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y47" s="11" t="s">
-        <v>58</v>
+      <c r="Y47" s="11">
+        <v>3</v>
       </c>
       <c r="Z47" s="11">
+        <v>2</v>
+      </c>
+      <c r="AA47" s="11">
+        <v>1</v>
+      </c>
+      <c r="AB47" s="11">
+        <v>2</v>
+      </c>
+      <c r="AC47" s="11">
+        <v>5</v>
+      </c>
+      <c r="AD47" s="11">
         <v>3</v>
       </c>
-      <c r="AA47" s="11">
+      <c r="AE47" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF47" s="11">
+        <v>26</v>
+      </c>
+      <c r="AG47" s="11">
+        <v>9</v>
+      </c>
+      <c r="AH47" s="11">
+        <v>3</v>
+      </c>
+      <c r="AI47" s="11">
+        <v>1</v>
+      </c>
+      <c r="AJ47" s="11">
+        <v>4</v>
+      </c>
+      <c r="AK47" s="11">
         <v>2</v>
       </c>
-      <c r="AB47" s="11">
-        <v>1</v>
-      </c>
-      <c r="AC47" s="11">
-        <v>2</v>
-      </c>
-      <c r="AD47" s="11">
-        <v>5</v>
-      </c>
-      <c r="AE47" s="11">
-        <v>3</v>
-      </c>
-      <c r="AF47" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG47" s="11">
-        <v>26</v>
-      </c>
-      <c r="AH47" s="11">
-        <v>9</v>
-      </c>
-      <c r="AI47" s="11">
-        <v>3</v>
-      </c>
-      <c r="AJ47" s="11">
-        <v>1</v>
-      </c>
-      <c r="AK47" s="11">
-        <v>4</v>
-      </c>
       <c r="AL47" s="11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM47" s="11">
         <v>0</v>
       </c>
-      <c r="AN47" s="11">
-        <v>0</v>
-      </c>
-      <c r="AO47" s="11" t="s">
-        <v>58</v>
+      <c r="AN47" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO47" s="11">
+        <v>0</v>
       </c>
       <c r="AP47" s="11">
         <v>0</v>
@@ -6405,8 +6429,8 @@
       <c r="AS47" s="11">
         <v>0</v>
       </c>
-      <c r="AT47" s="11">
-        <v>0</v>
+      <c r="AT47" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU47" s="11" t="s">
         <v>58</v>
@@ -6433,7 +6457,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B48" s="12" t="s">
         <v>60</v>
       </c>
@@ -6576,23 +6600,23 @@
       <c r="AW48" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX48" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY48" s="13">
+      <c r="AX48" s="13">
         <v>1</v>
       </c>
+      <c r="AY48" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AZ48" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="BA48" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB48" s="13">
+      <c r="BA48" s="13">
         <v>1</v>
       </c>
+      <c r="BB48" s="13" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
         <v>62</v>
       </c>
@@ -6723,14 +6747,14 @@
       <c r="AS49" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT49" s="11" t="s">
-        <v>58</v>
+      <c r="AT49" s="11">
+        <v>0</v>
       </c>
       <c r="AU49" s="11">
         <v>0</v>
       </c>
-      <c r="AV49" s="11">
-        <v>0</v>
+      <c r="AV49" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AW49" s="11" t="s">
         <v>58</v>
@@ -6751,7 +6775,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B50" s="12" t="s">
         <v>63</v>
       </c>
@@ -6882,35 +6906,35 @@
       <c r="AS50" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT50" s="13" t="s">
-        <v>58</v>
+      <c r="AT50" s="13">
+        <v>32</v>
       </c>
       <c r="AU50" s="13">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AV50" s="13">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="AW50" s="13">
-        <v>8</v>
-      </c>
-      <c r="AX50" s="13">
         <v>3</v>
       </c>
+      <c r="AX50" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AY50" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AZ50" s="13" t="s">
-        <v>58</v>
+      <c r="AZ50" s="13">
+        <v>1</v>
       </c>
       <c r="BA50" s="13">
-        <v>1</v>
-      </c>
-      <c r="BB50" s="13">
         <v>2</v>
       </c>
+      <c r="BB50" s="13" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B51" s="14" t="s">
         <v>70</v>
       </c>
@@ -6976,255 +7000,255 @@
       <c r="X51" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y51" s="15" t="s">
-        <v>58</v>
+      <c r="Y51" s="15">
+        <v>13</v>
       </c>
       <c r="Z51" s="15">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AA51" s="15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AB51" s="15">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="AC51" s="15">
         <v>26</v>
       </c>
       <c r="AD51" s="15">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="AE51" s="15">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="AF51" s="15">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="AG51" s="15">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="AH51" s="15">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AI51" s="15">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="AJ51" s="15">
         <v>35</v>
       </c>
       <c r="AK51" s="15">
+        <v>61</v>
+      </c>
+      <c r="AL51" s="15">
+        <v>9</v>
+      </c>
+      <c r="AM51" s="15">
+        <v>5</v>
+      </c>
+      <c r="AN51" s="15">
+        <v>55</v>
+      </c>
+      <c r="AO51" s="15">
+        <v>110</v>
+      </c>
+      <c r="AP51" s="15">
+        <v>36</v>
+      </c>
+      <c r="AQ51" s="15">
+        <v>10</v>
+      </c>
+      <c r="AR51" s="15">
+        <v>2</v>
+      </c>
+      <c r="AS51" s="15">
+        <v>28</v>
+      </c>
+      <c r="AT51" s="15">
+        <v>32</v>
+      </c>
+      <c r="AU51" s="15">
         <v>35</v>
       </c>
-      <c r="AL51" s="15">
-        <v>61</v>
-      </c>
-      <c r="AM51" s="15">
-        <v>9</v>
-      </c>
-      <c r="AN51" s="15">
-        <v>5</v>
-      </c>
-      <c r="AO51" s="15">
-        <v>55</v>
-      </c>
-      <c r="AP51" s="15">
-        <v>110</v>
-      </c>
-      <c r="AQ51" s="15">
-        <v>36</v>
-      </c>
-      <c r="AR51" s="15">
-        <v>10</v>
-      </c>
-      <c r="AS51" s="15">
-        <v>2</v>
-      </c>
-      <c r="AT51" s="15">
-        <v>28</v>
-      </c>
-      <c r="AU51" s="15">
-        <v>32</v>
-      </c>
       <c r="AV51" s="15">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="AW51" s="15">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AX51" s="15">
+        <v>1</v>
+      </c>
+      <c r="AY51" s="15">
+        <v>0</v>
+      </c>
+      <c r="AZ51" s="15">
+        <v>1</v>
+      </c>
+      <c r="BA51" s="15">
         <v>3</v>
       </c>
-      <c r="AY51" s="15">
-        <v>1</v>
-      </c>
-      <c r="AZ51" s="15">
-        <v>0</v>
-      </c>
-      <c r="BA51" s="15">
-        <v>1</v>
-      </c>
       <c r="BB51" s="15">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B52" s="16" t="s">
         <v>67</v>
       </c>
       <c r="C52" s="17"/>
       <c r="D52" s="17"/>
       <c r="E52" s="17">
-        <v>9801</v>
+        <v>3055</v>
       </c>
       <c r="F52" s="17">
-        <v>3055</v>
+        <v>1761</v>
       </c>
       <c r="G52" s="17">
-        <v>1761</v>
+        <v>1555</v>
       </c>
       <c r="H52" s="17">
-        <v>1555</v>
+        <v>2506</v>
       </c>
       <c r="I52" s="17">
-        <v>2506</v>
+        <v>1929</v>
       </c>
       <c r="J52" s="17">
-        <v>1929</v>
+        <v>1503</v>
       </c>
       <c r="K52" s="17">
-        <v>1503</v>
+        <v>2891</v>
       </c>
       <c r="L52" s="17">
-        <v>2891</v>
+        <v>1060</v>
       </c>
       <c r="M52" s="17">
-        <v>1060</v>
+        <v>1028</v>
       </c>
       <c r="N52" s="17">
-        <v>1028</v>
+        <v>7931</v>
       </c>
       <c r="O52" s="17">
-        <v>7931</v>
+        <v>18339</v>
       </c>
       <c r="P52" s="17">
-        <v>18339</v>
+        <v>14598</v>
       </c>
       <c r="Q52" s="17">
-        <v>14598</v>
+        <v>4043</v>
       </c>
       <c r="R52" s="17">
-        <v>4043</v>
+        <v>2783</v>
       </c>
       <c r="S52" s="17">
-        <v>2783</v>
+        <v>1377</v>
       </c>
       <c r="T52" s="17">
-        <v>1377</v>
+        <v>1566</v>
       </c>
       <c r="U52" s="17">
-        <v>1566</v>
+        <v>2191</v>
       </c>
       <c r="V52" s="17">
-        <v>2191</v>
+        <v>1695</v>
       </c>
       <c r="W52" s="17">
-        <v>1695</v>
+        <v>1932</v>
       </c>
       <c r="X52" s="17">
-        <v>1932</v>
+        <v>1233</v>
       </c>
       <c r="Y52" s="17">
-        <v>1233</v>
+        <v>1635</v>
       </c>
       <c r="Z52" s="17">
-        <v>1635</v>
+        <v>1318</v>
       </c>
       <c r="AA52" s="17">
-        <v>1318</v>
+        <v>1857</v>
       </c>
       <c r="AB52" s="17">
-        <v>1857</v>
+        <v>3589</v>
       </c>
       <c r="AC52" s="17">
-        <v>3589</v>
+        <v>1914</v>
       </c>
       <c r="AD52" s="17">
-        <v>1914</v>
+        <v>1486</v>
       </c>
       <c r="AE52" s="17">
-        <v>1486</v>
+        <v>1479</v>
       </c>
       <c r="AF52" s="17">
-        <v>1479</v>
+        <v>1954</v>
       </c>
       <c r="AG52" s="17">
-        <v>1954</v>
+        <v>2093</v>
       </c>
       <c r="AH52" s="17">
-        <v>2093</v>
+        <v>1817</v>
       </c>
       <c r="AI52" s="17">
-        <v>1817</v>
+        <v>2544</v>
       </c>
       <c r="AJ52" s="17">
-        <v>2544</v>
+        <v>3001</v>
       </c>
       <c r="AK52" s="17">
-        <v>3001</v>
+        <v>2040</v>
       </c>
       <c r="AL52" s="17">
-        <v>2040</v>
+        <v>3487</v>
       </c>
       <c r="AM52" s="17">
-        <v>3487</v>
+        <v>2539</v>
       </c>
       <c r="AN52" s="17">
-        <v>2539</v>
+        <v>3117</v>
       </c>
       <c r="AO52" s="17">
-        <v>3117</v>
+        <v>3552</v>
       </c>
       <c r="AP52" s="17">
-        <v>3552</v>
+        <v>2669</v>
       </c>
       <c r="AQ52" s="17">
-        <v>2669</v>
+        <v>3426</v>
       </c>
       <c r="AR52" s="17">
-        <v>3426</v>
+        <v>2497</v>
       </c>
       <c r="AS52" s="17">
-        <v>2497</v>
+        <v>1899</v>
       </c>
       <c r="AT52" s="17">
-        <v>1899</v>
+        <v>1447</v>
       </c>
       <c r="AU52" s="17">
-        <v>1447</v>
+        <v>1430</v>
       </c>
       <c r="AV52" s="17">
-        <v>1430</v>
+        <v>1064</v>
       </c>
       <c r="AW52" s="17">
-        <v>1064</v>
+        <v>1570</v>
       </c>
       <c r="AX52" s="17">
-        <v>1570</v>
+        <v>1641</v>
       </c>
       <c r="AY52" s="17">
-        <v>1641</v>
+        <v>1973</v>
       </c>
       <c r="AZ52" s="17">
-        <v>1973</v>
+        <v>3314</v>
       </c>
       <c r="BA52" s="17">
-        <v>3314</v>
+        <v>3413</v>
       </c>
       <c r="BB52" s="17">
-        <v>3413</v>
+        <v>2334</v>
       </c>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -7279,7 +7303,7 @@
       <c r="BA53" s="1"/>
       <c r="BB53" s="1"/>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -7334,7 +7358,7 @@
       <c r="BA54" s="1"/>
       <c r="BB54" s="1"/>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -7389,7 +7413,7 @@
       <c r="BA55" s="1"/>
       <c r="BB55" s="1"/>
     </row>
-    <row r="56" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B56" s="7" t="s">
         <v>71</v>
       </c>
@@ -7546,7 +7570,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -7601,7 +7625,7 @@
       <c r="BA57" s="1"/>
       <c r="BB57" s="1"/>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B58" s="8" t="s">
         <v>71</v>
       </c>
@@ -7658,7 +7682,7 @@
       <c r="BA58" s="9"/>
       <c r="BB58" s="9"/>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
         <v>55</v>
       </c>
@@ -7667,290 +7691,290 @@
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="11">
-        <v>222</v>
+        <v>5779</v>
       </c>
       <c r="F59" s="11">
-        <v>5779</v>
+        <v>2954</v>
       </c>
       <c r="G59" s="11">
-        <v>2954</v>
+        <v>391</v>
       </c>
       <c r="H59" s="11">
-        <v>391</v>
+        <v>529</v>
       </c>
       <c r="I59" s="11">
-        <v>529</v>
+        <v>189</v>
       </c>
       <c r="J59" s="11">
-        <v>189</v>
+        <v>312</v>
       </c>
       <c r="K59" s="11">
-        <v>312</v>
+        <v>834</v>
       </c>
       <c r="L59" s="11">
-        <v>834</v>
+        <v>1067</v>
       </c>
       <c r="M59" s="11">
-        <v>1067</v>
+        <v>1044</v>
       </c>
       <c r="N59" s="11">
-        <v>1044</v>
+        <v>1394</v>
       </c>
       <c r="O59" s="11">
-        <v>1394</v>
+        <v>1504</v>
       </c>
       <c r="P59" s="11">
-        <v>1504</v>
+        <v>4706</v>
       </c>
       <c r="Q59" s="11">
-        <v>4706</v>
+        <v>2217</v>
       </c>
       <c r="R59" s="11">
-        <v>2217</v>
+        <v>1790</v>
       </c>
       <c r="S59" s="11">
-        <v>1790</v>
+        <v>1982</v>
       </c>
       <c r="T59" s="11">
-        <v>1982</v>
+        <v>1616</v>
       </c>
       <c r="U59" s="11">
-        <v>1616</v>
+        <v>1639</v>
       </c>
       <c r="V59" s="11">
-        <v>1639</v>
+        <v>1824</v>
       </c>
       <c r="W59" s="11">
-        <v>1824</v>
+        <v>4014</v>
       </c>
       <c r="X59" s="11">
-        <v>4014</v>
+        <v>1205</v>
       </c>
       <c r="Y59" s="11">
-        <v>1205</v>
+        <v>2526</v>
       </c>
       <c r="Z59" s="11">
-        <v>2526</v>
+        <v>3746</v>
       </c>
       <c r="AA59" s="11">
+        <v>2357</v>
+      </c>
+      <c r="AB59" s="11">
+        <v>2890</v>
+      </c>
+      <c r="AC59" s="11">
+        <v>3364</v>
+      </c>
+      <c r="AD59" s="11">
+        <v>2674</v>
+      </c>
+      <c r="AE59" s="11">
+        <v>1872</v>
+      </c>
+      <c r="AF59" s="11">
+        <v>2324</v>
+      </c>
+      <c r="AG59" s="11">
+        <v>1604</v>
+      </c>
+      <c r="AH59" s="11">
+        <v>1839</v>
+      </c>
+      <c r="AI59" s="11">
+        <v>2678</v>
+      </c>
+      <c r="AJ59" s="11">
+        <v>2240</v>
+      </c>
+      <c r="AK59" s="11">
+        <v>1961</v>
+      </c>
+      <c r="AL59" s="11">
+        <v>2253</v>
+      </c>
+      <c r="AM59" s="11">
+        <v>4175</v>
+      </c>
+      <c r="AN59" s="11">
+        <v>4843</v>
+      </c>
+      <c r="AO59" s="11">
+        <v>7553</v>
+      </c>
+      <c r="AP59" s="11">
         <v>3746</v>
       </c>
-      <c r="AB59" s="11">
-        <v>2357</v>
-      </c>
-      <c r="AC59" s="11">
-        <v>2890</v>
-      </c>
-      <c r="AD59" s="11">
-        <v>3364</v>
-      </c>
-      <c r="AE59" s="11">
-        <v>2674</v>
-      </c>
-      <c r="AF59" s="11">
-        <v>1872</v>
-      </c>
-      <c r="AG59" s="11">
-        <v>2324</v>
-      </c>
-      <c r="AH59" s="11">
-        <v>1604</v>
-      </c>
-      <c r="AI59" s="11">
-        <v>1839</v>
-      </c>
-      <c r="AJ59" s="11">
-        <v>2678</v>
-      </c>
-      <c r="AK59" s="11">
-        <v>2240</v>
-      </c>
-      <c r="AL59" s="11">
-        <v>1961</v>
-      </c>
-      <c r="AM59" s="11">
-        <v>2253</v>
-      </c>
-      <c r="AN59" s="11">
-        <v>4175</v>
-      </c>
-      <c r="AO59" s="11">
-        <v>4843</v>
-      </c>
-      <c r="AP59" s="11">
-        <v>7553</v>
-      </c>
       <c r="AQ59" s="11">
-        <v>3746</v>
+        <v>2198</v>
       </c>
       <c r="AR59" s="11">
-        <v>2198</v>
+        <v>2250</v>
       </c>
       <c r="AS59" s="11">
-        <v>2250</v>
+        <v>1370</v>
       </c>
       <c r="AT59" s="11">
-        <v>1370</v>
+        <v>2168</v>
       </c>
       <c r="AU59" s="11">
-        <v>2168</v>
+        <v>794</v>
       </c>
       <c r="AV59" s="11">
-        <v>794</v>
+        <v>812</v>
       </c>
       <c r="AW59" s="11">
-        <v>812</v>
+        <v>1156</v>
       </c>
       <c r="AX59" s="11">
-        <v>1156</v>
+        <v>2267</v>
       </c>
       <c r="AY59" s="11">
-        <v>2267</v>
+        <v>1669</v>
       </c>
       <c r="AZ59" s="11">
-        <v>1669</v>
+        <v>3366</v>
       </c>
       <c r="BA59" s="11">
-        <v>3366</v>
+        <v>7477</v>
       </c>
       <c r="BB59" s="11">
-        <v>7477</v>
+        <v>5050</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B60" s="12" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="C60" s="13" t="s">
         <v>72</v>
       </c>
       <c r="D60" s="13"/>
       <c r="E60" s="13">
-        <v>78198</v>
+        <v>82827</v>
       </c>
       <c r="F60" s="13">
-        <v>82827</v>
+        <v>86627</v>
       </c>
       <c r="G60" s="13">
-        <v>86627</v>
+        <v>81797</v>
       </c>
       <c r="H60" s="13">
-        <v>81797</v>
+        <v>209804</v>
       </c>
       <c r="I60" s="13">
-        <v>209804</v>
+        <v>165210</v>
       </c>
       <c r="J60" s="13">
-        <v>165210</v>
+        <v>138649</v>
       </c>
       <c r="K60" s="13">
-        <v>138649</v>
+        <v>324586</v>
       </c>
       <c r="L60" s="13">
-        <v>324586</v>
+        <v>85611</v>
       </c>
       <c r="M60" s="13">
-        <v>85611</v>
+        <v>68545</v>
       </c>
       <c r="N60" s="13">
-        <v>68545</v>
+        <v>136080</v>
       </c>
       <c r="O60" s="13">
-        <v>136080</v>
+        <v>90511</v>
       </c>
       <c r="P60" s="13">
-        <v>90511</v>
+        <v>39062</v>
       </c>
       <c r="Q60" s="13">
-        <v>39062</v>
+        <v>150568</v>
       </c>
       <c r="R60" s="13">
-        <v>150568</v>
+        <v>195111</v>
       </c>
       <c r="S60" s="13">
-        <v>195111</v>
+        <v>17008</v>
       </c>
       <c r="T60" s="13">
-        <v>17008</v>
+        <v>25051</v>
       </c>
       <c r="U60" s="13">
-        <v>25051</v>
+        <v>88210</v>
       </c>
       <c r="V60" s="13">
-        <v>88210</v>
+        <v>67351</v>
       </c>
       <c r="W60" s="13">
-        <v>67351</v>
+        <v>72768</v>
       </c>
       <c r="X60" s="13">
-        <v>72768</v>
+        <v>44552</v>
       </c>
       <c r="Y60" s="13">
-        <v>44552</v>
+        <v>78261</v>
       </c>
       <c r="Z60" s="13">
-        <v>78261</v>
+        <v>81210</v>
       </c>
       <c r="AA60" s="13">
-        <v>81210</v>
+        <v>115404</v>
       </c>
       <c r="AB60" s="13">
-        <v>115404</v>
+        <v>260735</v>
       </c>
       <c r="AC60" s="13">
-        <v>260735</v>
+        <v>127025</v>
       </c>
       <c r="AD60" s="13">
-        <v>127025</v>
+        <v>63093</v>
       </c>
       <c r="AE60" s="13">
-        <v>63093</v>
+        <v>60430</v>
       </c>
       <c r="AF60" s="13">
-        <v>60430</v>
+        <v>103642</v>
       </c>
       <c r="AG60" s="13">
-        <v>103642</v>
+        <v>113771</v>
       </c>
       <c r="AH60" s="13">
-        <v>113771</v>
+        <v>115053</v>
       </c>
       <c r="AI60" s="13">
-        <v>115053</v>
+        <v>189316</v>
       </c>
       <c r="AJ60" s="13">
-        <v>189316</v>
+        <v>284063</v>
       </c>
       <c r="AK60" s="13">
-        <v>284063</v>
+        <v>210418</v>
       </c>
       <c r="AL60" s="13">
-        <v>210418</v>
+        <v>391445</v>
       </c>
       <c r="AM60" s="13">
-        <v>391445</v>
+        <v>414663</v>
       </c>
       <c r="AN60" s="13">
-        <v>414663</v>
+        <v>462511</v>
       </c>
       <c r="AO60" s="13">
-        <v>462511</v>
+        <v>527092</v>
       </c>
       <c r="AP60" s="13">
-        <v>527092</v>
+        <v>376033</v>
       </c>
       <c r="AQ60" s="13">
-        <v>376033</v>
+        <v>490529</v>
       </c>
       <c r="AR60" s="13">
-        <v>490529</v>
+        <v>354112</v>
       </c>
       <c r="AS60" s="13">
-        <v>354112</v>
-      </c>
-      <c r="AT60" s="13">
         <v>192131</v>
       </c>
+      <c r="AT60" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AU60" s="13" t="s">
         <v>58</v>
       </c>
@@ -7976,140 +8000,140 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="C61" s="11" t="s">
         <v>72</v>
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="11">
-        <v>35788</v>
+        <v>46387</v>
       </c>
       <c r="F61" s="11">
-        <v>46387</v>
+        <v>55958</v>
       </c>
       <c r="G61" s="11">
-        <v>55958</v>
+        <v>64318</v>
       </c>
       <c r="H61" s="11">
-        <v>64318</v>
+        <v>71025</v>
       </c>
       <c r="I61" s="11">
-        <v>71025</v>
+        <v>67225</v>
       </c>
       <c r="J61" s="11">
-        <v>67225</v>
+        <v>49927</v>
       </c>
       <c r="K61" s="11">
-        <v>49927</v>
+        <v>69986</v>
       </c>
       <c r="L61" s="11">
-        <v>69986</v>
+        <v>50954</v>
       </c>
       <c r="M61" s="11">
-        <v>50954</v>
+        <v>54459</v>
       </c>
       <c r="N61" s="11">
-        <v>54459</v>
+        <v>52358</v>
       </c>
       <c r="O61" s="11">
-        <v>52358</v>
+        <v>57733</v>
       </c>
       <c r="P61" s="11">
-        <v>57733</v>
+        <v>61677</v>
       </c>
       <c r="Q61" s="11">
-        <v>61677</v>
+        <v>84299</v>
       </c>
       <c r="R61" s="11">
-        <v>84299</v>
+        <v>71520</v>
       </c>
       <c r="S61" s="11">
-        <v>71520</v>
+        <v>98827</v>
       </c>
       <c r="T61" s="11">
-        <v>98827</v>
+        <v>110958</v>
       </c>
       <c r="U61" s="11">
-        <v>110958</v>
+        <v>118571</v>
       </c>
       <c r="V61" s="11">
-        <v>118571</v>
+        <v>93891</v>
       </c>
       <c r="W61" s="11">
-        <v>93891</v>
+        <v>111570</v>
       </c>
       <c r="X61" s="11">
-        <v>111570</v>
+        <v>76878</v>
       </c>
       <c r="Y61" s="11">
-        <v>76878</v>
+        <v>85101</v>
       </c>
       <c r="Z61" s="11">
-        <v>85101</v>
+        <v>58310</v>
       </c>
       <c r="AA61" s="11">
-        <v>58310</v>
+        <v>83824</v>
       </c>
       <c r="AB61" s="11">
-        <v>83824</v>
+        <v>94915</v>
       </c>
       <c r="AC61" s="11">
-        <v>94915</v>
+        <v>107496</v>
       </c>
       <c r="AD61" s="11">
-        <v>107496</v>
+        <v>131120</v>
       </c>
       <c r="AE61" s="11">
-        <v>131120</v>
+        <v>146204</v>
       </c>
       <c r="AF61" s="11">
-        <v>146204</v>
+        <v>164819</v>
       </c>
       <c r="AG61" s="11">
-        <v>164819</v>
+        <v>185554</v>
       </c>
       <c r="AH61" s="11">
-        <v>185554</v>
+        <v>149332</v>
       </c>
       <c r="AI61" s="11">
-        <v>149332</v>
+        <v>135439</v>
       </c>
       <c r="AJ61" s="11">
-        <v>135439</v>
+        <v>103965</v>
       </c>
       <c r="AK61" s="11">
-        <v>103965</v>
+        <v>92687</v>
       </c>
       <c r="AL61" s="11">
-        <v>92687</v>
+        <v>111338</v>
       </c>
       <c r="AM61" s="11">
-        <v>111338</v>
+        <v>125038</v>
       </c>
       <c r="AN61" s="11">
-        <v>125038</v>
+        <v>131340</v>
       </c>
       <c r="AO61" s="11">
-        <v>131340</v>
+        <v>197443</v>
       </c>
       <c r="AP61" s="11">
-        <v>197443</v>
+        <v>173477</v>
       </c>
       <c r="AQ61" s="11">
-        <v>173477</v>
+        <v>288089</v>
       </c>
       <c r="AR61" s="11">
-        <v>288089</v>
+        <v>238534</v>
       </c>
       <c r="AS61" s="11">
-        <v>238534</v>
-      </c>
-      <c r="AT61" s="11">
         <v>257384</v>
       </c>
+      <c r="AT61" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AU61" s="11" t="s">
         <v>58</v>
       </c>
@@ -8135,7 +8159,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B62" s="12" t="s">
         <v>60</v>
       </c>
@@ -8266,8 +8290,8 @@
       <c r="AS62" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT62" s="13" t="s">
-        <v>58</v>
+      <c r="AT62" s="13">
+        <v>0</v>
       </c>
       <c r="AU62" s="13">
         <v>0</v>
@@ -8279,22 +8303,22 @@
         <v>0</v>
       </c>
       <c r="AX62" s="13">
-        <v>0</v>
+        <v>3725</v>
       </c>
       <c r="AY62" s="13">
-        <v>3725</v>
+        <v>70010</v>
       </c>
       <c r="AZ62" s="13">
-        <v>70010</v>
+        <v>281523</v>
       </c>
       <c r="BA62" s="13">
-        <v>281523</v>
+        <v>224619</v>
       </c>
       <c r="BB62" s="13">
-        <v>224619</v>
+        <v>86580</v>
       </c>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>61</v>
       </c>
@@ -8303,10 +8327,10 @@
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11">
-        <v>141987</v>
+        <v>8176</v>
       </c>
       <c r="F63" s="11">
-        <v>8176</v>
+        <v>0</v>
       </c>
       <c r="G63" s="11">
         <v>0</v>
@@ -8317,8 +8341,8 @@
       <c r="I63" s="11">
         <v>0</v>
       </c>
-      <c r="J63" s="11">
-        <v>0</v>
+      <c r="J63" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="K63" s="11" t="s">
         <v>58</v>
@@ -8329,20 +8353,20 @@
       <c r="M63" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="N63" s="11" t="s">
-        <v>58</v>
+      <c r="N63" s="11">
+        <v>47657</v>
       </c>
       <c r="O63" s="11">
-        <v>47657</v>
+        <v>142071</v>
       </c>
       <c r="P63" s="11">
-        <v>142071</v>
+        <v>78156</v>
       </c>
       <c r="Q63" s="11">
-        <v>78156</v>
+        <v>7050</v>
       </c>
       <c r="R63" s="11">
-        <v>7050</v>
+        <v>0</v>
       </c>
       <c r="S63" s="11">
         <v>0</v>
@@ -8389,8 +8413,8 @@
       <c r="AG63" s="11">
         <v>0</v>
       </c>
-      <c r="AH63" s="11">
-        <v>0</v>
+      <c r="AH63" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI63" s="11" t="s">
         <v>58</v>
@@ -8453,7 +8477,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B64" s="12" t="s">
         <v>62</v>
       </c>
@@ -8584,35 +8608,35 @@
       <c r="AS64" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT64" s="13" t="s">
-        <v>58</v>
+      <c r="AT64" s="13">
+        <v>214180</v>
       </c>
       <c r="AU64" s="13">
-        <v>214180</v>
+        <v>219881</v>
       </c>
       <c r="AV64" s="13">
-        <v>219881</v>
+        <v>275089</v>
       </c>
       <c r="AW64" s="13">
-        <v>275089</v>
+        <v>308347</v>
       </c>
       <c r="AX64" s="13">
-        <v>308347</v>
+        <v>321477</v>
       </c>
       <c r="AY64" s="13">
-        <v>321477</v>
+        <v>330122</v>
       </c>
       <c r="AZ64" s="13">
-        <v>330122</v>
+        <v>381943</v>
       </c>
       <c r="BA64" s="13">
-        <v>381943</v>
+        <v>432409</v>
       </c>
       <c r="BB64" s="13">
-        <v>432409</v>
+        <v>441986</v>
       </c>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>63</v>
       </c>
@@ -8743,35 +8767,35 @@
       <c r="AS65" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT65" s="11" t="s">
-        <v>58</v>
+      <c r="AT65" s="11">
+        <v>154852</v>
       </c>
       <c r="AU65" s="11">
-        <v>154852</v>
+        <v>204585</v>
       </c>
       <c r="AV65" s="11">
-        <v>204585</v>
+        <v>172085</v>
       </c>
       <c r="AW65" s="11">
-        <v>172085</v>
+        <v>347752</v>
       </c>
       <c r="AX65" s="11">
-        <v>347752</v>
+        <v>337041</v>
       </c>
       <c r="AY65" s="11">
-        <v>337041</v>
+        <v>357282</v>
       </c>
       <c r="AZ65" s="11">
-        <v>357282</v>
+        <v>407491</v>
       </c>
       <c r="BA65" s="11">
-        <v>407491</v>
+        <v>456072</v>
       </c>
       <c r="BB65" s="11">
-        <v>456072</v>
+        <v>305797</v>
       </c>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
         <v>73</v>
       </c>
@@ -8828,7 +8852,7 @@
       <c r="BA66" s="9"/>
       <c r="BB66" s="9"/>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
         <v>55</v>
       </c>
@@ -8896,8 +8920,8 @@
       <c r="X67" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y67" s="11" t="s">
-        <v>58</v>
+      <c r="Y67" s="11">
+        <v>0</v>
       </c>
       <c r="Z67" s="11">
         <v>0</v>
@@ -8920,8 +8944,8 @@
       <c r="AF67" s="11">
         <v>0</v>
       </c>
-      <c r="AG67" s="11">
-        <v>0</v>
+      <c r="AG67" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH67" s="11" t="s">
         <v>58</v>
@@ -8987,7 +9011,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B68" s="12" t="s">
         <v>57</v>
       </c>
@@ -9055,8 +9079,8 @@
       <c r="X68" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y68" s="13" t="s">
-        <v>58</v>
+      <c r="Y68" s="13">
+        <v>0</v>
       </c>
       <c r="Z68" s="13">
         <v>0</v>
@@ -9079,8 +9103,8 @@
       <c r="AF68" s="13">
         <v>0</v>
       </c>
-      <c r="AG68" s="13">
-        <v>0</v>
+      <c r="AG68" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH68" s="13" t="s">
         <v>58</v>
@@ -9146,7 +9170,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>59</v>
       </c>
@@ -9214,8 +9238,8 @@
       <c r="X69" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y69" s="11" t="s">
-        <v>58</v>
+      <c r="Y69" s="11">
+        <v>0</v>
       </c>
       <c r="Z69" s="11">
         <v>0</v>
@@ -9238,8 +9262,8 @@
       <c r="AF69" s="11">
         <v>0</v>
       </c>
-      <c r="AG69" s="11">
-        <v>0</v>
+      <c r="AG69" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH69" s="11" t="s">
         <v>58</v>
@@ -9305,7 +9329,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B70" s="12" t="s">
         <v>65</v>
       </c>
@@ -9430,14 +9454,14 @@
       <c r="AQ70" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR70" s="13" t="s">
-        <v>58</v>
+      <c r="AR70" s="13">
+        <v>0</v>
       </c>
       <c r="AS70" s="13">
         <v>0</v>
       </c>
-      <c r="AT70" s="13">
-        <v>0</v>
+      <c r="AT70" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU70" s="13" t="s">
         <v>58</v>
@@ -9464,7 +9488,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B71" s="14" t="s">
         <v>66</v>
       </c>
@@ -9532,8 +9556,8 @@
       <c r="X71" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y71" s="15" t="s">
-        <v>58</v>
+      <c r="Y71" s="15">
+        <v>0</v>
       </c>
       <c r="Z71" s="15">
         <v>0</v>
@@ -9590,10 +9614,10 @@
         <v>0</v>
       </c>
       <c r="AR71" s="15">
-        <v>0</v>
+        <v>27507</v>
       </c>
       <c r="AS71" s="15">
-        <v>27507</v>
+        <v>0</v>
       </c>
       <c r="AT71" s="15">
         <v>0</v>
@@ -9623,7 +9647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B72" s="8" t="s">
         <v>74</v>
       </c>
@@ -9680,7 +9704,7 @@
       <c r="BA72" s="9"/>
       <c r="BB72" s="9"/>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>55</v>
       </c>
@@ -9748,44 +9772,44 @@
       <c r="X73" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y73" s="11" t="s">
-        <v>58</v>
+      <c r="Y73" s="11">
+        <v>-150</v>
       </c>
       <c r="Z73" s="11">
-        <v>-150</v>
+        <v>-207</v>
       </c>
       <c r="AA73" s="11">
-        <v>-207</v>
+        <v>-151</v>
       </c>
       <c r="AB73" s="11">
-        <v>-151</v>
+        <v>-164</v>
       </c>
       <c r="AC73" s="11">
-        <v>-164</v>
+        <v>-95</v>
       </c>
       <c r="AD73" s="11">
-        <v>-95</v>
+        <v>-39</v>
       </c>
       <c r="AE73" s="11">
-        <v>-39</v>
+        <v>0</v>
       </c>
       <c r="AF73" s="11">
-        <v>0</v>
+        <v>-41</v>
       </c>
       <c r="AG73" s="11">
-        <v>-41</v>
+        <v>0</v>
       </c>
       <c r="AH73" s="11">
         <v>0</v>
       </c>
       <c r="AI73" s="11">
-        <v>0</v>
+        <v>-23</v>
       </c>
       <c r="AJ73" s="11">
-        <v>-23</v>
+        <v>-404</v>
       </c>
       <c r="AK73" s="11">
-        <v>-404</v>
+        <v>0</v>
       </c>
       <c r="AL73" s="11">
         <v>0</v>
@@ -9797,51 +9821,51 @@
         <v>0</v>
       </c>
       <c r="AO73" s="11">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AP73" s="11">
+        <v>0</v>
+      </c>
+      <c r="AQ73" s="11">
+        <v>-75</v>
+      </c>
+      <c r="AR73" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS73" s="11">
+        <v>-129</v>
+      </c>
+      <c r="AT73" s="11">
+        <v>-20</v>
+      </c>
+      <c r="AU73" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV73" s="11">
         <v>-3</v>
       </c>
-      <c r="AQ73" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR73" s="11">
-        <v>-75</v>
-      </c>
-      <c r="AS73" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT73" s="11">
-        <v>-129</v>
-      </c>
-      <c r="AU73" s="11">
-        <v>-20</v>
-      </c>
-      <c r="AV73" s="11">
-        <v>0</v>
-      </c>
       <c r="AW73" s="11">
+        <v>0</v>
+      </c>
+      <c r="AX73" s="11">
+        <v>0</v>
+      </c>
+      <c r="AY73" s="11">
+        <v>-1</v>
+      </c>
+      <c r="AZ73" s="11">
+        <v>0</v>
+      </c>
+      <c r="BA73" s="11">
         <v>-3</v>
       </c>
-      <c r="AX73" s="11">
-        <v>0</v>
-      </c>
-      <c r="AY73" s="11">
-        <v>0</v>
-      </c>
-      <c r="AZ73" s="11">
-        <v>-1</v>
-      </c>
-      <c r="BA73" s="11">
-        <v>0</v>
-      </c>
       <c r="BB73" s="11">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B74" s="12" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="C74" s="13" t="s">
         <v>72</v>
@@ -9907,72 +9931,72 @@
       <c r="X74" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y74" s="13" t="s">
-        <v>58</v>
+      <c r="Y74" s="13">
+        <v>-702</v>
       </c>
       <c r="Z74" s="13">
-        <v>-702</v>
+        <v>-330</v>
       </c>
       <c r="AA74" s="13">
-        <v>-330</v>
+        <v>-413</v>
       </c>
       <c r="AB74" s="13">
-        <v>-413</v>
+        <v>-1497</v>
       </c>
       <c r="AC74" s="13">
-        <v>-1497</v>
+        <v>-1211</v>
       </c>
       <c r="AD74" s="13">
-        <v>-1211</v>
+        <v>-3439</v>
       </c>
       <c r="AE74" s="13">
-        <v>-3439</v>
+        <v>-912</v>
       </c>
       <c r="AF74" s="13">
-        <v>-912</v>
+        <v>-150</v>
       </c>
       <c r="AG74" s="13">
-        <v>-150</v>
+        <v>-378</v>
       </c>
       <c r="AH74" s="13">
-        <v>-378</v>
+        <v>-1576</v>
       </c>
       <c r="AI74" s="13">
-        <v>-1576</v>
+        <v>-4353</v>
       </c>
       <c r="AJ74" s="13">
-        <v>-4353</v>
+        <v>-2830</v>
       </c>
       <c r="AK74" s="13">
-        <v>-2830</v>
+        <v>-10101</v>
       </c>
       <c r="AL74" s="13">
-        <v>-10101</v>
+        <v>-589</v>
       </c>
       <c r="AM74" s="13">
-        <v>-589</v>
+        <v>-440</v>
       </c>
       <c r="AN74" s="13">
-        <v>-440</v>
+        <v>-12138</v>
       </c>
       <c r="AO74" s="13">
-        <v>-12138</v>
+        <v>-25315</v>
       </c>
       <c r="AP74" s="13">
-        <v>-25315</v>
+        <v>-8680</v>
       </c>
       <c r="AQ74" s="13">
-        <v>-8680</v>
+        <v>-2044</v>
       </c>
       <c r="AR74" s="13">
-        <v>-2044</v>
+        <v>-280</v>
       </c>
       <c r="AS74" s="13">
-        <v>-280</v>
-      </c>
-      <c r="AT74" s="13">
         <v>-7164</v>
       </c>
+      <c r="AT74" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AU74" s="13" t="s">
         <v>58</v>
       </c>
@@ -9998,9 +10022,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="C75" s="11" t="s">
         <v>72</v>
@@ -10066,71 +10090,71 @@
       <c r="X75" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y75" s="11" t="s">
-        <v>58</v>
+      <c r="Y75" s="11">
+        <v>-261</v>
       </c>
       <c r="Z75" s="11">
-        <v>-261</v>
+        <v>-232</v>
       </c>
       <c r="AA75" s="11">
-        <v>-232</v>
+        <v>-123</v>
       </c>
       <c r="AB75" s="11">
-        <v>-123</v>
+        <v>-215</v>
       </c>
       <c r="AC75" s="11">
-        <v>-215</v>
+        <v>-537</v>
       </c>
       <c r="AD75" s="11">
-        <v>-537</v>
+        <v>-492</v>
       </c>
       <c r="AE75" s="11">
-        <v>-492</v>
+        <v>0</v>
       </c>
       <c r="AF75" s="11">
-        <v>0</v>
+        <v>-4229</v>
       </c>
       <c r="AG75" s="11">
-        <v>-4229</v>
+        <v>-1007</v>
       </c>
       <c r="AH75" s="11">
-        <v>-1007</v>
+        <v>-432</v>
       </c>
       <c r="AI75" s="11">
-        <v>-432</v>
+        <v>-310</v>
       </c>
       <c r="AJ75" s="11">
-        <v>-310</v>
+        <v>-604</v>
       </c>
       <c r="AK75" s="11">
-        <v>-604</v>
+        <v>-318</v>
       </c>
       <c r="AL75" s="11">
-        <v>-318</v>
+        <v>-6</v>
       </c>
       <c r="AM75" s="11">
-        <v>-6</v>
+        <v>-3</v>
       </c>
       <c r="AN75" s="11">
+        <v>-7</v>
+      </c>
+      <c r="AO75" s="11">
+        <v>-12</v>
+      </c>
+      <c r="AP75" s="11">
+        <v>-19</v>
+      </c>
+      <c r="AQ75" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR75" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS75" s="11">
         <v>-3</v>
       </c>
-      <c r="AO75" s="11">
-        <v>-7</v>
-      </c>
-      <c r="AP75" s="11">
-        <v>-12</v>
-      </c>
-      <c r="AQ75" s="11">
-        <v>-19</v>
-      </c>
-      <c r="AR75" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS75" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT75" s="11">
-        <v>-3</v>
+      <c r="AT75" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU75" s="11" t="s">
         <v>58</v>
@@ -10157,7 +10181,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B76" s="12" t="s">
         <v>60</v>
       </c>
@@ -10300,23 +10324,23 @@
       <c r="AW76" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX76" s="13" t="s">
-        <v>58</v>
+      <c r="AX76" s="13">
+        <v>-194</v>
       </c>
       <c r="AY76" s="13">
-        <v>-194</v>
+        <v>0</v>
       </c>
       <c r="AZ76" s="13">
-        <v>0</v>
+        <v>-123</v>
       </c>
       <c r="BA76" s="13">
-        <v>-123</v>
+        <v>-284</v>
       </c>
       <c r="BB76" s="13">
-        <v>-284</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B77" s="10" t="s">
         <v>62</v>
       </c>
@@ -10447,35 +10471,35 @@
       <c r="AS77" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT77" s="11" t="s">
-        <v>58</v>
+      <c r="AT77" s="11">
+        <v>0</v>
       </c>
       <c r="AU77" s="11">
         <v>0</v>
       </c>
       <c r="AV77" s="11">
-        <v>0</v>
+        <v>-78</v>
       </c>
       <c r="AW77" s="11">
-        <v>-78</v>
+        <v>-10</v>
       </c>
       <c r="AX77" s="11">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="AY77" s="11">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="AZ77" s="11">
-        <v>-22</v>
+        <v>-36</v>
       </c>
       <c r="BA77" s="11">
-        <v>-36</v>
+        <v>-7</v>
       </c>
       <c r="BB77" s="11">
-        <v>-7</v>
+        <v>-105</v>
       </c>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B78" s="12" t="s">
         <v>63</v>
       </c>
@@ -10606,35 +10630,35 @@
       <c r="AS78" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT78" s="13" t="s">
-        <v>58</v>
+      <c r="AT78" s="13">
+        <v>-6565</v>
       </c>
       <c r="AU78" s="13">
-        <v>-6565</v>
+        <v>-7313</v>
       </c>
       <c r="AV78" s="13">
-        <v>-7313</v>
+        <v>-1635</v>
       </c>
       <c r="AW78" s="13">
-        <v>-1635</v>
+        <v>-1184</v>
       </c>
       <c r="AX78" s="13">
-        <v>-1184</v>
+        <v>-10</v>
       </c>
       <c r="AY78" s="13">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="AZ78" s="13">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="BA78" s="13">
-        <v>-30</v>
+        <v>-1049</v>
       </c>
       <c r="BB78" s="13">
-        <v>-1049</v>
+        <v>-142</v>
       </c>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B79" s="14" t="s">
         <v>70</v>
       </c>
@@ -10702,98 +10726,98 @@
       <c r="X79" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y79" s="15" t="s">
-        <v>58</v>
+      <c r="Y79" s="15">
+        <v>-1113</v>
       </c>
       <c r="Z79" s="15">
-        <v>-1113</v>
+        <v>-769</v>
       </c>
       <c r="AA79" s="15">
-        <v>-769</v>
+        <v>-687</v>
       </c>
       <c r="AB79" s="15">
-        <v>-687</v>
+        <v>-1876</v>
       </c>
       <c r="AC79" s="15">
-        <v>-1876</v>
+        <v>-1843</v>
       </c>
       <c r="AD79" s="15">
-        <v>-1843</v>
+        <v>-3970</v>
       </c>
       <c r="AE79" s="15">
-        <v>-3970</v>
+        <v>-912</v>
       </c>
       <c r="AF79" s="15">
-        <v>-912</v>
+        <v>-4420</v>
       </c>
       <c r="AG79" s="15">
-        <v>-4420</v>
+        <v>-1385</v>
       </c>
       <c r="AH79" s="15">
-        <v>-1385</v>
+        <v>-2008</v>
       </c>
       <c r="AI79" s="15">
-        <v>-2008</v>
+        <v>-4686</v>
       </c>
       <c r="AJ79" s="15">
-        <v>-4686</v>
+        <v>-3838</v>
       </c>
       <c r="AK79" s="15">
-        <v>-3838</v>
+        <v>-10419</v>
       </c>
       <c r="AL79" s="15">
-        <v>-10419</v>
+        <v>-595</v>
       </c>
       <c r="AM79" s="15">
-        <v>-595</v>
+        <v>-443</v>
       </c>
       <c r="AN79" s="15">
-        <v>-443</v>
+        <v>-12145</v>
       </c>
       <c r="AO79" s="15">
-        <v>-12145</v>
+        <v>-25330</v>
       </c>
       <c r="AP79" s="15">
-        <v>-25330</v>
+        <v>-8699</v>
       </c>
       <c r="AQ79" s="15">
-        <v>-8699</v>
+        <v>-2119</v>
       </c>
       <c r="AR79" s="15">
-        <v>-2119</v>
+        <v>-280</v>
       </c>
       <c r="AS79" s="15">
-        <v>-280</v>
+        <v>-7296</v>
       </c>
       <c r="AT79" s="15">
-        <v>-7296</v>
+        <v>-6585</v>
       </c>
       <c r="AU79" s="15">
-        <v>-6585</v>
+        <v>-7313</v>
       </c>
       <c r="AV79" s="15">
-        <v>-7313</v>
+        <v>-1716</v>
       </c>
       <c r="AW79" s="15">
-        <v>-1716</v>
+        <v>-1194</v>
       </c>
       <c r="AX79" s="15">
-        <v>-1194</v>
+        <v>-204</v>
       </c>
       <c r="AY79" s="15">
-        <v>-204</v>
+        <v>-23</v>
       </c>
       <c r="AZ79" s="15">
-        <v>-23</v>
+        <v>-189</v>
       </c>
       <c r="BA79" s="15">
-        <v>-189</v>
+        <v>-1343</v>
       </c>
       <c r="BB79" s="15">
-        <v>-1343</v>
+        <v>-247</v>
       </c>
     </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B80" s="8" t="s">
         <v>75</v>
       </c>
@@ -10850,7 +10874,7 @@
       <c r="BA80" s="9"/>
       <c r="BB80" s="9"/>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B81" s="10" t="s">
         <v>76</v>
       </c>
@@ -10918,8 +10942,8 @@
       <c r="X81" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y81" s="11" t="s">
-        <v>58</v>
+      <c r="Y81" s="11">
+        <v>0</v>
       </c>
       <c r="Z81" s="11">
         <v>0</v>
@@ -11009,164 +11033,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B82" s="16" t="s">
         <v>67</v>
       </c>
       <c r="C82" s="17"/>
       <c r="D82" s="17"/>
       <c r="E82" s="17">
-        <v>256195</v>
+        <v>143169</v>
       </c>
       <c r="F82" s="17">
-        <v>143169</v>
+        <v>145539</v>
       </c>
       <c r="G82" s="17">
-        <v>145539</v>
+        <v>146506</v>
       </c>
       <c r="H82" s="17">
-        <v>146506</v>
+        <v>281358</v>
       </c>
       <c r="I82" s="17">
-        <v>281358</v>
+        <v>232624</v>
       </c>
       <c r="J82" s="17">
-        <v>232624</v>
+        <v>188888</v>
       </c>
       <c r="K82" s="17">
-        <v>188888</v>
+        <v>395406</v>
       </c>
       <c r="L82" s="17">
-        <v>395406</v>
+        <v>137632</v>
       </c>
       <c r="M82" s="17">
-        <v>137632</v>
+        <v>124048</v>
       </c>
       <c r="N82" s="17">
-        <v>124048</v>
+        <v>237489</v>
       </c>
       <c r="O82" s="17">
-        <v>237489</v>
+        <v>291819</v>
       </c>
       <c r="P82" s="17">
-        <v>291819</v>
+        <v>183601</v>
       </c>
       <c r="Q82" s="17">
-        <v>183601</v>
+        <v>244134</v>
       </c>
       <c r="R82" s="17">
-        <v>244134</v>
+        <v>268421</v>
       </c>
       <c r="S82" s="17">
-        <v>268421</v>
+        <v>117817</v>
       </c>
       <c r="T82" s="17">
-        <v>117817</v>
+        <v>137625</v>
       </c>
       <c r="U82" s="17">
-        <v>137625</v>
+        <v>208420</v>
       </c>
       <c r="V82" s="17">
-        <v>208420</v>
+        <v>163066</v>
       </c>
       <c r="W82" s="17">
-        <v>163066</v>
+        <v>188352</v>
       </c>
       <c r="X82" s="17">
-        <v>188352</v>
+        <v>122635</v>
       </c>
       <c r="Y82" s="17">
-        <v>122635</v>
+        <v>164775</v>
       </c>
       <c r="Z82" s="17">
-        <v>164775</v>
+        <v>142497</v>
       </c>
       <c r="AA82" s="17">
-        <v>142497</v>
+        <v>200898</v>
       </c>
       <c r="AB82" s="17">
-        <v>200898</v>
+        <v>356664</v>
       </c>
       <c r="AC82" s="17">
-        <v>356664</v>
+        <v>236042</v>
       </c>
       <c r="AD82" s="17">
-        <v>236042</v>
+        <v>192917</v>
       </c>
       <c r="AE82" s="17">
-        <v>192917</v>
+        <v>207594</v>
       </c>
       <c r="AF82" s="17">
-        <v>207594</v>
+        <v>266365</v>
       </c>
       <c r="AG82" s="17">
-        <v>266365</v>
+        <v>299544</v>
       </c>
       <c r="AH82" s="17">
-        <v>299544</v>
+        <v>264216</v>
       </c>
       <c r="AI82" s="17">
-        <v>264216</v>
+        <v>322747</v>
       </c>
       <c r="AJ82" s="17">
-        <v>322747</v>
+        <v>386430</v>
       </c>
       <c r="AK82" s="17">
-        <v>386430</v>
+        <v>294647</v>
       </c>
       <c r="AL82" s="17">
-        <v>294647</v>
+        <v>504441</v>
       </c>
       <c r="AM82" s="17">
-        <v>504441</v>
+        <v>543433</v>
       </c>
       <c r="AN82" s="17">
-        <v>543433</v>
+        <v>586549</v>
       </c>
       <c r="AO82" s="17">
-        <v>586549</v>
+        <v>706758</v>
       </c>
       <c r="AP82" s="17">
-        <v>706758</v>
+        <v>544557</v>
       </c>
       <c r="AQ82" s="17">
-        <v>544557</v>
+        <v>778697</v>
       </c>
       <c r="AR82" s="17">
-        <v>778697</v>
+        <v>594616</v>
       </c>
       <c r="AS82" s="17">
-        <v>594616</v>
+        <v>443589</v>
       </c>
       <c r="AT82" s="17">
-        <v>443589</v>
+        <v>364615</v>
       </c>
       <c r="AU82" s="17">
-        <v>364615</v>
+        <v>417947</v>
       </c>
       <c r="AV82" s="17">
-        <v>417947</v>
+        <v>446270</v>
       </c>
       <c r="AW82" s="17">
-        <v>446270</v>
+        <v>656061</v>
       </c>
       <c r="AX82" s="17">
-        <v>656061</v>
+        <v>664306</v>
       </c>
       <c r="AY82" s="17">
-        <v>664306</v>
+        <v>759060</v>
       </c>
       <c r="AZ82" s="17">
-        <v>759060</v>
+        <v>1074134</v>
       </c>
       <c r="BA82" s="17">
-        <v>1074134</v>
+        <v>1119234</v>
       </c>
       <c r="BB82" s="17">
-        <v>1119234</v>
+        <v>839166</v>
       </c>
     </row>
-    <row r="83" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -11221,7 +11245,7 @@
       <c r="BA83" s="1"/>
       <c r="BB83" s="1"/>
     </row>
-    <row r="84" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -11276,7 +11300,7 @@
       <c r="BA84" s="1"/>
       <c r="BB84" s="1"/>
     </row>
-    <row r="85" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -11331,7 +11355,7 @@
       <c r="BA85" s="1"/>
       <c r="BB85" s="1"/>
     </row>
-    <row r="86" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B86" s="7" t="s">
         <v>77</v>
       </c>
@@ -11488,7 +11512,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="87" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -11543,7 +11567,7 @@
       <c r="BA87" s="1"/>
       <c r="BB87" s="1"/>
     </row>
-    <row r="88" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B88" s="8" t="s">
         <v>78</v>
       </c>
@@ -11600,7 +11624,7 @@
       <c r="BA88" s="9"/>
       <c r="BB88" s="9"/>
     </row>
-    <row r="89" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B89" s="10" t="s">
         <v>55</v>
       </c>
@@ -11609,157 +11633,157 @@
       </c>
       <c r="D89" s="11"/>
       <c r="E89" s="11">
-        <v>12333333</v>
+        <v>11511952</v>
       </c>
       <c r="F89" s="11">
-        <v>11511952</v>
+        <v>11494163</v>
       </c>
       <c r="G89" s="11">
-        <v>11494163</v>
+        <v>11500000</v>
       </c>
       <c r="H89" s="11">
-        <v>11500000</v>
+        <v>15558824</v>
       </c>
       <c r="I89" s="11">
-        <v>15558824</v>
+        <v>15750000</v>
       </c>
       <c r="J89" s="11">
-        <v>15750000</v>
+        <v>28363636</v>
       </c>
       <c r="K89" s="11">
-        <v>28363636</v>
+        <v>64153846</v>
       </c>
       <c r="L89" s="11">
-        <v>64153846</v>
+        <v>59277778</v>
       </c>
       <c r="M89" s="11">
-        <v>59277778</v>
+        <v>104400000</v>
       </c>
       <c r="N89" s="11">
-        <v>104400000</v>
+        <v>69700000</v>
       </c>
       <c r="O89" s="11">
-        <v>69700000</v>
+        <v>68363636</v>
       </c>
       <c r="P89" s="11">
-        <v>68363636</v>
+        <v>18100000</v>
       </c>
       <c r="Q89" s="11">
-        <v>18100000</v>
+        <v>18948718</v>
       </c>
       <c r="R89" s="11">
-        <v>18948718</v>
+        <v>33773585</v>
       </c>
       <c r="S89" s="11">
-        <v>33773585</v>
+        <v>46093023</v>
       </c>
       <c r="T89" s="11">
-        <v>46093023</v>
+        <v>28857143</v>
       </c>
       <c r="U89" s="11">
-        <v>28857143</v>
+        <v>46828571</v>
       </c>
       <c r="V89" s="11">
-        <v>46828571</v>
+        <v>86857143</v>
       </c>
       <c r="W89" s="11">
-        <v>86857143</v>
+        <v>72981818</v>
       </c>
       <c r="X89" s="11">
-        <v>72981818</v>
+        <v>75312500</v>
       </c>
       <c r="Y89" s="11">
-        <v>75312500</v>
+        <v>90214286</v>
       </c>
       <c r="Z89" s="11">
-        <v>90214286</v>
+        <v>91365854</v>
       </c>
       <c r="AA89" s="11">
-        <v>91365854</v>
+        <v>98208333</v>
       </c>
       <c r="AB89" s="11">
-        <v>98208333</v>
+        <v>82571429</v>
       </c>
       <c r="AC89" s="11">
-        <v>82571429</v>
+        <v>58000000</v>
       </c>
       <c r="AD89" s="11">
-        <v>58000000</v>
+        <v>74277778</v>
       </c>
       <c r="AE89" s="11">
-        <v>74277778</v>
+        <v>93600000</v>
       </c>
       <c r="AF89" s="11">
-        <v>93600000</v>
+        <v>77466667</v>
       </c>
       <c r="AG89" s="11">
-        <v>77466667</v>
+        <v>84421053</v>
       </c>
       <c r="AH89" s="11">
-        <v>84421053</v>
+        <v>49702703</v>
       </c>
       <c r="AI89" s="11">
-        <v>49702703</v>
+        <v>36189189</v>
       </c>
       <c r="AJ89" s="11">
-        <v>36189189</v>
+        <v>29866667</v>
       </c>
       <c r="AK89" s="11">
-        <v>29866667</v>
+        <v>25467532</v>
       </c>
       <c r="AL89" s="11">
-        <v>25467532</v>
+        <v>22989796</v>
       </c>
       <c r="AM89" s="11">
-        <v>22989796</v>
+        <v>28793103</v>
       </c>
       <c r="AN89" s="11">
-        <v>28793103</v>
+        <v>29174699</v>
       </c>
       <c r="AO89" s="11">
-        <v>29174699</v>
+        <v>28938697</v>
       </c>
       <c r="AP89" s="11">
-        <v>28938697</v>
+        <v>29730159</v>
       </c>
       <c r="AQ89" s="11">
-        <v>29730159</v>
+        <v>32805970</v>
       </c>
       <c r="AR89" s="11">
-        <v>32805970</v>
+        <v>32608696</v>
       </c>
       <c r="AS89" s="11">
-        <v>32608696</v>
+        <v>31136364</v>
       </c>
       <c r="AT89" s="11">
-        <v>31136364</v>
+        <v>34412698</v>
       </c>
       <c r="AU89" s="11">
-        <v>34412698</v>
+        <v>25612903</v>
       </c>
       <c r="AV89" s="11">
-        <v>25612903</v>
+        <v>62461538</v>
       </c>
       <c r="AW89" s="11">
-        <v>62461538</v>
+        <v>35030303</v>
       </c>
       <c r="AX89" s="11">
-        <v>35030303</v>
+        <v>41218182</v>
       </c>
       <c r="AY89" s="11">
-        <v>41218182</v>
+        <v>50575758</v>
       </c>
       <c r="AZ89" s="11">
-        <v>50575758</v>
+        <v>40071429</v>
       </c>
       <c r="BA89" s="11">
-        <v>40071429</v>
+        <v>40416216</v>
       </c>
       <c r="BB89" s="11">
-        <v>40416216</v>
+        <v>41056911</v>
       </c>
     </row>
-    <row r="90" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B90" s="12" t="s">
         <v>57</v>
       </c>
@@ -11768,131 +11792,131 @@
       </c>
       <c r="D90" s="13"/>
       <c r="E90" s="13">
-        <v>156709419</v>
+        <v>127230415</v>
       </c>
       <c r="F90" s="13">
-        <v>127230415</v>
+        <v>126833089</v>
       </c>
       <c r="G90" s="13">
-        <v>126833089</v>
+        <v>142255652</v>
       </c>
       <c r="H90" s="13">
-        <v>142255652</v>
+        <v>144992398</v>
       </c>
       <c r="I90" s="13">
-        <v>144992398</v>
+        <v>156005666</v>
       </c>
       <c r="J90" s="13">
-        <v>156005666</v>
+        <v>157376844</v>
       </c>
       <c r="K90" s="13">
-        <v>157376844</v>
+        <v>155975973</v>
       </c>
       <c r="L90" s="13">
-        <v>155975973</v>
+        <v>179102510</v>
       </c>
       <c r="M90" s="13">
-        <v>179102510</v>
+        <v>174859694</v>
       </c>
       <c r="N90" s="13">
-        <v>174859694</v>
+        <v>127415730</v>
       </c>
       <c r="O90" s="13">
-        <v>127415730</v>
+        <v>131175362</v>
       </c>
       <c r="P90" s="13">
-        <v>131175362</v>
+        <v>107019178</v>
       </c>
       <c r="Q90" s="13">
-        <v>107019178</v>
+        <v>100245007</v>
       </c>
       <c r="R90" s="13">
-        <v>100245007</v>
+        <v>103178741</v>
       </c>
       <c r="S90" s="13">
-        <v>103178741</v>
+        <v>96090395</v>
       </c>
       <c r="T90" s="13">
-        <v>96090395</v>
+        <v>108917391</v>
       </c>
       <c r="U90" s="13">
-        <v>108917391</v>
+        <v>104390533</v>
       </c>
       <c r="V90" s="13">
-        <v>104390533</v>
+        <v>99484490</v>
       </c>
       <c r="W90" s="13">
-        <v>99484490</v>
+        <v>99818930</v>
       </c>
       <c r="X90" s="13">
-        <v>99818930</v>
+        <v>100116854</v>
       </c>
       <c r="Y90" s="13">
-        <v>100116854</v>
+        <v>105901218</v>
       </c>
       <c r="Z90" s="13">
-        <v>105901218</v>
+        <v>113580420</v>
       </c>
       <c r="AA90" s="13">
-        <v>113580420</v>
+        <v>112042718</v>
       </c>
       <c r="AB90" s="13">
-        <v>112042718</v>
+        <v>96604298</v>
       </c>
       <c r="AC90" s="13">
-        <v>96604298</v>
+        <v>117833952</v>
       </c>
       <c r="AD90" s="13">
-        <v>117833952</v>
+        <v>122036750</v>
       </c>
       <c r="AE90" s="13">
-        <v>122036750</v>
+        <v>123326531</v>
       </c>
       <c r="AF90" s="13">
-        <v>123326531</v>
+        <v>124420168</v>
       </c>
       <c r="AG90" s="13">
-        <v>124420168</v>
+        <v>127832584</v>
       </c>
       <c r="AH90" s="13">
-        <v>127832584</v>
+        <v>128838746</v>
       </c>
       <c r="AI90" s="13">
-        <v>128838746</v>
+        <v>115015796</v>
       </c>
       <c r="AJ90" s="13">
-        <v>115015796</v>
+        <v>123666957</v>
       </c>
       <c r="AK90" s="13">
-        <v>123666957</v>
+        <v>156911260</v>
       </c>
       <c r="AL90" s="13">
-        <v>156911260</v>
+        <v>144497970</v>
       </c>
       <c r="AM90" s="13">
-        <v>144497970</v>
+        <v>251921628</v>
       </c>
       <c r="AN90" s="13">
-        <v>251921628</v>
+        <v>222789499</v>
       </c>
       <c r="AO90" s="13">
-        <v>222789499</v>
+        <v>260420949</v>
       </c>
       <c r="AP90" s="13">
-        <v>260420949</v>
+        <v>247552995</v>
       </c>
       <c r="AQ90" s="13">
-        <v>247552995</v>
+        <v>263867133</v>
       </c>
       <c r="AR90" s="13">
-        <v>263867133</v>
+        <v>257957576</v>
       </c>
       <c r="AS90" s="13">
-        <v>257957576</v>
-      </c>
-      <c r="AT90" s="13">
         <v>256516689</v>
       </c>
+      <c r="AT90" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AU90" s="13" t="s">
         <v>58</v>
       </c>
@@ -11918,7 +11942,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="91" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B91" s="10" t="s">
         <v>59</v>
       </c>
@@ -11927,131 +11951,131 @@
       </c>
       <c r="D91" s="11"/>
       <c r="E91" s="11">
-        <v>66520446</v>
+        <v>68619822</v>
       </c>
       <c r="F91" s="11">
-        <v>68619822</v>
+        <v>68158343</v>
       </c>
       <c r="G91" s="11">
-        <v>68158343</v>
+        <v>67989429</v>
       </c>
       <c r="H91" s="11">
-        <v>67989429</v>
+        <v>69292683</v>
       </c>
       <c r="I91" s="11">
-        <v>69292683</v>
+        <v>78350816</v>
       </c>
       <c r="J91" s="11">
-        <v>78350816</v>
+        <v>81713584</v>
       </c>
       <c r="K91" s="11">
-        <v>81713584</v>
+        <v>87811794</v>
       </c>
       <c r="L91" s="11">
-        <v>87811794</v>
+        <v>90343972</v>
       </c>
       <c r="M91" s="11">
-        <v>90343972</v>
+        <v>86995208</v>
       </c>
       <c r="N91" s="11">
-        <v>86995208</v>
+        <v>87263333</v>
       </c>
       <c r="O91" s="11">
-        <v>87263333</v>
+        <v>86040238</v>
       </c>
       <c r="P91" s="11">
-        <v>86040238</v>
+        <v>86261538</v>
       </c>
       <c r="Q91" s="11">
-        <v>86261538</v>
+        <v>85669715</v>
       </c>
       <c r="R91" s="11">
-        <v>85669715</v>
+        <v>85244338</v>
       </c>
       <c r="S91" s="11">
-        <v>85244338</v>
+        <v>85416595</v>
       </c>
       <c r="T91" s="11">
-        <v>85416595</v>
+        <v>86685938</v>
       </c>
       <c r="U91" s="11">
-        <v>86685938</v>
+        <v>90443173</v>
       </c>
       <c r="V91" s="11">
-        <v>90443173</v>
+        <v>94173521</v>
       </c>
       <c r="W91" s="11">
-        <v>94173521</v>
+        <v>97186411</v>
       </c>
       <c r="X91" s="11">
-        <v>97186411</v>
+        <v>99582902</v>
       </c>
       <c r="Y91" s="11">
-        <v>99582902</v>
+        <v>99533333</v>
       </c>
       <c r="Z91" s="11">
-        <v>99533333</v>
+        <v>105063063</v>
       </c>
       <c r="AA91" s="11">
-        <v>105063063</v>
+        <v>105174404</v>
       </c>
       <c r="AB91" s="11">
-        <v>105174404</v>
+        <v>114493366</v>
       </c>
       <c r="AC91" s="11">
-        <v>114493366</v>
+        <v>142946809</v>
       </c>
       <c r="AD91" s="11">
-        <v>142946809</v>
+        <v>146176143</v>
       </c>
       <c r="AE91" s="11">
-        <v>146176143</v>
+        <v>152933054</v>
       </c>
       <c r="AF91" s="11">
-        <v>152933054</v>
+        <v>155343073</v>
       </c>
       <c r="AG91" s="11">
-        <v>155343073</v>
+        <v>158322526</v>
       </c>
       <c r="AH91" s="11">
-        <v>158322526</v>
+        <v>171252294</v>
       </c>
       <c r="AI91" s="11">
-        <v>171252294</v>
+        <v>171659062</v>
       </c>
       <c r="AJ91" s="11">
-        <v>171659062</v>
+        <v>175025253</v>
       </c>
       <c r="AK91" s="11">
-        <v>175025253</v>
+        <v>165217469</v>
       </c>
       <c r="AL91" s="11">
-        <v>165217469</v>
+        <v>165928465</v>
       </c>
       <c r="AM91" s="11">
-        <v>165928465</v>
+        <v>168288022</v>
       </c>
       <c r="AN91" s="11">
-        <v>168288022</v>
+        <v>160170732</v>
       </c>
       <c r="AO91" s="11">
-        <v>160170732</v>
+        <v>170650821</v>
       </c>
       <c r="AP91" s="11">
-        <v>170650821</v>
+        <v>175584008</v>
       </c>
       <c r="AQ91" s="11">
-        <v>175584008</v>
+        <v>193348322</v>
       </c>
       <c r="AR91" s="11">
-        <v>193348322</v>
+        <v>226113417</v>
       </c>
       <c r="AS91" s="11">
-        <v>226113417</v>
-      </c>
-      <c r="AT91" s="11">
         <v>238760668</v>
       </c>
+      <c r="AT91" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AU91" s="11" t="s">
         <v>58</v>
       </c>
@@ -12077,7 +12101,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="92" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B92" s="12" t="s">
         <v>60</v>
       </c>
@@ -12220,23 +12244,23 @@
       <c r="AW92" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX92" s="13" t="s">
-        <v>58</v>
+      <c r="AX92" s="13">
+        <v>310416667</v>
       </c>
       <c r="AY92" s="13">
-        <v>310416667</v>
+        <v>297914894</v>
       </c>
       <c r="AZ92" s="13">
-        <v>297914894</v>
+        <v>227769417</v>
       </c>
       <c r="BA92" s="13">
-        <v>227769417</v>
+        <v>227808316</v>
       </c>
       <c r="BB92" s="13">
-        <v>227808316</v>
+        <v>243887324</v>
       </c>
     </row>
-    <row r="93" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B93" s="10" t="s">
         <v>61</v>
       </c>
@@ -12245,10 +12269,10 @@
       </c>
       <c r="D93" s="11"/>
       <c r="E93" s="11">
-        <v>16234507</v>
+        <v>6668842</v>
       </c>
       <c r="F93" s="11">
-        <v>6668842</v>
+        <v>0</v>
       </c>
       <c r="G93" s="11">
         <v>0</v>
@@ -12259,8 +12283,8 @@
       <c r="I93" s="11">
         <v>0</v>
       </c>
-      <c r="J93" s="11">
-        <v>0</v>
+      <c r="J93" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="K93" s="11" t="s">
         <v>58</v>
@@ -12271,20 +12295,20 @@
       <c r="M93" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="N93" s="11" t="s">
-        <v>58</v>
+      <c r="N93" s="11">
+        <v>7633670</v>
       </c>
       <c r="O93" s="11">
-        <v>7633670</v>
+        <v>8378804</v>
       </c>
       <c r="P93" s="11">
-        <v>8378804</v>
+        <v>5895007</v>
       </c>
       <c r="Q93" s="11">
-        <v>5895007</v>
+        <v>4895833</v>
       </c>
       <c r="R93" s="11">
-        <v>4895833</v>
+        <v>0</v>
       </c>
       <c r="S93" s="11">
         <v>0</v>
@@ -12295,8 +12319,8 @@
       <c r="U93" s="11">
         <v>0</v>
       </c>
-      <c r="V93" s="11">
-        <v>0</v>
+      <c r="V93" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="W93" s="11" t="s">
         <v>58</v>
@@ -12395,7 +12419,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="94" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B94" s="12" t="s">
         <v>62</v>
       </c>
@@ -12526,35 +12550,35 @@
       <c r="AS94" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT94" s="13" t="s">
-        <v>58</v>
+      <c r="AT94" s="13">
+        <v>252868949</v>
       </c>
       <c r="AU94" s="13">
-        <v>252868949</v>
+        <v>293958556</v>
       </c>
       <c r="AV94" s="13">
-        <v>293958556</v>
+        <v>442265273</v>
       </c>
       <c r="AW94" s="13">
-        <v>442265273</v>
+        <v>450141606</v>
       </c>
       <c r="AX94" s="13">
-        <v>450141606</v>
+        <v>438577080</v>
       </c>
       <c r="AY94" s="13">
-        <v>438577080</v>
+        <v>423233333</v>
       </c>
       <c r="AZ94" s="13">
-        <v>423233333</v>
+        <v>423910100</v>
       </c>
       <c r="BA94" s="13">
-        <v>423910100</v>
+        <v>422274414</v>
       </c>
       <c r="BB94" s="13">
-        <v>422274414</v>
+        <v>430785575</v>
       </c>
     </row>
-    <row r="95" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B95" s="10" t="s">
         <v>63</v>
       </c>
@@ -12685,35 +12709,35 @@
       <c r="AS95" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT95" s="11" t="s">
-        <v>58</v>
+      <c r="AT95" s="11">
+        <v>306637624</v>
       </c>
       <c r="AU95" s="11">
-        <v>306637624</v>
+        <v>332118506</v>
       </c>
       <c r="AV95" s="11">
-        <v>332118506</v>
+        <v>408752969</v>
       </c>
       <c r="AW95" s="11">
-        <v>408752969</v>
+        <v>409601885</v>
       </c>
       <c r="AX95" s="11">
-        <v>409601885</v>
+        <v>401239286</v>
       </c>
       <c r="AY95" s="11">
-        <v>401239286</v>
+        <v>386250811</v>
       </c>
       <c r="AZ95" s="11">
-        <v>386250811</v>
+        <v>373160256</v>
       </c>
       <c r="BA95" s="11">
-        <v>373160256</v>
+        <v>375367901</v>
       </c>
       <c r="BB95" s="11">
-        <v>375367901</v>
+        <v>368430120</v>
       </c>
     </row>
-    <row r="96" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B96" s="8" t="s">
         <v>80</v>
       </c>
@@ -12770,7 +12794,7 @@
       <c r="BA96" s="9"/>
       <c r="BB96" s="9"/>
     </row>
-    <row r="97" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
         <v>55</v>
       </c>
@@ -12838,8 +12862,8 @@
       <c r="X97" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y97" s="11" t="s">
-        <v>58</v>
+      <c r="Y97" s="11">
+        <v>0</v>
       </c>
       <c r="Z97" s="11">
         <v>0</v>
@@ -12862,8 +12886,8 @@
       <c r="AF97" s="11">
         <v>0</v>
       </c>
-      <c r="AG97" s="11">
-        <v>0</v>
+      <c r="AG97" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH97" s="11" t="s">
         <v>58</v>
@@ -12929,7 +12953,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="98" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B98" s="12" t="s">
         <v>57</v>
       </c>
@@ -12997,8 +13021,8 @@
       <c r="X98" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y98" s="13" t="s">
-        <v>58</v>
+      <c r="Y98" s="13">
+        <v>0</v>
       </c>
       <c r="Z98" s="13">
         <v>0</v>
@@ -13021,8 +13045,8 @@
       <c r="AF98" s="13">
         <v>0</v>
       </c>
-      <c r="AG98" s="13">
-        <v>0</v>
+      <c r="AG98" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH98" s="13" t="s">
         <v>58</v>
@@ -13088,7 +13112,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="99" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B99" s="10" t="s">
         <v>59</v>
       </c>
@@ -13156,8 +13180,8 @@
       <c r="X99" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y99" s="11" t="s">
-        <v>58</v>
+      <c r="Y99" s="11">
+        <v>0</v>
       </c>
       <c r="Z99" s="11">
         <v>0</v>
@@ -13180,8 +13204,8 @@
       <c r="AF99" s="11">
         <v>0</v>
       </c>
-      <c r="AG99" s="11">
-        <v>0</v>
+      <c r="AG99" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH99" s="11" t="s">
         <v>58</v>
@@ -13247,7 +13271,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="100" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B100" s="12" t="s">
         <v>65</v>
       </c>
@@ -13372,14 +13396,14 @@
       <c r="AQ100" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR100" s="13" t="s">
-        <v>58</v>
+      <c r="AR100" s="13">
+        <v>0</v>
       </c>
       <c r="AS100" s="13">
         <v>0</v>
       </c>
-      <c r="AT100" s="13">
-        <v>0</v>
+      <c r="AT100" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU100" s="13" t="s">
         <v>58</v>

--- a/database/industries/ghaza/gheshahdab/product/monthly.xlsx
+++ b/database/industries/ghaza/gheshahdab/product/monthly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ghaza\gheshahdab\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghaza\gheshahdab\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A649BA12-014C-4B2D-9C9D-0D305629E151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2AB74C-EC2D-4BDC-AA18-D3EC9319D129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2274" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2247" uniqueCount="81">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>غشهداب-کشت و صنعت شهداب ناب خراسان</t>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 8 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/09</t>
   </si>
   <si>
     <t>ماه 10 منتهی به 1397/10</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 10 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/11</t>
   </si>
   <si>
     <t>سایر</t>
@@ -739,12 +739,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -799,7 +799,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -856,7 +856,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -913,7 +913,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -968,7 +968,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1025,7 +1025,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1082,7 +1082,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1137,7 +1137,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1349,7 +1349,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
@@ -1406,7 +1406,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>55</v>
       </c>
@@ -1415,157 +1415,157 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>601</v>
+        <v>204</v>
       </c>
       <c r="F11" s="11">
-        <v>472</v>
+        <v>111</v>
       </c>
       <c r="G11" s="11">
-        <v>204</v>
+        <v>88</v>
       </c>
       <c r="H11" s="11">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="I11" s="11">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="J11" s="11">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="K11" s="11">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="L11" s="11">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="M11" s="11">
+        <v>67</v>
+      </c>
+      <c r="N11" s="11">
+        <v>385</v>
+      </c>
+      <c r="O11" s="11">
+        <v>141</v>
+      </c>
+      <c r="P11" s="11">
+        <v>93</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>95</v>
+      </c>
+      <c r="R11" s="11">
+        <v>129</v>
+      </c>
+      <c r="S11" s="11">
+        <v>143</v>
+      </c>
+      <c r="T11" s="11">
+        <v>0</v>
+      </c>
+      <c r="U11" s="11">
+        <v>131</v>
+      </c>
+      <c r="V11" s="11">
+        <v>96</v>
+      </c>
+      <c r="W11" s="11">
+        <v>46</v>
+      </c>
+      <c r="X11" s="11">
+        <v>55</v>
+      </c>
+      <c r="Y11" s="11">
+        <v>85</v>
+      </c>
+      <c r="Z11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="11">
+        <v>123</v>
+      </c>
+      <c r="AB11" s="11">
+        <v>45</v>
+      </c>
+      <c r="AC11" s="11">
         <v>40</v>
       </c>
-      <c r="N11" s="11">
+      <c r="AD11" s="11">
+        <v>148</v>
+      </c>
+      <c r="AE11" s="11">
+        <v>92</v>
+      </c>
+      <c r="AF11" s="11">
+        <v>23</v>
+      </c>
+      <c r="AG11" s="11">
+        <v>356</v>
+      </c>
+      <c r="AH11" s="11">
+        <v>239</v>
+      </c>
+      <c r="AI11" s="11">
+        <v>219</v>
+      </c>
+      <c r="AJ11" s="11">
+        <v>173</v>
+      </c>
+      <c r="AK11" s="11">
+        <v>139</v>
+      </c>
+      <c r="AL11" s="11">
+        <v>306</v>
+      </c>
+      <c r="AM11" s="11">
+        <v>329</v>
+      </c>
+      <c r="AN11" s="11">
+        <v>275</v>
+      </c>
+      <c r="AO11" s="11">
+        <v>146</v>
+      </c>
+      <c r="AP11" s="11">
         <v>94</v>
       </c>
-      <c r="O11" s="11">
+      <c r="AQ11" s="11">
+        <v>236</v>
+      </c>
+      <c r="AR11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="11">
+        <v>110</v>
+      </c>
+      <c r="AT11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU11" s="11">
+        <v>190</v>
+      </c>
+      <c r="AV11" s="11">
+        <v>73</v>
+      </c>
+      <c r="AW11" s="11">
+        <v>59</v>
+      </c>
+      <c r="AX11" s="11">
+        <v>97</v>
+      </c>
+      <c r="AY11" s="11">
+        <v>613</v>
+      </c>
+      <c r="AZ11" s="11">
+        <v>86</v>
+      </c>
+      <c r="BA11" s="11">
         <v>67</v>
       </c>
-      <c r="P11" s="11">
-        <v>385</v>
-      </c>
-      <c r="Q11" s="11">
-        <v>141</v>
-      </c>
-      <c r="R11" s="11">
-        <v>93</v>
-      </c>
-      <c r="S11" s="11">
-        <v>95</v>
-      </c>
-      <c r="T11" s="11">
-        <v>129</v>
-      </c>
-      <c r="U11" s="11">
-        <v>143</v>
-      </c>
-      <c r="V11" s="11">
-        <v>0</v>
-      </c>
-      <c r="W11" s="11">
-        <v>131</v>
-      </c>
-      <c r="X11" s="11">
-        <v>96</v>
-      </c>
-      <c r="Y11" s="11">
-        <v>46</v>
-      </c>
-      <c r="Z11" s="11">
-        <v>55</v>
-      </c>
-      <c r="AA11" s="11">
-        <v>85</v>
-      </c>
-      <c r="AB11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="11">
-        <v>123</v>
-      </c>
-      <c r="AD11" s="11">
-        <v>45</v>
-      </c>
-      <c r="AE11" s="11">
-        <v>40</v>
-      </c>
-      <c r="AF11" s="11">
-        <v>148</v>
-      </c>
-      <c r="AG11" s="11">
-        <v>92</v>
-      </c>
-      <c r="AH11" s="11">
-        <v>23</v>
-      </c>
-      <c r="AI11" s="11">
-        <v>356</v>
-      </c>
-      <c r="AJ11" s="11">
-        <v>239</v>
-      </c>
-      <c r="AK11" s="11">
-        <v>219</v>
-      </c>
-      <c r="AL11" s="11">
-        <v>173</v>
-      </c>
-      <c r="AM11" s="11">
-        <v>139</v>
-      </c>
-      <c r="AN11" s="11">
-        <v>306</v>
-      </c>
-      <c r="AO11" s="11">
-        <v>329</v>
-      </c>
-      <c r="AP11" s="11">
-        <v>275</v>
-      </c>
-      <c r="AQ11" s="11">
-        <v>146</v>
-      </c>
-      <c r="AR11" s="11">
-        <v>94</v>
-      </c>
-      <c r="AS11" s="11">
-        <v>236</v>
-      </c>
-      <c r="AT11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU11" s="11">
-        <v>110</v>
-      </c>
-      <c r="AV11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AW11" s="11">
-        <v>190</v>
-      </c>
-      <c r="AX11" s="11">
-        <v>73</v>
-      </c>
-      <c r="AY11" s="11">
-        <v>59</v>
-      </c>
-      <c r="AZ11" s="11">
-        <v>97</v>
-      </c>
-      <c r="BA11" s="11">
-        <v>613</v>
-      </c>
       <c r="BB11" s="11">
-        <v>122</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>57</v>
       </c>
@@ -1574,128 +1574,128 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>1472</v>
+        <v>209</v>
       </c>
       <c r="F12" s="13">
-        <v>978</v>
+        <v>0</v>
       </c>
       <c r="G12" s="13">
-        <v>209</v>
+        <v>0</v>
       </c>
       <c r="H12" s="13">
-        <v>0</v>
+        <v>486</v>
       </c>
       <c r="I12" s="13">
-        <v>0</v>
+        <v>2071</v>
       </c>
       <c r="J12" s="13">
-        <v>486</v>
+        <v>227</v>
       </c>
       <c r="K12" s="13">
-        <v>2071</v>
+        <v>646</v>
       </c>
       <c r="L12" s="13">
-        <v>227</v>
+        <v>2762</v>
       </c>
       <c r="M12" s="13">
-        <v>646</v>
+        <v>6845</v>
       </c>
       <c r="N12" s="13">
-        <v>2762</v>
+        <v>6092</v>
       </c>
       <c r="O12" s="13">
-        <v>6845</v>
+        <v>1787</v>
       </c>
       <c r="P12" s="13">
-        <v>6092</v>
+        <v>587</v>
       </c>
       <c r="Q12" s="13">
-        <v>1787</v>
+        <v>535</v>
       </c>
       <c r="R12" s="13">
-        <v>587</v>
+        <v>223</v>
       </c>
       <c r="S12" s="13">
-        <v>535</v>
+        <v>268</v>
       </c>
       <c r="T12" s="13">
-        <v>223</v>
+        <v>455</v>
       </c>
       <c r="U12" s="13">
-        <v>268</v>
+        <v>702</v>
       </c>
       <c r="V12" s="13">
-        <v>455</v>
+        <v>71</v>
       </c>
       <c r="W12" s="13">
-        <v>702</v>
+        <v>957</v>
       </c>
       <c r="X12" s="13">
-        <v>71</v>
+        <v>1686</v>
       </c>
       <c r="Y12" s="13">
-        <v>957</v>
+        <v>7720</v>
       </c>
       <c r="Z12" s="13">
-        <v>1686</v>
+        <v>5273</v>
       </c>
       <c r="AA12" s="13">
-        <v>7720</v>
+        <v>584</v>
       </c>
       <c r="AB12" s="13">
-        <v>5273</v>
+        <v>444</v>
       </c>
       <c r="AC12" s="13">
-        <v>584</v>
+        <v>272</v>
       </c>
       <c r="AD12" s="13">
-        <v>444</v>
+        <v>409</v>
       </c>
       <c r="AE12" s="13">
-        <v>272</v>
+        <v>50</v>
       </c>
       <c r="AF12" s="13">
-        <v>409</v>
+        <v>0</v>
       </c>
       <c r="AG12" s="13">
-        <v>50</v>
+        <v>559</v>
       </c>
       <c r="AH12" s="13">
-        <v>0</v>
+        <v>655</v>
       </c>
       <c r="AI12" s="13">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="AJ12" s="13">
-        <v>655</v>
+        <v>965</v>
       </c>
       <c r="AK12" s="13">
-        <v>554</v>
+        <v>5260</v>
       </c>
       <c r="AL12" s="13">
-        <v>965</v>
+        <v>2243</v>
       </c>
       <c r="AM12" s="13">
-        <v>5260</v>
+        <v>1153</v>
       </c>
       <c r="AN12" s="13">
-        <v>2243</v>
+        <v>319</v>
       </c>
       <c r="AO12" s="13">
-        <v>1153</v>
+        <v>959</v>
       </c>
       <c r="AP12" s="13">
-        <v>319</v>
+        <v>1420</v>
       </c>
       <c r="AQ12" s="13">
-        <v>959</v>
-      </c>
-      <c r="AR12" s="13">
-        <v>170</v>
-      </c>
-      <c r="AS12" s="13">
         <v>725</v>
       </c>
+      <c r="AR12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS12" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AT12" s="13" t="s">
         <v>58</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>59</v>
       </c>
@@ -1733,128 +1733,128 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>699</v>
+        <v>1105</v>
       </c>
       <c r="F13" s="11">
-        <v>798</v>
+        <v>947</v>
       </c>
       <c r="G13" s="11">
-        <v>1105</v>
+        <v>896</v>
       </c>
       <c r="H13" s="11">
-        <v>947</v>
+        <v>505</v>
       </c>
       <c r="I13" s="11">
-        <v>896</v>
+        <v>944</v>
       </c>
       <c r="J13" s="11">
-        <v>505</v>
+        <v>453</v>
       </c>
       <c r="K13" s="11">
-        <v>944</v>
+        <v>609</v>
       </c>
       <c r="L13" s="11">
-        <v>453</v>
+        <v>585</v>
       </c>
       <c r="M13" s="11">
-        <v>609</v>
+        <v>725</v>
       </c>
       <c r="N13" s="11">
-        <v>585</v>
+        <v>675</v>
       </c>
       <c r="O13" s="11">
-        <v>725</v>
+        <v>995</v>
       </c>
       <c r="P13" s="11">
-        <v>675</v>
+        <v>976</v>
       </c>
       <c r="Q13" s="11">
-        <v>995</v>
+        <v>980</v>
       </c>
       <c r="R13" s="11">
-        <v>976</v>
+        <v>1297</v>
       </c>
       <c r="S13" s="11">
-        <v>980</v>
+        <v>1485</v>
       </c>
       <c r="T13" s="11">
-        <v>1297</v>
+        <v>877</v>
       </c>
       <c r="U13" s="11">
-        <v>1485</v>
+        <v>1331</v>
       </c>
       <c r="V13" s="11">
-        <v>877</v>
+        <v>711</v>
       </c>
       <c r="W13" s="11">
-        <v>1331</v>
+        <v>847</v>
       </c>
       <c r="X13" s="11">
-        <v>711</v>
+        <v>410</v>
       </c>
       <c r="Y13" s="11">
-        <v>847</v>
+        <v>836</v>
       </c>
       <c r="Z13" s="11">
-        <v>410</v>
+        <v>813</v>
       </c>
       <c r="AA13" s="11">
-        <v>836</v>
+        <v>756</v>
       </c>
       <c r="AB13" s="11">
-        <v>813</v>
+        <v>764</v>
       </c>
       <c r="AC13" s="11">
-        <v>756</v>
+        <v>1051</v>
       </c>
       <c r="AD13" s="11">
-        <v>764</v>
+        <v>1048</v>
       </c>
       <c r="AE13" s="11">
-        <v>1051</v>
+        <v>1171</v>
       </c>
       <c r="AF13" s="11">
-        <v>1048</v>
+        <v>843</v>
       </c>
       <c r="AG13" s="11">
-        <v>1171</v>
+        <v>786</v>
       </c>
       <c r="AH13" s="11">
-        <v>843</v>
+        <v>606</v>
       </c>
       <c r="AI13" s="11">
-        <v>786</v>
+        <v>543</v>
       </c>
       <c r="AJ13" s="11">
-        <v>606</v>
+        <v>713</v>
       </c>
       <c r="AK13" s="11">
-        <v>543</v>
+        <v>721</v>
       </c>
       <c r="AL13" s="11">
-        <v>713</v>
+        <v>805</v>
       </c>
       <c r="AM13" s="11">
-        <v>721</v>
+        <v>1197</v>
       </c>
       <c r="AN13" s="11">
-        <v>805</v>
+        <v>887</v>
       </c>
       <c r="AO13" s="11">
-        <v>1197</v>
+        <v>1529</v>
       </c>
       <c r="AP13" s="11">
-        <v>887</v>
+        <v>1027</v>
       </c>
       <c r="AQ13" s="11">
-        <v>1529</v>
-      </c>
-      <c r="AR13" s="11">
-        <v>1027</v>
-      </c>
-      <c r="AS13" s="11">
         <v>1110</v>
       </c>
+      <c r="AR13" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS13" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AT13" s="11" t="s">
         <v>58</v>
       </c>
@@ -1883,7 +1883,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>60</v>
       </c>
@@ -2008,11 +2008,11 @@
       <c r="AQ14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS14" s="13" t="s">
-        <v>58</v>
+      <c r="AR14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS14" s="13">
+        <v>0</v>
       </c>
       <c r="AT14" s="13">
         <v>0</v>
@@ -2021,28 +2021,28 @@
         <v>0</v>
       </c>
       <c r="AV14" s="13">
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="AW14" s="13">
-        <v>0</v>
+        <v>2143</v>
       </c>
       <c r="AX14" s="13">
-        <v>228</v>
+        <v>4102</v>
       </c>
       <c r="AY14" s="13">
-        <v>2143</v>
+        <v>402</v>
       </c>
       <c r="AZ14" s="13">
-        <v>4102</v>
+        <v>0</v>
       </c>
       <c r="BA14" s="13">
-        <v>402</v>
+        <v>0</v>
       </c>
       <c r="BB14" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>61</v>
       </c>
@@ -2051,7 +2051,7 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>1226</v>
+        <v>0</v>
       </c>
       <c r="F15" s="11">
         <v>0</v>
@@ -2059,11 +2059,11 @@
       <c r="G15" s="11">
         <v>0</v>
       </c>
-      <c r="H15" s="11">
-        <v>0</v>
-      </c>
-      <c r="I15" s="11">
-        <v>0</v>
+      <c r="H15" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="J15" s="11" t="s">
         <v>58</v>
@@ -2071,23 +2071,23 @@
       <c r="K15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="L15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="M15" s="11" t="s">
-        <v>58</v>
+      <c r="L15" s="11">
+        <v>6243</v>
+      </c>
+      <c r="M15" s="11">
+        <v>16956</v>
       </c>
       <c r="N15" s="11">
-        <v>6243</v>
+        <v>13258</v>
       </c>
       <c r="O15" s="11">
-        <v>16956</v>
+        <v>1440</v>
       </c>
       <c r="P15" s="11">
-        <v>13258</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="11">
-        <v>1440</v>
+        <v>0</v>
       </c>
       <c r="R15" s="11">
         <v>0</v>
@@ -2131,11 +2131,11 @@
       <c r="AE15" s="11">
         <v>0</v>
       </c>
-      <c r="AF15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG15" s="11">
-        <v>0</v>
+      <c r="AF15" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG15" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH15" s="11" t="s">
         <v>58</v>
@@ -2201,7 +2201,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>62</v>
       </c>
@@ -2326,41 +2326,41 @@
       <c r="AQ16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR16" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS16" s="13" t="s">
-        <v>58</v>
+      <c r="AR16" s="13">
+        <v>869</v>
+      </c>
+      <c r="AS16" s="13">
+        <v>668</v>
       </c>
       <c r="AT16" s="13">
-        <v>869</v>
+        <v>703</v>
       </c>
       <c r="AU16" s="13">
-        <v>668</v>
+        <v>712</v>
       </c>
       <c r="AV16" s="13">
-        <v>703</v>
+        <v>681</v>
       </c>
       <c r="AW16" s="13">
-        <v>712</v>
+        <v>830</v>
       </c>
       <c r="AX16" s="13">
-        <v>681</v>
+        <v>776</v>
       </c>
       <c r="AY16" s="13">
-        <v>830</v>
+        <v>1180</v>
       </c>
       <c r="AZ16" s="13">
-        <v>776</v>
+        <v>984</v>
       </c>
       <c r="BA16" s="13">
-        <v>1180</v>
+        <v>1018</v>
       </c>
       <c r="BB16" s="13">
-        <v>984</v>
+        <v>1125</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>63</v>
       </c>
@@ -2485,41 +2485,41 @@
       <c r="AQ17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS17" s="11" t="s">
-        <v>58</v>
+      <c r="AR17" s="11">
+        <v>163</v>
+      </c>
+      <c r="AS17" s="11">
+        <v>543</v>
       </c>
       <c r="AT17" s="11">
-        <v>163</v>
+        <v>309</v>
       </c>
       <c r="AU17" s="11">
-        <v>543</v>
+        <v>940</v>
       </c>
       <c r="AV17" s="11">
-        <v>309</v>
+        <v>1001</v>
       </c>
       <c r="AW17" s="11">
-        <v>940</v>
+        <v>2504</v>
       </c>
       <c r="AX17" s="11">
-        <v>1001</v>
+        <v>1469</v>
       </c>
       <c r="AY17" s="11">
-        <v>2504</v>
+        <v>1142</v>
       </c>
       <c r="AZ17" s="11">
-        <v>1469</v>
+        <v>592</v>
       </c>
       <c r="BA17" s="11">
-        <v>1142</v>
+        <v>242</v>
       </c>
       <c r="BB17" s="11">
-        <v>592</v>
+        <v>872</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
         <v>64</v>
       </c>
@@ -2576,7 +2576,7 @@
       <c r="BA18" s="9"/>
       <c r="BB18" s="9"/>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>55</v>
       </c>
@@ -2638,11 +2638,11 @@
       <c r="V19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W19" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X19" s="11" t="s">
-        <v>58</v>
+      <c r="W19" s="11">
+        <v>0</v>
+      </c>
+      <c r="X19" s="11">
+        <v>0</v>
       </c>
       <c r="Y19" s="11">
         <v>0</v>
@@ -2662,11 +2662,11 @@
       <c r="AD19" s="11">
         <v>0</v>
       </c>
-      <c r="AE19" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF19" s="11">
-        <v>0</v>
+      <c r="AE19" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF19" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AG19" s="11" t="s">
         <v>58</v>
@@ -2735,7 +2735,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
         <v>57</v>
       </c>
@@ -2797,11 +2797,11 @@
       <c r="V20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W20" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X20" s="13" t="s">
-        <v>58</v>
+      <c r="W20" s="13">
+        <v>0</v>
+      </c>
+      <c r="X20" s="13">
+        <v>0</v>
       </c>
       <c r="Y20" s="13">
         <v>0</v>
@@ -2821,11 +2821,11 @@
       <c r="AD20" s="13">
         <v>0</v>
       </c>
-      <c r="AE20" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF20" s="13">
-        <v>0</v>
+      <c r="AE20" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF20" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AG20" s="13" t="s">
         <v>58</v>
@@ -2894,7 +2894,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>59</v>
       </c>
@@ -2956,11 +2956,11 @@
       <c r="V21" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W21" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X21" s="11" t="s">
-        <v>58</v>
+      <c r="W21" s="11">
+        <v>0</v>
+      </c>
+      <c r="X21" s="11">
+        <v>0</v>
       </c>
       <c r="Y21" s="11">
         <v>0</v>
@@ -2980,11 +2980,11 @@
       <c r="AD21" s="11">
         <v>0</v>
       </c>
-      <c r="AE21" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF21" s="11">
-        <v>0</v>
+      <c r="AE21" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF21" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AG21" s="11" t="s">
         <v>58</v>
@@ -3053,7 +3053,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
         <v>65</v>
       </c>
@@ -3178,8 +3178,8 @@
       <c r="AQ22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR22" s="13">
-        <v>0</v>
+      <c r="AR22" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS22" s="13" t="s">
         <v>58</v>
@@ -3212,7 +3212,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
         <v>66</v>
       </c>
@@ -3272,11 +3272,11 @@
       <c r="V23" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W23" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X23" s="15" t="s">
-        <v>58</v>
+      <c r="W23" s="15">
+        <v>0</v>
+      </c>
+      <c r="X23" s="15">
+        <v>0</v>
       </c>
       <c r="Y23" s="15">
         <v>0</v>
@@ -3369,164 +3369,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
         <v>67</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
       <c r="E24" s="17">
-        <v>3998</v>
+        <v>1518</v>
       </c>
       <c r="F24" s="17">
-        <v>2248</v>
+        <v>1058</v>
       </c>
       <c r="G24" s="17">
-        <v>1518</v>
+        <v>984</v>
       </c>
       <c r="H24" s="17">
-        <v>1058</v>
+        <v>991</v>
       </c>
       <c r="I24" s="17">
-        <v>984</v>
+        <v>3044</v>
       </c>
       <c r="J24" s="17">
-        <v>991</v>
+        <v>779</v>
       </c>
       <c r="K24" s="17">
-        <v>3044</v>
+        <v>1295</v>
       </c>
       <c r="L24" s="17">
-        <v>779</v>
+        <v>9684</v>
       </c>
       <c r="M24" s="17">
-        <v>1295</v>
+        <v>24593</v>
       </c>
       <c r="N24" s="17">
-        <v>9684</v>
+        <v>20410</v>
       </c>
       <c r="O24" s="17">
-        <v>24593</v>
+        <v>4363</v>
       </c>
       <c r="P24" s="17">
-        <v>20410</v>
+        <v>1656</v>
       </c>
       <c r="Q24" s="17">
-        <v>4363</v>
+        <v>1610</v>
       </c>
       <c r="R24" s="17">
-        <v>1656</v>
+        <v>1649</v>
       </c>
       <c r="S24" s="17">
-        <v>1610</v>
+        <v>1896</v>
       </c>
       <c r="T24" s="17">
-        <v>1649</v>
+        <v>1332</v>
       </c>
       <c r="U24" s="17">
-        <v>1896</v>
+        <v>2164</v>
       </c>
       <c r="V24" s="17">
-        <v>1332</v>
+        <v>878</v>
       </c>
       <c r="W24" s="17">
-        <v>2164</v>
+        <v>1850</v>
       </c>
       <c r="X24" s="17">
-        <v>878</v>
+        <v>2151</v>
       </c>
       <c r="Y24" s="17">
-        <v>1850</v>
+        <v>8641</v>
       </c>
       <c r="Z24" s="17">
-        <v>2151</v>
+        <v>6086</v>
       </c>
       <c r="AA24" s="17">
-        <v>8641</v>
+        <v>1463</v>
       </c>
       <c r="AB24" s="17">
-        <v>6086</v>
+        <v>1253</v>
       </c>
       <c r="AC24" s="17">
-        <v>1463</v>
+        <v>1363</v>
       </c>
       <c r="AD24" s="17">
-        <v>1253</v>
+        <v>1605</v>
       </c>
       <c r="AE24" s="17">
-        <v>1363</v>
+        <v>1313</v>
       </c>
       <c r="AF24" s="17">
-        <v>1605</v>
+        <v>866</v>
       </c>
       <c r="AG24" s="17">
-        <v>1313</v>
+        <v>1701</v>
       </c>
       <c r="AH24" s="17">
-        <v>866</v>
+        <v>1500</v>
       </c>
       <c r="AI24" s="17">
-        <v>1701</v>
+        <v>1316</v>
       </c>
       <c r="AJ24" s="17">
-        <v>1500</v>
+        <v>1851</v>
       </c>
       <c r="AK24" s="17">
-        <v>1316</v>
+        <v>6120</v>
       </c>
       <c r="AL24" s="17">
-        <v>1851</v>
+        <v>3354</v>
       </c>
       <c r="AM24" s="17">
-        <v>6120</v>
+        <v>2679</v>
       </c>
       <c r="AN24" s="17">
-        <v>3354</v>
+        <v>1481</v>
       </c>
       <c r="AO24" s="17">
-        <v>2679</v>
+        <v>2634</v>
       </c>
       <c r="AP24" s="17">
-        <v>1481</v>
+        <v>2541</v>
       </c>
       <c r="AQ24" s="17">
-        <v>2634</v>
+        <v>2071</v>
       </c>
       <c r="AR24" s="17">
-        <v>1291</v>
+        <v>1032</v>
       </c>
       <c r="AS24" s="17">
-        <v>2071</v>
+        <v>1321</v>
       </c>
       <c r="AT24" s="17">
-        <v>1032</v>
+        <v>1012</v>
       </c>
       <c r="AU24" s="17">
-        <v>1321</v>
+        <v>1842</v>
       </c>
       <c r="AV24" s="17">
-        <v>1012</v>
+        <v>1983</v>
       </c>
       <c r="AW24" s="17">
-        <v>1842</v>
+        <v>5536</v>
       </c>
       <c r="AX24" s="17">
-        <v>1983</v>
+        <v>6444</v>
       </c>
       <c r="AY24" s="17">
-        <v>5536</v>
+        <v>3337</v>
       </c>
       <c r="AZ24" s="17">
-        <v>6444</v>
+        <v>1662</v>
       </c>
       <c r="BA24" s="17">
-        <v>3337</v>
+        <v>1327</v>
       </c>
       <c r="BB24" s="17">
-        <v>1698</v>
+        <v>2025</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -3581,7 +3581,7 @@
       <c r="BA25" s="1"/>
       <c r="BB25" s="1"/>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -3636,7 +3636,7 @@
       <c r="BA26" s="1"/>
       <c r="BB26" s="1"/>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -3691,7 +3691,7 @@
       <c r="BA27" s="1"/>
       <c r="BB27" s="1"/>
     </row>
-    <row r="28" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
         <v>68</v>
       </c>
@@ -3848,7 +3848,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -3903,7 +3903,7 @@
       <c r="BA29" s="1"/>
       <c r="BB29" s="1"/>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
         <v>68</v>
       </c>
@@ -3960,7 +3960,7 @@
       <c r="BA30" s="9"/>
       <c r="BB30" s="9"/>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
         <v>55</v>
       </c>
@@ -3969,157 +3969,157 @@
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11">
-        <v>502</v>
+        <v>34</v>
       </c>
       <c r="F31" s="11">
-        <v>257</v>
+        <v>34</v>
       </c>
       <c r="G31" s="11">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="H31" s="11">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="I31" s="11">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J31" s="11">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="K31" s="11">
+        <v>10</v>
+      </c>
+      <c r="L31" s="11">
+        <v>20</v>
+      </c>
+      <c r="M31" s="11">
+        <v>22</v>
+      </c>
+      <c r="N31" s="11">
+        <v>260</v>
+      </c>
+      <c r="O31" s="11">
+        <v>117</v>
+      </c>
+      <c r="P31" s="11">
+        <v>53</v>
+      </c>
+      <c r="Q31" s="11">
+        <v>43</v>
+      </c>
+      <c r="R31" s="11">
+        <v>56</v>
+      </c>
+      <c r="S31" s="11">
+        <v>35</v>
+      </c>
+      <c r="T31" s="11">
+        <v>21</v>
+      </c>
+      <c r="U31" s="11">
+        <v>55</v>
+      </c>
+      <c r="V31" s="11">
+        <v>16</v>
+      </c>
+      <c r="W31" s="11">
+        <v>28</v>
+      </c>
+      <c r="X31" s="11">
+        <v>41</v>
+      </c>
+      <c r="Y31" s="11">
+        <v>24</v>
+      </c>
+      <c r="Z31" s="11">
+        <v>35</v>
+      </c>
+      <c r="AA31" s="11">
+        <v>58</v>
+      </c>
+      <c r="AB31" s="11">
+        <v>36</v>
+      </c>
+      <c r="AC31" s="11">
+        <v>20</v>
+      </c>
+      <c r="AD31" s="11">
+        <v>30</v>
+      </c>
+      <c r="AE31" s="11">
+        <v>19</v>
+      </c>
+      <c r="AF31" s="11">
+        <v>37</v>
+      </c>
+      <c r="AG31" s="11">
+        <v>74</v>
+      </c>
+      <c r="AH31" s="11">
+        <v>75</v>
+      </c>
+      <c r="AI31" s="11">
+        <v>77</v>
+      </c>
+      <c r="AJ31" s="11">
+        <v>98</v>
+      </c>
+      <c r="AK31" s="11">
+        <v>145</v>
+      </c>
+      <c r="AL31" s="11">
+        <v>166</v>
+      </c>
+      <c r="AM31" s="11">
+        <v>261</v>
+      </c>
+      <c r="AN31" s="11">
+        <v>126</v>
+      </c>
+      <c r="AO31" s="11">
+        <v>67</v>
+      </c>
+      <c r="AP31" s="11">
+        <v>69</v>
+      </c>
+      <c r="AQ31" s="11">
+        <v>44</v>
+      </c>
+      <c r="AR31" s="11">
+        <v>63</v>
+      </c>
+      <c r="AS31" s="11">
+        <v>31</v>
+      </c>
+      <c r="AT31" s="11">
         <v>13</v>
       </c>
-      <c r="L31" s="11">
-        <v>18</v>
-      </c>
-      <c r="M31" s="11">
-        <v>10</v>
-      </c>
-      <c r="N31" s="11">
-        <v>20</v>
-      </c>
-      <c r="O31" s="11">
-        <v>22</v>
-      </c>
-      <c r="P31" s="11">
-        <v>260</v>
-      </c>
-      <c r="Q31" s="11">
-        <v>117</v>
-      </c>
-      <c r="R31" s="11">
-        <v>53</v>
-      </c>
-      <c r="S31" s="11">
-        <v>43</v>
-      </c>
-      <c r="T31" s="11">
-        <v>56</v>
-      </c>
-      <c r="U31" s="11">
-        <v>35</v>
-      </c>
-      <c r="V31" s="11">
-        <v>21</v>
-      </c>
-      <c r="W31" s="11">
+      <c r="AU31" s="11">
+        <v>33</v>
+      </c>
+      <c r="AV31" s="11">
         <v>55</v>
-      </c>
-      <c r="X31" s="11">
-        <v>16</v>
-      </c>
-      <c r="Y31" s="11">
-        <v>28</v>
-      </c>
-      <c r="Z31" s="11">
-        <v>41</v>
-      </c>
-      <c r="AA31" s="11">
-        <v>24</v>
-      </c>
-      <c r="AB31" s="11">
-        <v>35</v>
-      </c>
-      <c r="AC31" s="11">
-        <v>58</v>
-      </c>
-      <c r="AD31" s="11">
-        <v>36</v>
-      </c>
-      <c r="AE31" s="11">
-        <v>20</v>
-      </c>
-      <c r="AF31" s="11">
-        <v>30</v>
-      </c>
-      <c r="AG31" s="11">
-        <v>19</v>
-      </c>
-      <c r="AH31" s="11">
-        <v>37</v>
-      </c>
-      <c r="AI31" s="11">
-        <v>74</v>
-      </c>
-      <c r="AJ31" s="11">
-        <v>75</v>
-      </c>
-      <c r="AK31" s="11">
-        <v>77</v>
-      </c>
-      <c r="AL31" s="11">
-        <v>98</v>
-      </c>
-      <c r="AM31" s="11">
-        <v>145</v>
-      </c>
-      <c r="AN31" s="11">
-        <v>166</v>
-      </c>
-      <c r="AO31" s="11">
-        <v>261</v>
-      </c>
-      <c r="AP31" s="11">
-        <v>126</v>
-      </c>
-      <c r="AQ31" s="11">
-        <v>67</v>
-      </c>
-      <c r="AR31" s="11">
-        <v>69</v>
-      </c>
-      <c r="AS31" s="11">
-        <v>44</v>
-      </c>
-      <c r="AT31" s="11">
-        <v>63</v>
-      </c>
-      <c r="AU31" s="11">
-        <v>31</v>
-      </c>
-      <c r="AV31" s="11">
-        <v>13</v>
       </c>
       <c r="AW31" s="11">
         <v>33</v>
       </c>
       <c r="AX31" s="11">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="AY31" s="11">
-        <v>33</v>
+        <v>185</v>
       </c>
       <c r="AZ31" s="11">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="BA31" s="11">
-        <v>185</v>
+        <v>59</v>
       </c>
       <c r="BB31" s="11">
-        <v>123</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
         <v>57</v>
       </c>
@@ -4128,128 +4128,128 @@
       </c>
       <c r="D32" s="13"/>
       <c r="E32" s="13">
-        <v>651</v>
+        <v>575</v>
       </c>
       <c r="F32" s="13">
-        <v>683</v>
+        <v>1447</v>
       </c>
       <c r="G32" s="13">
-        <v>575</v>
+        <v>1059</v>
       </c>
       <c r="H32" s="13">
-        <v>1447</v>
+        <v>881</v>
       </c>
       <c r="I32" s="13">
-        <v>1059</v>
+        <v>2081</v>
       </c>
       <c r="J32" s="13">
-        <v>881</v>
+        <v>478</v>
       </c>
       <c r="K32" s="13">
-        <v>2081</v>
+        <v>392</v>
       </c>
       <c r="L32" s="13">
-        <v>478</v>
+        <v>1068</v>
       </c>
       <c r="M32" s="13">
-        <v>392</v>
+        <v>690</v>
       </c>
       <c r="N32" s="13">
-        <v>1068</v>
+        <v>365</v>
       </c>
       <c r="O32" s="13">
-        <v>690</v>
+        <v>1502</v>
       </c>
       <c r="P32" s="13">
-        <v>365</v>
+        <v>1891</v>
       </c>
       <c r="Q32" s="13">
-        <v>1502</v>
+        <v>177</v>
       </c>
       <c r="R32" s="13">
-        <v>1891</v>
+        <v>230</v>
       </c>
       <c r="S32" s="13">
-        <v>177</v>
+        <v>845</v>
       </c>
       <c r="T32" s="13">
-        <v>230</v>
+        <v>677</v>
       </c>
       <c r="U32" s="13">
-        <v>845</v>
+        <v>729</v>
       </c>
       <c r="V32" s="13">
-        <v>677</v>
+        <v>445</v>
       </c>
       <c r="W32" s="13">
-        <v>729</v>
+        <v>739</v>
       </c>
       <c r="X32" s="13">
-        <v>445</v>
+        <v>715</v>
       </c>
       <c r="Y32" s="13">
-        <v>739</v>
+        <v>1030</v>
       </c>
       <c r="Z32" s="13">
-        <v>715</v>
+        <v>2699</v>
       </c>
       <c r="AA32" s="13">
-        <v>1030</v>
+        <v>1078</v>
       </c>
       <c r="AB32" s="13">
-        <v>2699</v>
+        <v>517</v>
       </c>
       <c r="AC32" s="13">
-        <v>1078</v>
+        <v>490</v>
       </c>
       <c r="AD32" s="13">
-        <v>517</v>
+        <v>833</v>
       </c>
       <c r="AE32" s="13">
-        <v>490</v>
+        <v>890</v>
       </c>
       <c r="AF32" s="13">
-        <v>833</v>
+        <v>893</v>
       </c>
       <c r="AG32" s="13">
-        <v>890</v>
+        <v>1646</v>
       </c>
       <c r="AH32" s="13">
-        <v>893</v>
+        <v>2297</v>
       </c>
       <c r="AI32" s="13">
+        <v>1341</v>
+      </c>
+      <c r="AJ32" s="13">
+        <v>2709</v>
+      </c>
+      <c r="AK32" s="13">
         <v>1646</v>
       </c>
-      <c r="AJ32" s="13">
-        <v>2297</v>
-      </c>
-      <c r="AK32" s="13">
-        <v>1341</v>
-      </c>
       <c r="AL32" s="13">
-        <v>2709</v>
+        <v>2076</v>
       </c>
       <c r="AM32" s="13">
-        <v>1646</v>
+        <v>2024</v>
       </c>
       <c r="AN32" s="13">
-        <v>2076</v>
+        <v>1519</v>
       </c>
       <c r="AO32" s="13">
-        <v>2024</v>
+        <v>1859</v>
       </c>
       <c r="AP32" s="13">
-        <v>1519</v>
+        <v>1372</v>
       </c>
       <c r="AQ32" s="13">
-        <v>1859</v>
-      </c>
-      <c r="AR32" s="13">
-        <v>1372</v>
-      </c>
-      <c r="AS32" s="13">
         <v>749</v>
       </c>
+      <c r="AR32" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS32" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AT32" s="13" t="s">
         <v>58</v>
       </c>
@@ -4278,7 +4278,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
         <v>59</v>
       </c>
@@ -4287,128 +4287,128 @@
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11">
-        <v>676</v>
+        <v>946</v>
       </c>
       <c r="F33" s="11">
-        <v>821</v>
+        <v>1025</v>
       </c>
       <c r="G33" s="11">
-        <v>946</v>
+        <v>858</v>
       </c>
       <c r="H33" s="11">
-        <v>1025</v>
+        <v>611</v>
       </c>
       <c r="I33" s="11">
-        <v>858</v>
+        <v>797</v>
       </c>
       <c r="J33" s="11">
-        <v>611</v>
+        <v>564</v>
       </c>
       <c r="K33" s="11">
+        <v>626</v>
+      </c>
+      <c r="L33" s="11">
+        <v>600</v>
+      </c>
+      <c r="M33" s="11">
+        <v>671</v>
+      </c>
+      <c r="N33" s="11">
+        <v>715</v>
+      </c>
+      <c r="O33" s="11">
+        <v>984</v>
+      </c>
+      <c r="P33" s="11">
+        <v>839</v>
+      </c>
+      <c r="Q33" s="11">
+        <v>1157</v>
+      </c>
+      <c r="R33" s="11">
+        <v>1280</v>
+      </c>
+      <c r="S33" s="11">
+        <v>1311</v>
+      </c>
+      <c r="T33" s="11">
+        <v>997</v>
+      </c>
+      <c r="U33" s="11">
+        <v>1148</v>
+      </c>
+      <c r="V33" s="11">
+        <v>772</v>
+      </c>
+      <c r="W33" s="11">
+        <v>855</v>
+      </c>
+      <c r="X33" s="11">
+        <v>555</v>
+      </c>
+      <c r="Y33" s="11">
         <v>797</v>
       </c>
-      <c r="L33" s="11">
-        <v>564</v>
-      </c>
-      <c r="M33" s="11">
-        <v>626</v>
-      </c>
-      <c r="N33" s="11">
-        <v>600</v>
-      </c>
-      <c r="O33" s="11">
+      <c r="Z33" s="11">
+        <v>829</v>
+      </c>
+      <c r="AA33" s="11">
+        <v>752</v>
+      </c>
+      <c r="AB33" s="11">
+        <v>897</v>
+      </c>
+      <c r="AC33" s="11">
+        <v>956</v>
+      </c>
+      <c r="AD33" s="11">
+        <v>1061</v>
+      </c>
+      <c r="AE33" s="11">
+        <v>1172</v>
+      </c>
+      <c r="AF33" s="11">
+        <v>872</v>
+      </c>
+      <c r="AG33" s="11">
+        <v>789</v>
+      </c>
+      <c r="AH33" s="11">
+        <v>594</v>
+      </c>
+      <c r="AI33" s="11">
+        <v>561</v>
+      </c>
+      <c r="AJ33" s="11">
         <v>671</v>
       </c>
-      <c r="P33" s="11">
-        <v>715</v>
-      </c>
-      <c r="Q33" s="11">
-        <v>984</v>
-      </c>
-      <c r="R33" s="11">
-        <v>839</v>
-      </c>
-      <c r="S33" s="11">
+      <c r="AK33" s="11">
+        <v>743</v>
+      </c>
+      <c r="AL33" s="11">
+        <v>820</v>
+      </c>
+      <c r="AM33" s="11">
         <v>1157</v>
       </c>
-      <c r="T33" s="11">
-        <v>1280</v>
-      </c>
-      <c r="U33" s="11">
-        <v>1311</v>
-      </c>
-      <c r="V33" s="11">
-        <v>997</v>
-      </c>
-      <c r="W33" s="11">
-        <v>1148</v>
-      </c>
-      <c r="X33" s="11">
-        <v>772</v>
-      </c>
-      <c r="Y33" s="11">
-        <v>855</v>
-      </c>
-      <c r="Z33" s="11">
-        <v>555</v>
-      </c>
-      <c r="AA33" s="11">
-        <v>797</v>
-      </c>
-      <c r="AB33" s="11">
-        <v>829</v>
-      </c>
-      <c r="AC33" s="11">
-        <v>752</v>
-      </c>
-      <c r="AD33" s="11">
-        <v>897</v>
-      </c>
-      <c r="AE33" s="11">
-        <v>956</v>
-      </c>
-      <c r="AF33" s="11">
-        <v>1061</v>
-      </c>
-      <c r="AG33" s="11">
-        <v>1172</v>
-      </c>
-      <c r="AH33" s="11">
-        <v>872</v>
-      </c>
-      <c r="AI33" s="11">
-        <v>789</v>
-      </c>
-      <c r="AJ33" s="11">
-        <v>594</v>
-      </c>
-      <c r="AK33" s="11">
-        <v>561</v>
-      </c>
-      <c r="AL33" s="11">
-        <v>671</v>
-      </c>
-      <c r="AM33" s="11">
-        <v>743</v>
-      </c>
       <c r="AN33" s="11">
-        <v>820</v>
+        <v>988</v>
       </c>
       <c r="AO33" s="11">
-        <v>1157</v>
+        <v>1490</v>
       </c>
       <c r="AP33" s="11">
-        <v>988</v>
+        <v>1054</v>
       </c>
       <c r="AQ33" s="11">
-        <v>1490</v>
-      </c>
-      <c r="AR33" s="11">
-        <v>1054</v>
-      </c>
-      <c r="AS33" s="11">
         <v>1078</v>
       </c>
+      <c r="AR33" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS33" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AT33" s="11" t="s">
         <v>58</v>
       </c>
@@ -4437,7 +4437,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
         <v>60</v>
       </c>
@@ -4562,11 +4562,11 @@
       <c r="AQ34" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR34" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS34" s="13" t="s">
-        <v>58</v>
+      <c r="AR34" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS34" s="13">
+        <v>0</v>
       </c>
       <c r="AT34" s="13">
         <v>0</v>
@@ -4575,28 +4575,28 @@
         <v>0</v>
       </c>
       <c r="AV34" s="13">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AW34" s="13">
-        <v>0</v>
+        <v>235</v>
       </c>
       <c r="AX34" s="13">
-        <v>12</v>
+        <v>1236</v>
       </c>
       <c r="AY34" s="13">
-        <v>235</v>
+        <v>986</v>
       </c>
       <c r="AZ34" s="13">
-        <v>1236</v>
+        <v>355</v>
       </c>
       <c r="BA34" s="13">
-        <v>986</v>
+        <v>717</v>
       </c>
       <c r="BB34" s="13">
-        <v>355</v>
+        <v>297</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
         <v>61</v>
       </c>
@@ -4605,7 +4605,7 @@
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11">
-        <v>1226</v>
+        <v>0</v>
       </c>
       <c r="F35" s="11">
         <v>0</v>
@@ -4613,11 +4613,11 @@
       <c r="G35" s="11">
         <v>0</v>
       </c>
-      <c r="H35" s="11">
-        <v>0</v>
-      </c>
-      <c r="I35" s="11">
-        <v>0</v>
+      <c r="H35" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="J35" s="11" t="s">
         <v>58</v>
@@ -4625,23 +4625,23 @@
       <c r="K35" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="L35" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="M35" s="11" t="s">
-        <v>58</v>
+      <c r="L35" s="11">
+        <v>6243</v>
+      </c>
+      <c r="M35" s="11">
+        <v>16956</v>
       </c>
       <c r="N35" s="11">
-        <v>6243</v>
+        <v>13258</v>
       </c>
       <c r="O35" s="11">
-        <v>16956</v>
+        <v>1440</v>
       </c>
       <c r="P35" s="11">
-        <v>13258</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="11">
-        <v>1440</v>
+        <v>0</v>
       </c>
       <c r="R35" s="11">
         <v>0</v>
@@ -4685,11 +4685,11 @@
       <c r="AE35" s="11">
         <v>0</v>
       </c>
-      <c r="AF35" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG35" s="11">
-        <v>0</v>
+      <c r="AF35" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG35" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH35" s="11" t="s">
         <v>58</v>
@@ -4755,7 +4755,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
         <v>62</v>
       </c>
@@ -4880,41 +4880,41 @@
       <c r="AQ36" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR36" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS36" s="13" t="s">
-        <v>58</v>
+      <c r="AR36" s="13">
+        <v>847</v>
+      </c>
+      <c r="AS36" s="13">
+        <v>748</v>
       </c>
       <c r="AT36" s="13">
-        <v>847</v>
+        <v>622</v>
       </c>
       <c r="AU36" s="13">
-        <v>748</v>
+        <v>685</v>
       </c>
       <c r="AV36" s="13">
-        <v>622</v>
+        <v>733</v>
       </c>
       <c r="AW36" s="13">
-        <v>685</v>
+        <v>780</v>
       </c>
       <c r="AX36" s="13">
-        <v>733</v>
+        <v>901</v>
       </c>
       <c r="AY36" s="13">
-        <v>780</v>
+        <v>1024</v>
       </c>
       <c r="AZ36" s="13">
-        <v>901</v>
+        <v>1026</v>
       </c>
       <c r="BA36" s="13">
-        <v>1024</v>
+        <v>1059</v>
       </c>
       <c r="BB36" s="13">
-        <v>1026</v>
+        <v>1101</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
         <v>63</v>
       </c>
@@ -5039,41 +5039,41 @@
       <c r="AQ37" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR37" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS37" s="11" t="s">
-        <v>58</v>
+      <c r="AR37" s="11">
+        <v>505</v>
+      </c>
+      <c r="AS37" s="11">
+        <v>616</v>
       </c>
       <c r="AT37" s="11">
-        <v>505</v>
+        <v>421</v>
       </c>
       <c r="AU37" s="11">
-        <v>616</v>
+        <v>849</v>
       </c>
       <c r="AV37" s="11">
-        <v>421</v>
+        <v>840</v>
       </c>
       <c r="AW37" s="11">
-        <v>849</v>
+        <v>925</v>
       </c>
       <c r="AX37" s="11">
-        <v>840</v>
+        <v>1092</v>
       </c>
       <c r="AY37" s="11">
-        <v>925</v>
+        <v>1215</v>
       </c>
       <c r="AZ37" s="11">
-        <v>1092</v>
+        <v>830</v>
       </c>
       <c r="BA37" s="11">
-        <v>1215</v>
+        <v>1336</v>
       </c>
       <c r="BB37" s="11">
-        <v>830</v>
+        <v>1214</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
         <v>64</v>
       </c>
@@ -5130,7 +5130,7 @@
       <c r="BA38" s="9"/>
       <c r="BB38" s="9"/>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
         <v>55</v>
       </c>
@@ -5192,11 +5192,11 @@
       <c r="V39" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W39" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X39" s="11" t="s">
-        <v>58</v>
+      <c r="W39" s="11">
+        <v>0</v>
+      </c>
+      <c r="X39" s="11">
+        <v>0</v>
       </c>
       <c r="Y39" s="11">
         <v>0</v>
@@ -5216,11 +5216,11 @@
       <c r="AD39" s="11">
         <v>0</v>
       </c>
-      <c r="AE39" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF39" s="11">
-        <v>0</v>
+      <c r="AE39" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF39" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AG39" s="11" t="s">
         <v>58</v>
@@ -5289,7 +5289,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="12" t="s">
         <v>57</v>
       </c>
@@ -5351,11 +5351,11 @@
       <c r="V40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W40" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X40" s="13" t="s">
-        <v>58</v>
+      <c r="W40" s="13">
+        <v>0</v>
+      </c>
+      <c r="X40" s="13">
+        <v>0</v>
       </c>
       <c r="Y40" s="13">
         <v>0</v>
@@ -5375,11 +5375,11 @@
       <c r="AD40" s="13">
         <v>0</v>
       </c>
-      <c r="AE40" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF40" s="13">
-        <v>0</v>
+      <c r="AE40" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF40" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AG40" s="13" t="s">
         <v>58</v>
@@ -5448,7 +5448,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
         <v>59</v>
       </c>
@@ -5510,11 +5510,11 @@
       <c r="V41" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W41" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X41" s="11" t="s">
-        <v>58</v>
+      <c r="W41" s="11">
+        <v>0</v>
+      </c>
+      <c r="X41" s="11">
+        <v>0</v>
       </c>
       <c r="Y41" s="11">
         <v>0</v>
@@ -5534,11 +5534,11 @@
       <c r="AD41" s="11">
         <v>0</v>
       </c>
-      <c r="AE41" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF41" s="11">
-        <v>0</v>
+      <c r="AE41" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF41" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AG41" s="11" t="s">
         <v>58</v>
@@ -5607,7 +5607,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="12" t="s">
         <v>65</v>
       </c>
@@ -5732,8 +5732,8 @@
       <c r="AQ42" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR42" s="13">
-        <v>0</v>
+      <c r="AR42" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS42" s="13" t="s">
         <v>58</v>
@@ -5766,7 +5766,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="14" t="s">
         <v>66</v>
       </c>
@@ -5826,11 +5826,11 @@
       <c r="V43" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W43" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X43" s="15" t="s">
-        <v>58</v>
+      <c r="W43" s="15">
+        <v>0</v>
+      </c>
+      <c r="X43" s="15">
+        <v>0</v>
       </c>
       <c r="Y43" s="15">
         <v>0</v>
@@ -5890,7 +5890,7 @@
         <v>0</v>
       </c>
       <c r="AR43" s="15">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="AS43" s="15">
         <v>0</v>
@@ -5923,7 +5923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
         <v>69</v>
       </c>
@@ -5980,7 +5980,7 @@
       <c r="BA44" s="9"/>
       <c r="BB44" s="9"/>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
         <v>55</v>
       </c>
@@ -6042,17 +6042,17 @@
       <c r="V45" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W45" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X45" s="11" t="s">
-        <v>58</v>
+      <c r="W45" s="11">
+        <v>1</v>
+      </c>
+      <c r="X45" s="11">
+        <v>2</v>
       </c>
       <c r="Y45" s="11">
         <v>1</v>
       </c>
       <c r="Z45" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA45" s="11">
         <v>1</v>
@@ -6061,7 +6061,7 @@
         <v>1</v>
       </c>
       <c r="AC45" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD45" s="11">
         <v>1</v>
@@ -6070,19 +6070,19 @@
         <v>0</v>
       </c>
       <c r="AF45" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG45" s="11">
         <v>1</v>
       </c>
-      <c r="AG45" s="11">
-        <v>0</v>
-      </c>
       <c r="AH45" s="11">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AI45" s="11">
-        <v>1</v>
-      </c>
-      <c r="AJ45" s="11">
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="AJ45" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AK45" s="11">
         <v>0</v>
@@ -6093,29 +6093,29 @@
       <c r="AM45" s="11">
         <v>0</v>
       </c>
-      <c r="AN45" s="11" t="s">
-        <v>58</v>
+      <c r="AN45" s="11">
+        <v>0</v>
       </c>
       <c r="AO45" s="11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP45" s="11">
         <v>0</v>
       </c>
       <c r="AQ45" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR45" s="11">
         <v>0</v>
       </c>
       <c r="AS45" s="11">
-        <v>4</v>
-      </c>
-      <c r="AT45" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU45" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AT45" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU45" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AV45" s="11" t="s">
         <v>58</v>
@@ -6139,7 +6139,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="12" t="s">
         <v>57</v>
       </c>
@@ -6201,75 +6201,75 @@
       <c r="V46" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W46" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X46" s="13" t="s">
-        <v>58</v>
+      <c r="W46" s="13">
+        <v>9</v>
+      </c>
+      <c r="X46" s="13">
+        <v>3</v>
       </c>
       <c r="Y46" s="13">
+        <v>4</v>
+      </c>
+      <c r="Z46" s="13">
+        <v>23</v>
+      </c>
+      <c r="AA46" s="13">
+        <v>20</v>
+      </c>
+      <c r="AB46" s="13">
+        <v>32</v>
+      </c>
+      <c r="AC46" s="13">
+        <v>13</v>
+      </c>
+      <c r="AD46" s="13">
+        <v>3</v>
+      </c>
+      <c r="AE46" s="13">
+        <v>3</v>
+      </c>
+      <c r="AF46" s="13">
+        <v>12</v>
+      </c>
+      <c r="AG46" s="13">
+        <v>33</v>
+      </c>
+      <c r="AH46" s="13">
+        <v>19</v>
+      </c>
+      <c r="AI46" s="13">
+        <v>59</v>
+      </c>
+      <c r="AJ46" s="13">
         <v>9</v>
       </c>
-      <c r="Z46" s="13">
-        <v>3</v>
-      </c>
-      <c r="AA46" s="13">
-        <v>4</v>
-      </c>
-      <c r="AB46" s="13">
-        <v>23</v>
-      </c>
-      <c r="AC46" s="13">
-        <v>20</v>
-      </c>
-      <c r="AD46" s="13">
-        <v>32</v>
-      </c>
-      <c r="AE46" s="13">
-        <v>13</v>
-      </c>
-      <c r="AF46" s="13">
-        <v>3</v>
-      </c>
-      <c r="AG46" s="13">
-        <v>3</v>
-      </c>
-      <c r="AH46" s="13">
-        <v>12</v>
-      </c>
-      <c r="AI46" s="13">
-        <v>33</v>
-      </c>
-      <c r="AJ46" s="13">
-        <v>19</v>
-      </c>
       <c r="AK46" s="13">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="AL46" s="13">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="AM46" s="13">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="AN46" s="13">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="AO46" s="13">
-        <v>110</v>
+        <v>7</v>
       </c>
       <c r="AP46" s="13">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="AQ46" s="13">
-        <v>7</v>
-      </c>
-      <c r="AR46" s="13">
-        <v>2</v>
-      </c>
-      <c r="AS46" s="13">
         <v>24</v>
       </c>
+      <c r="AR46" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS46" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AT46" s="13" t="s">
         <v>58</v>
       </c>
@@ -6298,7 +6298,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
         <v>59</v>
       </c>
@@ -6360,59 +6360,59 @@
       <c r="V47" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W47" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X47" s="11" t="s">
-        <v>58</v>
+      <c r="W47" s="11">
+        <v>3</v>
+      </c>
+      <c r="X47" s="11">
+        <v>2</v>
       </c>
       <c r="Y47" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z47" s="11">
         <v>2</v>
       </c>
       <c r="AA47" s="11">
+        <v>5</v>
+      </c>
+      <c r="AB47" s="11">
+        <v>3</v>
+      </c>
+      <c r="AC47" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="11">
+        <v>26</v>
+      </c>
+      <c r="AE47" s="11">
+        <v>9</v>
+      </c>
+      <c r="AF47" s="11">
+        <v>3</v>
+      </c>
+      <c r="AG47" s="11">
         <v>1</v>
       </c>
-      <c r="AB47" s="11">
+      <c r="AH47" s="11">
+        <v>4</v>
+      </c>
+      <c r="AI47" s="11">
         <v>2</v>
       </c>
-      <c r="AC47" s="11">
-        <v>5</v>
-      </c>
-      <c r="AD47" s="11">
-        <v>3</v>
-      </c>
-      <c r="AE47" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF47" s="11">
-        <v>26</v>
-      </c>
-      <c r="AG47" s="11">
-        <v>9</v>
-      </c>
-      <c r="AH47" s="11">
-        <v>3</v>
-      </c>
-      <c r="AI47" s="11">
-        <v>1</v>
-      </c>
       <c r="AJ47" s="11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AK47" s="11">
-        <v>2</v>
-      </c>
-      <c r="AL47" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AL47" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AM47" s="11">
         <v>0</v>
       </c>
-      <c r="AN47" s="11" t="s">
-        <v>58</v>
+      <c r="AN47" s="11">
+        <v>0</v>
       </c>
       <c r="AO47" s="11">
         <v>0</v>
@@ -6423,11 +6423,11 @@
       <c r="AQ47" s="11">
         <v>0</v>
       </c>
-      <c r="AR47" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS47" s="11">
-        <v>0</v>
+      <c r="AR47" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS47" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT47" s="11" t="s">
         <v>58</v>
@@ -6457,7 +6457,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="12" t="s">
         <v>60</v>
       </c>
@@ -6594,29 +6594,29 @@
       <c r="AU48" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AV48" s="13" t="s">
-        <v>58</v>
+      <c r="AV48" s="13">
+        <v>1</v>
       </c>
       <c r="AW48" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX48" s="13">
+      <c r="AX48" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY48" s="13">
         <v>1</v>
       </c>
-      <c r="AY48" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ48" s="13" t="s">
-        <v>58</v>
+      <c r="AZ48" s="13">
+        <v>2</v>
       </c>
       <c r="BA48" s="13">
-        <v>1</v>
-      </c>
-      <c r="BB48" s="13" t="s">
-        <v>58</v>
+        <v>4</v>
+      </c>
+      <c r="BB48" s="13">
+        <v>33</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
         <v>62</v>
       </c>
@@ -6741,17 +6741,17 @@
       <c r="AQ49" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR49" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS49" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT49" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU49" s="11">
-        <v>0</v>
+      <c r="AR49" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS49" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT49" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU49" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AV49" s="11" t="s">
         <v>58</v>
@@ -6765,8 +6765,8 @@
       <c r="AY49" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AZ49" s="11" t="s">
-        <v>58</v>
+      <c r="AZ49" s="11">
+        <v>1</v>
       </c>
       <c r="BA49" s="11" t="s">
         <v>58</v>
@@ -6775,7 +6775,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="12" t="s">
         <v>63</v>
       </c>
@@ -6900,41 +6900,41 @@
       <c r="AQ50" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR50" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS50" s="13" t="s">
-        <v>58</v>
+      <c r="AR50" s="13">
+        <v>32</v>
+      </c>
+      <c r="AS50" s="13">
+        <v>35</v>
       </c>
       <c r="AT50" s="13">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="AU50" s="13">
-        <v>35</v>
-      </c>
-      <c r="AV50" s="13">
-        <v>8</v>
-      </c>
-      <c r="AW50" s="13">
         <v>3</v>
       </c>
-      <c r="AX50" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY50" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ50" s="13">
+      <c r="AV50" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW50" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX50" s="13">
         <v>1</v>
       </c>
-      <c r="BA50" s="13">
+      <c r="AY50" s="13">
         <v>2</v>
       </c>
-      <c r="BB50" s="13" t="s">
-        <v>58</v>
+      <c r="AZ50" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA50" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB50" s="13">
+        <v>29</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="14" t="s">
         <v>70</v>
       </c>
@@ -6994,261 +6994,261 @@
       <c r="V51" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W51" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X51" s="15" t="s">
-        <v>58</v>
+      <c r="W51" s="15">
+        <v>13</v>
+      </c>
+      <c r="X51" s="15">
+        <v>7</v>
       </c>
       <c r="Y51" s="15">
+        <v>6</v>
+      </c>
+      <c r="Z51" s="15">
+        <v>26</v>
+      </c>
+      <c r="AA51" s="15">
+        <v>26</v>
+      </c>
+      <c r="AB51" s="15">
+        <v>36</v>
+      </c>
+      <c r="AC51" s="15">
         <v>13</v>
       </c>
-      <c r="Z51" s="15">
-        <v>7</v>
-      </c>
-      <c r="AA51" s="15">
-        <v>6</v>
-      </c>
-      <c r="AB51" s="15">
-        <v>26</v>
-      </c>
-      <c r="AC51" s="15">
-        <v>26</v>
-      </c>
       <c r="AD51" s="15">
+        <v>30</v>
+      </c>
+      <c r="AE51" s="15">
+        <v>12</v>
+      </c>
+      <c r="AF51" s="15">
+        <v>15</v>
+      </c>
+      <c r="AG51" s="15">
+        <v>35</v>
+      </c>
+      <c r="AH51" s="15">
+        <v>35</v>
+      </c>
+      <c r="AI51" s="15">
+        <v>61</v>
+      </c>
+      <c r="AJ51" s="15">
+        <v>9</v>
+      </c>
+      <c r="AK51" s="15">
+        <v>5</v>
+      </c>
+      <c r="AL51" s="15">
+        <v>55</v>
+      </c>
+      <c r="AM51" s="15">
+        <v>110</v>
+      </c>
+      <c r="AN51" s="15">
         <v>36</v>
       </c>
-      <c r="AE51" s="15">
-        <v>13</v>
-      </c>
-      <c r="AF51" s="15">
-        <v>30</v>
-      </c>
-      <c r="AG51" s="15">
-        <v>12</v>
-      </c>
-      <c r="AH51" s="15">
-        <v>15</v>
-      </c>
-      <c r="AI51" s="15">
+      <c r="AO51" s="15">
+        <v>10</v>
+      </c>
+      <c r="AP51" s="15">
+        <v>2</v>
+      </c>
+      <c r="AQ51" s="15">
+        <v>28</v>
+      </c>
+      <c r="AR51" s="15">
+        <v>32</v>
+      </c>
+      <c r="AS51" s="15">
         <v>35</v>
       </c>
-      <c r="AJ51" s="15">
-        <v>35</v>
-      </c>
-      <c r="AK51" s="15">
-        <v>61</v>
-      </c>
-      <c r="AL51" s="15">
-        <v>9</v>
-      </c>
-      <c r="AM51" s="15">
-        <v>5</v>
-      </c>
-      <c r="AN51" s="15">
-        <v>55</v>
-      </c>
-      <c r="AO51" s="15">
-        <v>110</v>
-      </c>
-      <c r="AP51" s="15">
-        <v>36</v>
-      </c>
-      <c r="AQ51" s="15">
-        <v>10</v>
-      </c>
-      <c r="AR51" s="15">
-        <v>2</v>
-      </c>
-      <c r="AS51" s="15">
-        <v>28</v>
-      </c>
       <c r="AT51" s="15">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="AU51" s="15">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="AV51" s="15">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AW51" s="15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AX51" s="15">
         <v>1</v>
       </c>
       <c r="AY51" s="15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AZ51" s="15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BA51" s="15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB51" s="15">
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="16" t="s">
         <v>67</v>
       </c>
       <c r="C52" s="17"/>
       <c r="D52" s="17"/>
       <c r="E52" s="17">
-        <v>3055</v>
+        <v>1555</v>
       </c>
       <c r="F52" s="17">
-        <v>1761</v>
+        <v>2506</v>
       </c>
       <c r="G52" s="17">
-        <v>1555</v>
+        <v>1929</v>
       </c>
       <c r="H52" s="17">
-        <v>2506</v>
+        <v>1503</v>
       </c>
       <c r="I52" s="17">
-        <v>1929</v>
+        <v>2891</v>
       </c>
       <c r="J52" s="17">
-        <v>1503</v>
+        <v>1060</v>
       </c>
       <c r="K52" s="17">
-        <v>2891</v>
+        <v>1028</v>
       </c>
       <c r="L52" s="17">
-        <v>1060</v>
+        <v>7931</v>
       </c>
       <c r="M52" s="17">
-        <v>1028</v>
+        <v>18339</v>
       </c>
       <c r="N52" s="17">
-        <v>7931</v>
+        <v>14598</v>
       </c>
       <c r="O52" s="17">
-        <v>18339</v>
+        <v>4043</v>
       </c>
       <c r="P52" s="17">
-        <v>14598</v>
+        <v>2783</v>
       </c>
       <c r="Q52" s="17">
-        <v>4043</v>
+        <v>1377</v>
       </c>
       <c r="R52" s="17">
-        <v>2783</v>
+        <v>1566</v>
       </c>
       <c r="S52" s="17">
-        <v>1377</v>
+        <v>2191</v>
       </c>
       <c r="T52" s="17">
-        <v>1566</v>
+        <v>1695</v>
       </c>
       <c r="U52" s="17">
-        <v>2191</v>
+        <v>1932</v>
       </c>
       <c r="V52" s="17">
-        <v>1695</v>
+        <v>1233</v>
       </c>
       <c r="W52" s="17">
-        <v>1932</v>
+        <v>1635</v>
       </c>
       <c r="X52" s="17">
-        <v>1233</v>
+        <v>1318</v>
       </c>
       <c r="Y52" s="17">
-        <v>1635</v>
+        <v>1857</v>
       </c>
       <c r="Z52" s="17">
-        <v>1318</v>
+        <v>3589</v>
       </c>
       <c r="AA52" s="17">
-        <v>1857</v>
+        <v>1914</v>
       </c>
       <c r="AB52" s="17">
-        <v>3589</v>
+        <v>1486</v>
       </c>
       <c r="AC52" s="17">
-        <v>1914</v>
+        <v>1479</v>
       </c>
       <c r="AD52" s="17">
-        <v>1486</v>
+        <v>1954</v>
       </c>
       <c r="AE52" s="17">
-        <v>1479</v>
+        <v>2093</v>
       </c>
       <c r="AF52" s="17">
-        <v>1954</v>
+        <v>1817</v>
       </c>
       <c r="AG52" s="17">
-        <v>2093</v>
+        <v>2544</v>
       </c>
       <c r="AH52" s="17">
-        <v>1817</v>
+        <v>3001</v>
       </c>
       <c r="AI52" s="17">
-        <v>2544</v>
+        <v>2040</v>
       </c>
       <c r="AJ52" s="17">
-        <v>3001</v>
+        <v>3487</v>
       </c>
       <c r="AK52" s="17">
-        <v>2040</v>
+        <v>2539</v>
       </c>
       <c r="AL52" s="17">
-        <v>3487</v>
+        <v>3117</v>
       </c>
       <c r="AM52" s="17">
-        <v>2539</v>
+        <v>3552</v>
       </c>
       <c r="AN52" s="17">
-        <v>3117</v>
+        <v>2669</v>
       </c>
       <c r="AO52" s="17">
-        <v>3552</v>
+        <v>3426</v>
       </c>
       <c r="AP52" s="17">
-        <v>2669</v>
+        <v>2497</v>
       </c>
       <c r="AQ52" s="17">
-        <v>3426</v>
+        <v>1899</v>
       </c>
       <c r="AR52" s="17">
-        <v>2497</v>
+        <v>1447</v>
       </c>
       <c r="AS52" s="17">
-        <v>1899</v>
+        <v>1430</v>
       </c>
       <c r="AT52" s="17">
-        <v>1447</v>
+        <v>1064</v>
       </c>
       <c r="AU52" s="17">
-        <v>1430</v>
+        <v>1570</v>
       </c>
       <c r="AV52" s="17">
-        <v>1064</v>
+        <v>1641</v>
       </c>
       <c r="AW52" s="17">
-        <v>1570</v>
+        <v>1973</v>
       </c>
       <c r="AX52" s="17">
-        <v>1641</v>
+        <v>3314</v>
       </c>
       <c r="AY52" s="17">
-        <v>1973</v>
+        <v>3413</v>
       </c>
       <c r="AZ52" s="17">
-        <v>3314</v>
+        <v>2337</v>
       </c>
       <c r="BA52" s="17">
-        <v>3413</v>
+        <v>3175</v>
       </c>
       <c r="BB52" s="17">
-        <v>2334</v>
+        <v>2690</v>
       </c>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -7303,7 +7303,7 @@
       <c r="BA53" s="1"/>
       <c r="BB53" s="1"/>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -7358,7 +7358,7 @@
       <c r="BA54" s="1"/>
       <c r="BB54" s="1"/>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -7413,7 +7413,7 @@
       <c r="BA55" s="1"/>
       <c r="BB55" s="1"/>
     </row>
-    <row r="56" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B56" s="7" t="s">
         <v>71</v>
       </c>
@@ -7570,7 +7570,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -7625,7 +7625,7 @@
       <c r="BA57" s="1"/>
       <c r="BB57" s="1"/>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="8" t="s">
         <v>71</v>
       </c>
@@ -7682,7 +7682,7 @@
       <c r="BA58" s="9"/>
       <c r="BB58" s="9"/>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
         <v>55</v>
       </c>
@@ -7691,157 +7691,157 @@
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="11">
-        <v>5779</v>
+        <v>391</v>
       </c>
       <c r="F59" s="11">
-        <v>2954</v>
+        <v>529</v>
       </c>
       <c r="G59" s="11">
-        <v>391</v>
+        <v>189</v>
       </c>
       <c r="H59" s="11">
-        <v>529</v>
+        <v>312</v>
       </c>
       <c r="I59" s="11">
-        <v>189</v>
+        <v>834</v>
       </c>
       <c r="J59" s="11">
-        <v>312</v>
+        <v>1067</v>
       </c>
       <c r="K59" s="11">
-        <v>834</v>
+        <v>1044</v>
       </c>
       <c r="L59" s="11">
-        <v>1067</v>
+        <v>1394</v>
       </c>
       <c r="M59" s="11">
-        <v>1044</v>
+        <v>1504</v>
       </c>
       <c r="N59" s="11">
-        <v>1394</v>
+        <v>4706</v>
       </c>
       <c r="O59" s="11">
-        <v>1504</v>
+        <v>2217</v>
       </c>
       <c r="P59" s="11">
-        <v>4706</v>
+        <v>1790</v>
       </c>
       <c r="Q59" s="11">
-        <v>2217</v>
+        <v>1982</v>
       </c>
       <c r="R59" s="11">
-        <v>1790</v>
+        <v>1616</v>
       </c>
       <c r="S59" s="11">
-        <v>1982</v>
+        <v>1639</v>
       </c>
       <c r="T59" s="11">
-        <v>1616</v>
+        <v>1824</v>
       </c>
       <c r="U59" s="11">
-        <v>1639</v>
+        <v>4014</v>
       </c>
       <c r="V59" s="11">
-        <v>1824</v>
+        <v>1205</v>
       </c>
       <c r="W59" s="11">
-        <v>4014</v>
+        <v>2526</v>
       </c>
       <c r="X59" s="11">
-        <v>1205</v>
+        <v>3746</v>
       </c>
       <c r="Y59" s="11">
-        <v>2526</v>
+        <v>2357</v>
       </c>
       <c r="Z59" s="11">
+        <v>2890</v>
+      </c>
+      <c r="AA59" s="11">
+        <v>3364</v>
+      </c>
+      <c r="AB59" s="11">
+        <v>2674</v>
+      </c>
+      <c r="AC59" s="11">
+        <v>1872</v>
+      </c>
+      <c r="AD59" s="11">
+        <v>2324</v>
+      </c>
+      <c r="AE59" s="11">
+        <v>1604</v>
+      </c>
+      <c r="AF59" s="11">
+        <v>1839</v>
+      </c>
+      <c r="AG59" s="11">
+        <v>2678</v>
+      </c>
+      <c r="AH59" s="11">
+        <v>2240</v>
+      </c>
+      <c r="AI59" s="11">
+        <v>1961</v>
+      </c>
+      <c r="AJ59" s="11">
+        <v>2253</v>
+      </c>
+      <c r="AK59" s="11">
+        <v>4175</v>
+      </c>
+      <c r="AL59" s="11">
+        <v>4843</v>
+      </c>
+      <c r="AM59" s="11">
+        <v>7553</v>
+      </c>
+      <c r="AN59" s="11">
         <v>3746</v>
       </c>
-      <c r="AA59" s="11">
-        <v>2357</v>
-      </c>
-      <c r="AB59" s="11">
-        <v>2890</v>
-      </c>
-      <c r="AC59" s="11">
-        <v>3364</v>
-      </c>
-      <c r="AD59" s="11">
-        <v>2674</v>
-      </c>
-      <c r="AE59" s="11">
-        <v>1872</v>
-      </c>
-      <c r="AF59" s="11">
-        <v>2324</v>
-      </c>
-      <c r="AG59" s="11">
-        <v>1604</v>
-      </c>
-      <c r="AH59" s="11">
-        <v>1839</v>
-      </c>
-      <c r="AI59" s="11">
-        <v>2678</v>
-      </c>
-      <c r="AJ59" s="11">
-        <v>2240</v>
-      </c>
-      <c r="AK59" s="11">
-        <v>1961</v>
-      </c>
-      <c r="AL59" s="11">
-        <v>2253</v>
-      </c>
-      <c r="AM59" s="11">
-        <v>4175</v>
-      </c>
-      <c r="AN59" s="11">
-        <v>4843</v>
-      </c>
       <c r="AO59" s="11">
-        <v>7553</v>
+        <v>2198</v>
       </c>
       <c r="AP59" s="11">
-        <v>3746</v>
+        <v>2250</v>
       </c>
       <c r="AQ59" s="11">
-        <v>2198</v>
+        <v>1370</v>
       </c>
       <c r="AR59" s="11">
-        <v>2250</v>
+        <v>2168</v>
       </c>
       <c r="AS59" s="11">
-        <v>1370</v>
+        <v>794</v>
       </c>
       <c r="AT59" s="11">
-        <v>2168</v>
+        <v>812</v>
       </c>
       <c r="AU59" s="11">
-        <v>794</v>
+        <v>1156</v>
       </c>
       <c r="AV59" s="11">
-        <v>812</v>
+        <v>2267</v>
       </c>
       <c r="AW59" s="11">
-        <v>1156</v>
+        <v>1669</v>
       </c>
       <c r="AX59" s="11">
-        <v>2267</v>
+        <v>3366</v>
       </c>
       <c r="AY59" s="11">
-        <v>1669</v>
+        <v>7477</v>
       </c>
       <c r="AZ59" s="11">
-        <v>3366</v>
+        <v>5050</v>
       </c>
       <c r="BA59" s="11">
-        <v>7477</v>
+        <v>2881</v>
       </c>
       <c r="BB59" s="11">
-        <v>5050</v>
+        <v>869</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="12" t="s">
         <v>57</v>
       </c>
@@ -7850,128 +7850,128 @@
       </c>
       <c r="D60" s="13"/>
       <c r="E60" s="13">
-        <v>82827</v>
+        <v>81797</v>
       </c>
       <c r="F60" s="13">
-        <v>86627</v>
+        <v>209804</v>
       </c>
       <c r="G60" s="13">
-        <v>81797</v>
+        <v>165210</v>
       </c>
       <c r="H60" s="13">
-        <v>209804</v>
+        <v>138649</v>
       </c>
       <c r="I60" s="13">
-        <v>165210</v>
+        <v>324586</v>
       </c>
       <c r="J60" s="13">
-        <v>138649</v>
+        <v>85611</v>
       </c>
       <c r="K60" s="13">
-        <v>324586</v>
+        <v>68545</v>
       </c>
       <c r="L60" s="13">
-        <v>85611</v>
+        <v>136080</v>
       </c>
       <c r="M60" s="13">
-        <v>68545</v>
+        <v>90511</v>
       </c>
       <c r="N60" s="13">
-        <v>136080</v>
+        <v>39062</v>
       </c>
       <c r="O60" s="13">
-        <v>90511</v>
+        <v>150568</v>
       </c>
       <c r="P60" s="13">
-        <v>39062</v>
+        <v>195111</v>
       </c>
       <c r="Q60" s="13">
-        <v>150568</v>
+        <v>17008</v>
       </c>
       <c r="R60" s="13">
-        <v>195111</v>
+        <v>25051</v>
       </c>
       <c r="S60" s="13">
-        <v>17008</v>
+        <v>88210</v>
       </c>
       <c r="T60" s="13">
-        <v>25051</v>
+        <v>67351</v>
       </c>
       <c r="U60" s="13">
-        <v>88210</v>
+        <v>72768</v>
       </c>
       <c r="V60" s="13">
-        <v>67351</v>
+        <v>44552</v>
       </c>
       <c r="W60" s="13">
-        <v>72768</v>
+        <v>78261</v>
       </c>
       <c r="X60" s="13">
-        <v>44552</v>
+        <v>81210</v>
       </c>
       <c r="Y60" s="13">
-        <v>78261</v>
+        <v>115404</v>
       </c>
       <c r="Z60" s="13">
-        <v>81210</v>
+        <v>260735</v>
       </c>
       <c r="AA60" s="13">
-        <v>115404</v>
+        <v>127025</v>
       </c>
       <c r="AB60" s="13">
-        <v>260735</v>
+        <v>63093</v>
       </c>
       <c r="AC60" s="13">
-        <v>127025</v>
+        <v>60430</v>
       </c>
       <c r="AD60" s="13">
-        <v>63093</v>
+        <v>103642</v>
       </c>
       <c r="AE60" s="13">
-        <v>60430</v>
+        <v>113771</v>
       </c>
       <c r="AF60" s="13">
-        <v>103642</v>
+        <v>115053</v>
       </c>
       <c r="AG60" s="13">
-        <v>113771</v>
+        <v>189316</v>
       </c>
       <c r="AH60" s="13">
-        <v>115053</v>
+        <v>284063</v>
       </c>
       <c r="AI60" s="13">
-        <v>189316</v>
+        <v>210418</v>
       </c>
       <c r="AJ60" s="13">
-        <v>284063</v>
+        <v>391445</v>
       </c>
       <c r="AK60" s="13">
-        <v>210418</v>
+        <v>414663</v>
       </c>
       <c r="AL60" s="13">
-        <v>391445</v>
+        <v>462511</v>
       </c>
       <c r="AM60" s="13">
-        <v>414663</v>
+        <v>527092</v>
       </c>
       <c r="AN60" s="13">
-        <v>462511</v>
+        <v>376033</v>
       </c>
       <c r="AO60" s="13">
-        <v>527092</v>
+        <v>490529</v>
       </c>
       <c r="AP60" s="13">
-        <v>376033</v>
+        <v>353903</v>
       </c>
       <c r="AQ60" s="13">
-        <v>490529</v>
-      </c>
-      <c r="AR60" s="13">
-        <v>354112</v>
-      </c>
-      <c r="AS60" s="13">
         <v>192131</v>
       </c>
+      <c r="AR60" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS60" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AT60" s="13" t="s">
         <v>58</v>
       </c>
@@ -8000,7 +8000,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
         <v>59</v>
       </c>
@@ -8009,128 +8009,128 @@
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="11">
-        <v>46387</v>
+        <v>64318</v>
       </c>
       <c r="F61" s="11">
-        <v>55958</v>
+        <v>71025</v>
       </c>
       <c r="G61" s="11">
-        <v>64318</v>
+        <v>67225</v>
       </c>
       <c r="H61" s="11">
-        <v>71025</v>
+        <v>49927</v>
       </c>
       <c r="I61" s="11">
-        <v>67225</v>
+        <v>69986</v>
       </c>
       <c r="J61" s="11">
-        <v>49927</v>
+        <v>50954</v>
       </c>
       <c r="K61" s="11">
-        <v>69986</v>
+        <v>54459</v>
       </c>
       <c r="L61" s="11">
-        <v>50954</v>
+        <v>52358</v>
       </c>
       <c r="M61" s="11">
-        <v>54459</v>
+        <v>57733</v>
       </c>
       <c r="N61" s="11">
-        <v>52358</v>
+        <v>61677</v>
       </c>
       <c r="O61" s="11">
-        <v>57733</v>
+        <v>84299</v>
       </c>
       <c r="P61" s="11">
-        <v>61677</v>
+        <v>71520</v>
       </c>
       <c r="Q61" s="11">
-        <v>84299</v>
+        <v>98827</v>
       </c>
       <c r="R61" s="11">
-        <v>71520</v>
+        <v>110958</v>
       </c>
       <c r="S61" s="11">
-        <v>98827</v>
+        <v>118571</v>
       </c>
       <c r="T61" s="11">
-        <v>110958</v>
+        <v>93891</v>
       </c>
       <c r="U61" s="11">
-        <v>118571</v>
+        <v>111570</v>
       </c>
       <c r="V61" s="11">
-        <v>93891</v>
+        <v>76878</v>
       </c>
       <c r="W61" s="11">
-        <v>111570</v>
+        <v>85101</v>
       </c>
       <c r="X61" s="11">
-        <v>76878</v>
+        <v>58310</v>
       </c>
       <c r="Y61" s="11">
-        <v>85101</v>
+        <v>83824</v>
       </c>
       <c r="Z61" s="11">
-        <v>58310</v>
+        <v>94915</v>
       </c>
       <c r="AA61" s="11">
-        <v>83824</v>
+        <v>107496</v>
       </c>
       <c r="AB61" s="11">
-        <v>94915</v>
+        <v>131120</v>
       </c>
       <c r="AC61" s="11">
-        <v>107496</v>
+        <v>146204</v>
       </c>
       <c r="AD61" s="11">
-        <v>131120</v>
+        <v>164819</v>
       </c>
       <c r="AE61" s="11">
-        <v>146204</v>
+        <v>185554</v>
       </c>
       <c r="AF61" s="11">
-        <v>164819</v>
+        <v>149332</v>
       </c>
       <c r="AG61" s="11">
-        <v>185554</v>
+        <v>135439</v>
       </c>
       <c r="AH61" s="11">
-        <v>149332</v>
+        <v>103965</v>
       </c>
       <c r="AI61" s="11">
-        <v>135439</v>
+        <v>92687</v>
       </c>
       <c r="AJ61" s="11">
-        <v>103965</v>
+        <v>111338</v>
       </c>
       <c r="AK61" s="11">
-        <v>92687</v>
+        <v>125038</v>
       </c>
       <c r="AL61" s="11">
-        <v>111338</v>
+        <v>131340</v>
       </c>
       <c r="AM61" s="11">
-        <v>125038</v>
+        <v>197443</v>
       </c>
       <c r="AN61" s="11">
-        <v>131340</v>
+        <v>173477</v>
       </c>
       <c r="AO61" s="11">
-        <v>197443</v>
+        <v>288089</v>
       </c>
       <c r="AP61" s="11">
-        <v>173477</v>
+        <v>238298</v>
       </c>
       <c r="AQ61" s="11">
-        <v>288089</v>
-      </c>
-      <c r="AR61" s="11">
-        <v>238534</v>
-      </c>
-      <c r="AS61" s="11">
         <v>257384</v>
       </c>
+      <c r="AR61" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS61" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AT61" s="11" t="s">
         <v>58</v>
       </c>
@@ -8159,7 +8159,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="12" t="s">
         <v>60</v>
       </c>
@@ -8284,11 +8284,11 @@
       <c r="AQ62" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR62" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS62" s="13" t="s">
-        <v>58</v>
+      <c r="AR62" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS62" s="13">
+        <v>0</v>
       </c>
       <c r="AT62" s="13">
         <v>0</v>
@@ -8297,28 +8297,28 @@
         <v>0</v>
       </c>
       <c r="AV62" s="13">
-        <v>0</v>
+        <v>3725</v>
       </c>
       <c r="AW62" s="13">
-        <v>0</v>
+        <v>70010</v>
       </c>
       <c r="AX62" s="13">
-        <v>3725</v>
+        <v>281523</v>
       </c>
       <c r="AY62" s="13">
-        <v>70010</v>
+        <v>224619</v>
       </c>
       <c r="AZ62" s="13">
-        <v>281523</v>
+        <v>146582</v>
       </c>
       <c r="BA62" s="13">
-        <v>224619</v>
+        <v>186550</v>
       </c>
       <c r="BB62" s="13">
-        <v>86580</v>
+        <v>74590</v>
       </c>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
         <v>61</v>
       </c>
@@ -8327,7 +8327,7 @@
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11">
-        <v>8176</v>
+        <v>0</v>
       </c>
       <c r="F63" s="11">
         <v>0</v>
@@ -8335,11 +8335,11 @@
       <c r="G63" s="11">
         <v>0</v>
       </c>
-      <c r="H63" s="11">
-        <v>0</v>
-      </c>
-      <c r="I63" s="11">
-        <v>0</v>
+      <c r="H63" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="I63" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="J63" s="11" t="s">
         <v>58</v>
@@ -8347,23 +8347,23 @@
       <c r="K63" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="L63" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="M63" s="11" t="s">
-        <v>58</v>
+      <c r="L63" s="11">
+        <v>47657</v>
+      </c>
+      <c r="M63" s="11">
+        <v>142071</v>
       </c>
       <c r="N63" s="11">
-        <v>47657</v>
+        <v>78156</v>
       </c>
       <c r="O63" s="11">
-        <v>142071</v>
+        <v>7050</v>
       </c>
       <c r="P63" s="11">
-        <v>78156</v>
+        <v>0</v>
       </c>
       <c r="Q63" s="11">
-        <v>7050</v>
+        <v>0</v>
       </c>
       <c r="R63" s="11">
         <v>0</v>
@@ -8407,11 +8407,11 @@
       <c r="AE63" s="11">
         <v>0</v>
       </c>
-      <c r="AF63" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG63" s="11">
-        <v>0</v>
+      <c r="AF63" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG63" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH63" s="11" t="s">
         <v>58</v>
@@ -8477,7 +8477,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="12" t="s">
         <v>62</v>
       </c>
@@ -8602,41 +8602,41 @@
       <c r="AQ64" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR64" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS64" s="13" t="s">
-        <v>58</v>
+      <c r="AR64" s="13">
+        <v>214180</v>
+      </c>
+      <c r="AS64" s="13">
+        <v>219881</v>
       </c>
       <c r="AT64" s="13">
-        <v>214180</v>
+        <v>275089</v>
       </c>
       <c r="AU64" s="13">
-        <v>219881</v>
+        <v>308347</v>
       </c>
       <c r="AV64" s="13">
-        <v>275089</v>
+        <v>321477</v>
       </c>
       <c r="AW64" s="13">
-        <v>308347</v>
+        <v>330122</v>
       </c>
       <c r="AX64" s="13">
-        <v>321477</v>
+        <v>381943</v>
       </c>
       <c r="AY64" s="13">
-        <v>330122</v>
+        <v>432409</v>
       </c>
       <c r="AZ64" s="13">
-        <v>381943</v>
+        <v>441986</v>
       </c>
       <c r="BA64" s="13">
-        <v>432409</v>
+        <v>470295</v>
       </c>
       <c r="BB64" s="13">
-        <v>441986</v>
+        <v>510512</v>
       </c>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
         <v>63</v>
       </c>
@@ -8761,41 +8761,41 @@
       <c r="AQ65" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR65" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS65" s="11" t="s">
-        <v>58</v>
+      <c r="AR65" s="11">
+        <v>154852</v>
+      </c>
+      <c r="AS65" s="11">
+        <v>204585</v>
       </c>
       <c r="AT65" s="11">
-        <v>154852</v>
+        <v>172085</v>
       </c>
       <c r="AU65" s="11">
-        <v>204585</v>
+        <v>347752</v>
       </c>
       <c r="AV65" s="11">
-        <v>172085</v>
+        <v>337041</v>
       </c>
       <c r="AW65" s="11">
-        <v>347752</v>
+        <v>357282</v>
       </c>
       <c r="AX65" s="11">
-        <v>337041</v>
+        <v>407491</v>
       </c>
       <c r="AY65" s="11">
-        <v>357282</v>
+        <v>456072</v>
       </c>
       <c r="AZ65" s="11">
-        <v>407491</v>
+        <v>245796</v>
       </c>
       <c r="BA65" s="11">
-        <v>456072</v>
+        <v>490307</v>
       </c>
       <c r="BB65" s="11">
-        <v>305797</v>
+        <v>440520</v>
       </c>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="8" t="s">
         <v>73</v>
       </c>
@@ -8852,7 +8852,7 @@
       <c r="BA66" s="9"/>
       <c r="BB66" s="9"/>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B67" s="10" t="s">
         <v>55</v>
       </c>
@@ -8914,11 +8914,11 @@
       <c r="V67" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W67" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X67" s="11" t="s">
-        <v>58</v>
+      <c r="W67" s="11">
+        <v>0</v>
+      </c>
+      <c r="X67" s="11">
+        <v>0</v>
       </c>
       <c r="Y67" s="11">
         <v>0</v>
@@ -8938,11 +8938,11 @@
       <c r="AD67" s="11">
         <v>0</v>
       </c>
-      <c r="AE67" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF67" s="11">
-        <v>0</v>
+      <c r="AE67" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF67" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AG67" s="11" t="s">
         <v>58</v>
@@ -9011,7 +9011,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B68" s="12" t="s">
         <v>57</v>
       </c>
@@ -9073,11 +9073,11 @@
       <c r="V68" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W68" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X68" s="13" t="s">
-        <v>58</v>
+      <c r="W68" s="13">
+        <v>0</v>
+      </c>
+      <c r="X68" s="13">
+        <v>0</v>
       </c>
       <c r="Y68" s="13">
         <v>0</v>
@@ -9097,11 +9097,11 @@
       <c r="AD68" s="13">
         <v>0</v>
       </c>
-      <c r="AE68" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF68" s="13">
-        <v>0</v>
+      <c r="AE68" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF68" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AG68" s="13" t="s">
         <v>58</v>
@@ -9170,7 +9170,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
         <v>59</v>
       </c>
@@ -9232,11 +9232,11 @@
       <c r="V69" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W69" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X69" s="11" t="s">
-        <v>58</v>
+      <c r="W69" s="11">
+        <v>0</v>
+      </c>
+      <c r="X69" s="11">
+        <v>0</v>
       </c>
       <c r="Y69" s="11">
         <v>0</v>
@@ -9256,11 +9256,11 @@
       <c r="AD69" s="11">
         <v>0</v>
       </c>
-      <c r="AE69" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF69" s="11">
-        <v>0</v>
+      <c r="AE69" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF69" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AG69" s="11" t="s">
         <v>58</v>
@@ -9329,7 +9329,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B70" s="12" t="s">
         <v>65</v>
       </c>
@@ -9451,14 +9451,14 @@
       <c r="AP70" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ70" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR70" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS70" s="13">
-        <v>0</v>
+      <c r="AQ70" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR70" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS70" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT70" s="13" t="s">
         <v>58</v>
@@ -9478,17 +9478,17 @@
       <c r="AY70" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AZ70" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA70" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB70" s="13" t="s">
-        <v>58</v>
+      <c r="AZ70" s="13">
+        <v>0</v>
+      </c>
+      <c r="BA70" s="13">
+        <v>0</v>
+      </c>
+      <c r="BB70" s="13">
+        <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B71" s="14" t="s">
         <v>66</v>
       </c>
@@ -9550,11 +9550,11 @@
       <c r="V71" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W71" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X71" s="15" t="s">
-        <v>58</v>
+      <c r="W71" s="15">
+        <v>0</v>
+      </c>
+      <c r="X71" s="15">
+        <v>0</v>
       </c>
       <c r="Y71" s="15">
         <v>0</v>
@@ -9614,7 +9614,7 @@
         <v>0</v>
       </c>
       <c r="AR71" s="15">
-        <v>27507</v>
+        <v>0</v>
       </c>
       <c r="AS71" s="15">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B72" s="8" t="s">
         <v>74</v>
       </c>
@@ -9704,7 +9704,7 @@
       <c r="BA72" s="9"/>
       <c r="BB72" s="9"/>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B73" s="10" t="s">
         <v>55</v>
       </c>
@@ -9766,47 +9766,47 @@
       <c r="V73" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W73" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X73" s="11" t="s">
-        <v>58</v>
+      <c r="W73" s="11">
+        <v>-150</v>
+      </c>
+      <c r="X73" s="11">
+        <v>-207</v>
       </c>
       <c r="Y73" s="11">
-        <v>-150</v>
+        <v>-151</v>
       </c>
       <c r="Z73" s="11">
-        <v>-207</v>
+        <v>-164</v>
       </c>
       <c r="AA73" s="11">
-        <v>-151</v>
+        <v>-95</v>
       </c>
       <c r="AB73" s="11">
-        <v>-164</v>
+        <v>-39</v>
       </c>
       <c r="AC73" s="11">
-        <v>-95</v>
+        <v>0</v>
       </c>
       <c r="AD73" s="11">
-        <v>-39</v>
+        <v>-41</v>
       </c>
       <c r="AE73" s="11">
         <v>0</v>
       </c>
       <c r="AF73" s="11">
-        <v>-41</v>
+        <v>0</v>
       </c>
       <c r="AG73" s="11">
-        <v>0</v>
+        <v>-23</v>
       </c>
       <c r="AH73" s="11">
-        <v>0</v>
+        <v>-404</v>
       </c>
       <c r="AI73" s="11">
-        <v>-23</v>
+        <v>0</v>
       </c>
       <c r="AJ73" s="11">
-        <v>-404</v>
+        <v>0</v>
       </c>
       <c r="AK73" s="11">
         <v>0</v>
@@ -9815,55 +9815,55 @@
         <v>0</v>
       </c>
       <c r="AM73" s="11">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AN73" s="11">
         <v>0</v>
       </c>
       <c r="AO73" s="11">
+        <v>-75</v>
+      </c>
+      <c r="AP73" s="11">
+        <v>0</v>
+      </c>
+      <c r="AQ73" s="11">
+        <v>-129</v>
+      </c>
+      <c r="AR73" s="11">
+        <v>-20</v>
+      </c>
+      <c r="AS73" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT73" s="11">
         <v>-3</v>
       </c>
-      <c r="AP73" s="11">
-        <v>0</v>
-      </c>
-      <c r="AQ73" s="11">
-        <v>-75</v>
-      </c>
-      <c r="AR73" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS73" s="11">
-        <v>-129</v>
-      </c>
-      <c r="AT73" s="11">
-        <v>-20</v>
-      </c>
       <c r="AU73" s="11">
         <v>0</v>
       </c>
       <c r="AV73" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW73" s="11">
+        <v>-1</v>
+      </c>
+      <c r="AX73" s="11">
+        <v>0</v>
+      </c>
+      <c r="AY73" s="11">
         <v>-3</v>
       </c>
-      <c r="AW73" s="11">
-        <v>0</v>
-      </c>
-      <c r="AX73" s="11">
-        <v>0</v>
-      </c>
-      <c r="AY73" s="11">
-        <v>-1</v>
-      </c>
       <c r="AZ73" s="11">
         <v>0</v>
       </c>
       <c r="BA73" s="11">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="BB73" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B74" s="12" t="s">
         <v>57</v>
       </c>
@@ -9925,75 +9925,75 @@
       <c r="V74" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W74" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X74" s="13" t="s">
-        <v>58</v>
+      <c r="W74" s="13">
+        <v>-702</v>
+      </c>
+      <c r="X74" s="13">
+        <v>-330</v>
       </c>
       <c r="Y74" s="13">
-        <v>-702</v>
+        <v>-413</v>
       </c>
       <c r="Z74" s="13">
-        <v>-330</v>
+        <v>-1497</v>
       </c>
       <c r="AA74" s="13">
-        <v>-413</v>
+        <v>-1211</v>
       </c>
       <c r="AB74" s="13">
-        <v>-1497</v>
+        <v>-3439</v>
       </c>
       <c r="AC74" s="13">
-        <v>-1211</v>
+        <v>-912</v>
       </c>
       <c r="AD74" s="13">
-        <v>-3439</v>
+        <v>-150</v>
       </c>
       <c r="AE74" s="13">
-        <v>-912</v>
+        <v>-378</v>
       </c>
       <c r="AF74" s="13">
-        <v>-150</v>
+        <v>-1576</v>
       </c>
       <c r="AG74" s="13">
-        <v>-378</v>
+        <v>-4353</v>
       </c>
       <c r="AH74" s="13">
-        <v>-1576</v>
+        <v>-2830</v>
       </c>
       <c r="AI74" s="13">
-        <v>-4353</v>
+        <v>-10101</v>
       </c>
       <c r="AJ74" s="13">
-        <v>-2830</v>
+        <v>-589</v>
       </c>
       <c r="AK74" s="13">
-        <v>-10101</v>
+        <v>-440</v>
       </c>
       <c r="AL74" s="13">
-        <v>-589</v>
+        <v>-12138</v>
       </c>
       <c r="AM74" s="13">
-        <v>-440</v>
+        <v>-25315</v>
       </c>
       <c r="AN74" s="13">
-        <v>-12138</v>
+        <v>-8680</v>
       </c>
       <c r="AO74" s="13">
-        <v>-25315</v>
+        <v>-2044</v>
       </c>
       <c r="AP74" s="13">
-        <v>-8680</v>
+        <v>-280</v>
       </c>
       <c r="AQ74" s="13">
-        <v>-2044</v>
-      </c>
-      <c r="AR74" s="13">
-        <v>-280</v>
-      </c>
-      <c r="AS74" s="13">
         <v>-7164</v>
       </c>
+      <c r="AR74" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS74" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AT74" s="13" t="s">
         <v>58</v>
       </c>
@@ -10022,7 +10022,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B75" s="10" t="s">
         <v>59</v>
       </c>
@@ -10084,74 +10084,74 @@
       <c r="V75" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W75" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X75" s="11" t="s">
-        <v>58</v>
+      <c r="W75" s="11">
+        <v>-261</v>
+      </c>
+      <c r="X75" s="11">
+        <v>-232</v>
       </c>
       <c r="Y75" s="11">
-        <v>-261</v>
+        <v>-123</v>
       </c>
       <c r="Z75" s="11">
-        <v>-232</v>
+        <v>-215</v>
       </c>
       <c r="AA75" s="11">
-        <v>-123</v>
+        <v>-537</v>
       </c>
       <c r="AB75" s="11">
-        <v>-215</v>
+        <v>-492</v>
       </c>
       <c r="AC75" s="11">
-        <v>-537</v>
+        <v>0</v>
       </c>
       <c r="AD75" s="11">
-        <v>-492</v>
+        <v>-4229</v>
       </c>
       <c r="AE75" s="11">
-        <v>0</v>
+        <v>-1007</v>
       </c>
       <c r="AF75" s="11">
-        <v>-4229</v>
+        <v>-432</v>
       </c>
       <c r="AG75" s="11">
-        <v>-1007</v>
+        <v>-310</v>
       </c>
       <c r="AH75" s="11">
-        <v>-432</v>
+        <v>-604</v>
       </c>
       <c r="AI75" s="11">
-        <v>-310</v>
+        <v>-318</v>
       </c>
       <c r="AJ75" s="11">
-        <v>-604</v>
+        <v>-6</v>
       </c>
       <c r="AK75" s="11">
-        <v>-318</v>
+        <v>-3</v>
       </c>
       <c r="AL75" s="11">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="AM75" s="11">
+        <v>-12</v>
+      </c>
+      <c r="AN75" s="11">
+        <v>-19</v>
+      </c>
+      <c r="AO75" s="11">
+        <v>0</v>
+      </c>
+      <c r="AP75" s="11">
+        <v>0</v>
+      </c>
+      <c r="AQ75" s="11">
         <v>-3</v>
       </c>
-      <c r="AN75" s="11">
-        <v>-7</v>
-      </c>
-      <c r="AO75" s="11">
-        <v>-12</v>
-      </c>
-      <c r="AP75" s="11">
-        <v>-19</v>
-      </c>
-      <c r="AQ75" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR75" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS75" s="11">
-        <v>-3</v>
+      <c r="AR75" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS75" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT75" s="11" t="s">
         <v>58</v>
@@ -10181,7 +10181,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B76" s="12" t="s">
         <v>60</v>
       </c>
@@ -10318,29 +10318,29 @@
       <c r="AU76" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AV76" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW76" s="13" t="s">
-        <v>58</v>
+      <c r="AV76" s="13">
+        <v>-194</v>
+      </c>
+      <c r="AW76" s="13">
+        <v>0</v>
       </c>
       <c r="AX76" s="13">
-        <v>-194</v>
+        <v>-123</v>
       </c>
       <c r="AY76" s="13">
-        <v>0</v>
+        <v>-284</v>
       </c>
       <c r="AZ76" s="13">
-        <v>-123</v>
+        <v>-315</v>
       </c>
       <c r="BA76" s="13">
-        <v>-284</v>
+        <v>-1043</v>
       </c>
       <c r="BB76" s="13">
-        <v>0</v>
+        <v>-8833</v>
       </c>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B77" s="10" t="s">
         <v>62</v>
       </c>
@@ -10465,41 +10465,41 @@
       <c r="AQ77" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR77" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS77" s="11" t="s">
-        <v>58</v>
+      <c r="AR77" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS77" s="11">
+        <v>0</v>
       </c>
       <c r="AT77" s="11">
-        <v>0</v>
+        <v>-78</v>
       </c>
       <c r="AU77" s="11">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="AV77" s="11">
-        <v>-78</v>
+        <v>0</v>
       </c>
       <c r="AW77" s="11">
-        <v>-10</v>
+        <v>-22</v>
       </c>
       <c r="AX77" s="11">
-        <v>0</v>
+        <v>-36</v>
       </c>
       <c r="AY77" s="11">
-        <v>-22</v>
+        <v>-7</v>
       </c>
       <c r="AZ77" s="11">
-        <v>-36</v>
+        <v>-103</v>
       </c>
       <c r="BA77" s="11">
-        <v>-7</v>
+        <v>-4</v>
       </c>
       <c r="BB77" s="11">
-        <v>-105</v>
+        <v>-6</v>
       </c>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B78" s="12" t="s">
         <v>63</v>
       </c>
@@ -10624,41 +10624,41 @@
       <c r="AQ78" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR78" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS78" s="13" t="s">
-        <v>58</v>
+      <c r="AR78" s="13">
+        <v>-6565</v>
+      </c>
+      <c r="AS78" s="13">
+        <v>-7313</v>
       </c>
       <c r="AT78" s="13">
-        <v>-6565</v>
+        <v>-1635</v>
       </c>
       <c r="AU78" s="13">
-        <v>-7313</v>
+        <v>-1184</v>
       </c>
       <c r="AV78" s="13">
-        <v>-1635</v>
+        <v>-10</v>
       </c>
       <c r="AW78" s="13">
-        <v>-1184</v>
+        <v>0</v>
       </c>
       <c r="AX78" s="13">
-        <v>-10</v>
+        <v>-30</v>
       </c>
       <c r="AY78" s="13">
-        <v>0</v>
+        <v>-1049</v>
       </c>
       <c r="AZ78" s="13">
-        <v>-30</v>
+        <v>-111</v>
       </c>
       <c r="BA78" s="13">
-        <v>-1049</v>
+        <v>-23</v>
       </c>
       <c r="BB78" s="13">
-        <v>-142</v>
+        <v>-10189</v>
       </c>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B79" s="14" t="s">
         <v>70</v>
       </c>
@@ -10720,104 +10720,104 @@
       <c r="V79" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W79" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X79" s="15" t="s">
-        <v>58</v>
+      <c r="W79" s="15">
+        <v>-1113</v>
+      </c>
+      <c r="X79" s="15">
+        <v>-769</v>
       </c>
       <c r="Y79" s="15">
-        <v>-1113</v>
+        <v>-687</v>
       </c>
       <c r="Z79" s="15">
-        <v>-769</v>
+        <v>-1876</v>
       </c>
       <c r="AA79" s="15">
-        <v>-687</v>
+        <v>-1843</v>
       </c>
       <c r="AB79" s="15">
-        <v>-1876</v>
+        <v>-3970</v>
       </c>
       <c r="AC79" s="15">
-        <v>-1843</v>
+        <v>-912</v>
       </c>
       <c r="AD79" s="15">
-        <v>-3970</v>
+        <v>-4420</v>
       </c>
       <c r="AE79" s="15">
-        <v>-912</v>
+        <v>-1385</v>
       </c>
       <c r="AF79" s="15">
-        <v>-4420</v>
+        <v>-2008</v>
       </c>
       <c r="AG79" s="15">
-        <v>-1385</v>
+        <v>-4686</v>
       </c>
       <c r="AH79" s="15">
-        <v>-2008</v>
+        <v>-3838</v>
       </c>
       <c r="AI79" s="15">
-        <v>-4686</v>
+        <v>-10419</v>
       </c>
       <c r="AJ79" s="15">
-        <v>-3838</v>
+        <v>-595</v>
       </c>
       <c r="AK79" s="15">
-        <v>-10419</v>
+        <v>-443</v>
       </c>
       <c r="AL79" s="15">
-        <v>-595</v>
+        <v>-12145</v>
       </c>
       <c r="AM79" s="15">
-        <v>-443</v>
+        <v>-25330</v>
       </c>
       <c r="AN79" s="15">
-        <v>-12145</v>
+        <v>-8699</v>
       </c>
       <c r="AO79" s="15">
-        <v>-25330</v>
+        <v>-2119</v>
       </c>
       <c r="AP79" s="15">
-        <v>-8699</v>
+        <v>-280</v>
       </c>
       <c r="AQ79" s="15">
-        <v>-2119</v>
+        <v>-7296</v>
       </c>
       <c r="AR79" s="15">
-        <v>-280</v>
+        <v>-6585</v>
       </c>
       <c r="AS79" s="15">
-        <v>-7296</v>
+        <v>-7313</v>
       </c>
       <c r="AT79" s="15">
-        <v>-6585</v>
+        <v>-1716</v>
       </c>
       <c r="AU79" s="15">
-        <v>-7313</v>
+        <v>-1194</v>
       </c>
       <c r="AV79" s="15">
-        <v>-1716</v>
+        <v>-204</v>
       </c>
       <c r="AW79" s="15">
-        <v>-1194</v>
+        <v>-23</v>
       </c>
       <c r="AX79" s="15">
-        <v>-204</v>
+        <v>-189</v>
       </c>
       <c r="AY79" s="15">
-        <v>-23</v>
+        <v>-1343</v>
       </c>
       <c r="AZ79" s="15">
-        <v>-189</v>
+        <v>-529</v>
       </c>
       <c r="BA79" s="15">
-        <v>-1343</v>
+        <v>-1070</v>
       </c>
       <c r="BB79" s="15">
-        <v>-247</v>
+        <v>-19028</v>
       </c>
     </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B80" s="8" t="s">
         <v>75</v>
       </c>
@@ -10874,7 +10874,7 @@
       <c r="BA80" s="9"/>
       <c r="BB80" s="9"/>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
         <v>76</v>
       </c>
@@ -10936,11 +10936,11 @@
       <c r="V81" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W81" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X81" s="11" t="s">
-        <v>58</v>
+      <c r="W81" s="11">
+        <v>0</v>
+      </c>
+      <c r="X81" s="11">
+        <v>0</v>
       </c>
       <c r="Y81" s="11">
         <v>0</v>
@@ -11033,164 +11033,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B82" s="16" t="s">
         <v>67</v>
       </c>
       <c r="C82" s="17"/>
       <c r="D82" s="17"/>
       <c r="E82" s="17">
-        <v>143169</v>
+        <v>146506</v>
       </c>
       <c r="F82" s="17">
-        <v>145539</v>
+        <v>281358</v>
       </c>
       <c r="G82" s="17">
-        <v>146506</v>
+        <v>232624</v>
       </c>
       <c r="H82" s="17">
-        <v>281358</v>
+        <v>188888</v>
       </c>
       <c r="I82" s="17">
-        <v>232624</v>
+        <v>395406</v>
       </c>
       <c r="J82" s="17">
-        <v>188888</v>
+        <v>137632</v>
       </c>
       <c r="K82" s="17">
-        <v>395406</v>
+        <v>124048</v>
       </c>
       <c r="L82" s="17">
-        <v>137632</v>
+        <v>237489</v>
       </c>
       <c r="M82" s="17">
-        <v>124048</v>
+        <v>291819</v>
       </c>
       <c r="N82" s="17">
-        <v>237489</v>
+        <v>183601</v>
       </c>
       <c r="O82" s="17">
-        <v>291819</v>
+        <v>244134</v>
       </c>
       <c r="P82" s="17">
-        <v>183601</v>
+        <v>268421</v>
       </c>
       <c r="Q82" s="17">
-        <v>244134</v>
+        <v>117817</v>
       </c>
       <c r="R82" s="17">
-        <v>268421</v>
+        <v>137625</v>
       </c>
       <c r="S82" s="17">
-        <v>117817</v>
+        <v>208420</v>
       </c>
       <c r="T82" s="17">
-        <v>137625</v>
+        <v>163066</v>
       </c>
       <c r="U82" s="17">
-        <v>208420</v>
+        <v>188352</v>
       </c>
       <c r="V82" s="17">
-        <v>163066</v>
+        <v>122635</v>
       </c>
       <c r="W82" s="17">
-        <v>188352</v>
+        <v>164775</v>
       </c>
       <c r="X82" s="17">
-        <v>122635</v>
+        <v>142497</v>
       </c>
       <c r="Y82" s="17">
-        <v>164775</v>
+        <v>200898</v>
       </c>
       <c r="Z82" s="17">
-        <v>142497</v>
+        <v>356664</v>
       </c>
       <c r="AA82" s="17">
-        <v>200898</v>
+        <v>236042</v>
       </c>
       <c r="AB82" s="17">
-        <v>356664</v>
+        <v>192917</v>
       </c>
       <c r="AC82" s="17">
-        <v>236042</v>
+        <v>207594</v>
       </c>
       <c r="AD82" s="17">
-        <v>192917</v>
+        <v>266365</v>
       </c>
       <c r="AE82" s="17">
-        <v>207594</v>
+        <v>299544</v>
       </c>
       <c r="AF82" s="17">
-        <v>266365</v>
+        <v>264216</v>
       </c>
       <c r="AG82" s="17">
-        <v>299544</v>
+        <v>322747</v>
       </c>
       <c r="AH82" s="17">
-        <v>264216</v>
+        <v>386430</v>
       </c>
       <c r="AI82" s="17">
-        <v>322747</v>
+        <v>294647</v>
       </c>
       <c r="AJ82" s="17">
-        <v>386430</v>
+        <v>504441</v>
       </c>
       <c r="AK82" s="17">
-        <v>294647</v>
+        <v>543433</v>
       </c>
       <c r="AL82" s="17">
-        <v>504441</v>
+        <v>586549</v>
       </c>
       <c r="AM82" s="17">
-        <v>543433</v>
+        <v>706758</v>
       </c>
       <c r="AN82" s="17">
-        <v>586549</v>
+        <v>544557</v>
       </c>
       <c r="AO82" s="17">
-        <v>706758</v>
+        <v>778697</v>
       </c>
       <c r="AP82" s="17">
-        <v>544557</v>
+        <v>594171</v>
       </c>
       <c r="AQ82" s="17">
-        <v>778697</v>
+        <v>443589</v>
       </c>
       <c r="AR82" s="17">
-        <v>594616</v>
+        <v>364615</v>
       </c>
       <c r="AS82" s="17">
-        <v>443589</v>
+        <v>417947</v>
       </c>
       <c r="AT82" s="17">
-        <v>364615</v>
+        <v>446270</v>
       </c>
       <c r="AU82" s="17">
-        <v>417947</v>
+        <v>656061</v>
       </c>
       <c r="AV82" s="17">
-        <v>446270</v>
+        <v>664306</v>
       </c>
       <c r="AW82" s="17">
-        <v>656061</v>
+        <v>759060</v>
       </c>
       <c r="AX82" s="17">
-        <v>664306</v>
+        <v>1074134</v>
       </c>
       <c r="AY82" s="17">
-        <v>759060</v>
+        <v>1119234</v>
       </c>
       <c r="AZ82" s="17">
-        <v>1074134</v>
+        <v>838885</v>
       </c>
       <c r="BA82" s="17">
-        <v>1119234</v>
+        <v>1148963</v>
       </c>
       <c r="BB82" s="17">
-        <v>839166</v>
+        <v>1007463</v>
       </c>
     </row>
-    <row r="83" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -11245,7 +11245,7 @@
       <c r="BA83" s="1"/>
       <c r="BB83" s="1"/>
     </row>
-    <row r="84" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -11300,7 +11300,7 @@
       <c r="BA84" s="1"/>
       <c r="BB84" s="1"/>
     </row>
-    <row r="85" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -11355,7 +11355,7 @@
       <c r="BA85" s="1"/>
       <c r="BB85" s="1"/>
     </row>
-    <row r="86" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B86" s="7" t="s">
         <v>77</v>
       </c>
@@ -11512,7 +11512,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="87" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -11567,7 +11567,7 @@
       <c r="BA87" s="1"/>
       <c r="BB87" s="1"/>
     </row>
-    <row r="88" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B88" s="8" t="s">
         <v>78</v>
       </c>
@@ -11624,7 +11624,7 @@
       <c r="BA88" s="9"/>
       <c r="BB88" s="9"/>
     </row>
-    <row r="89" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B89" s="10" t="s">
         <v>55</v>
       </c>
@@ -11633,157 +11633,157 @@
       </c>
       <c r="D89" s="11"/>
       <c r="E89" s="11">
-        <v>11511952</v>
+        <v>11500000</v>
       </c>
       <c r="F89" s="11">
-        <v>11494163</v>
+        <v>15558824</v>
       </c>
       <c r="G89" s="11">
-        <v>11500000</v>
+        <v>15750000</v>
       </c>
       <c r="H89" s="11">
-        <v>15558824</v>
+        <v>28363636</v>
       </c>
       <c r="I89" s="11">
-        <v>15750000</v>
+        <v>64153846</v>
       </c>
       <c r="J89" s="11">
-        <v>28363636</v>
+        <v>59277778</v>
       </c>
       <c r="K89" s="11">
-        <v>64153846</v>
+        <v>104400000</v>
       </c>
       <c r="L89" s="11">
-        <v>59277778</v>
+        <v>69700000</v>
       </c>
       <c r="M89" s="11">
-        <v>104400000</v>
+        <v>68363636</v>
       </c>
       <c r="N89" s="11">
-        <v>69700000</v>
+        <v>18100000</v>
       </c>
       <c r="O89" s="11">
-        <v>68363636</v>
+        <v>18948718</v>
       </c>
       <c r="P89" s="11">
-        <v>18100000</v>
+        <v>33773585</v>
       </c>
       <c r="Q89" s="11">
-        <v>18948718</v>
+        <v>46093023</v>
       </c>
       <c r="R89" s="11">
-        <v>33773585</v>
+        <v>28857143</v>
       </c>
       <c r="S89" s="11">
-        <v>46093023</v>
+        <v>46828571</v>
       </c>
       <c r="T89" s="11">
-        <v>28857143</v>
+        <v>86857143</v>
       </c>
       <c r="U89" s="11">
-        <v>46828571</v>
+        <v>72981818</v>
       </c>
       <c r="V89" s="11">
-        <v>86857143</v>
+        <v>75312500</v>
       </c>
       <c r="W89" s="11">
-        <v>72981818</v>
+        <v>90214286</v>
       </c>
       <c r="X89" s="11">
-        <v>75312500</v>
+        <v>91365854</v>
       </c>
       <c r="Y89" s="11">
-        <v>90214286</v>
+        <v>98208333</v>
       </c>
       <c r="Z89" s="11">
-        <v>91365854</v>
+        <v>82571429</v>
       </c>
       <c r="AA89" s="11">
-        <v>98208333</v>
+        <v>58000000</v>
       </c>
       <c r="AB89" s="11">
-        <v>82571429</v>
+        <v>74277778</v>
       </c>
       <c r="AC89" s="11">
-        <v>58000000</v>
+        <v>93600000</v>
       </c>
       <c r="AD89" s="11">
-        <v>74277778</v>
+        <v>77466667</v>
       </c>
       <c r="AE89" s="11">
-        <v>93600000</v>
+        <v>84421053</v>
       </c>
       <c r="AF89" s="11">
-        <v>77466667</v>
+        <v>49702703</v>
       </c>
       <c r="AG89" s="11">
-        <v>84421053</v>
+        <v>36189189</v>
       </c>
       <c r="AH89" s="11">
-        <v>49702703</v>
+        <v>29866667</v>
       </c>
       <c r="AI89" s="11">
-        <v>36189189</v>
+        <v>25467532</v>
       </c>
       <c r="AJ89" s="11">
-        <v>29866667</v>
+        <v>22989796</v>
       </c>
       <c r="AK89" s="11">
-        <v>25467532</v>
+        <v>28793103</v>
       </c>
       <c r="AL89" s="11">
-        <v>22989796</v>
+        <v>29174699</v>
       </c>
       <c r="AM89" s="11">
-        <v>28793103</v>
+        <v>28938697</v>
       </c>
       <c r="AN89" s="11">
-        <v>29174699</v>
+        <v>29730159</v>
       </c>
       <c r="AO89" s="11">
-        <v>28938697</v>
+        <v>32805970</v>
       </c>
       <c r="AP89" s="11">
-        <v>29730159</v>
+        <v>32608696</v>
       </c>
       <c r="AQ89" s="11">
-        <v>32805970</v>
+        <v>31136364</v>
       </c>
       <c r="AR89" s="11">
-        <v>32608696</v>
+        <v>34412698</v>
       </c>
       <c r="AS89" s="11">
-        <v>31136364</v>
+        <v>25612903</v>
       </c>
       <c r="AT89" s="11">
-        <v>34412698</v>
+        <v>62461538</v>
       </c>
       <c r="AU89" s="11">
-        <v>25612903</v>
+        <v>35030303</v>
       </c>
       <c r="AV89" s="11">
-        <v>62461538</v>
+        <v>41218182</v>
       </c>
       <c r="AW89" s="11">
-        <v>35030303</v>
+        <v>50575758</v>
       </c>
       <c r="AX89" s="11">
-        <v>41218182</v>
+        <v>40071429</v>
       </c>
       <c r="AY89" s="11">
-        <v>50575758</v>
+        <v>40416216</v>
       </c>
       <c r="AZ89" s="11">
-        <v>40071429</v>
+        <v>41056911</v>
       </c>
       <c r="BA89" s="11">
-        <v>40416216</v>
+        <v>48830508</v>
       </c>
       <c r="BB89" s="11">
-        <v>41056911</v>
+        <v>54312500</v>
       </c>
     </row>
-    <row r="90" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B90" s="12" t="s">
         <v>57</v>
       </c>
@@ -11792,128 +11792,128 @@
       </c>
       <c r="D90" s="13"/>
       <c r="E90" s="13">
-        <v>127230415</v>
+        <v>142255652</v>
       </c>
       <c r="F90" s="13">
-        <v>126833089</v>
+        <v>144992398</v>
       </c>
       <c r="G90" s="13">
-        <v>142255652</v>
+        <v>156005666</v>
       </c>
       <c r="H90" s="13">
-        <v>144992398</v>
+        <v>157376844</v>
       </c>
       <c r="I90" s="13">
-        <v>156005666</v>
+        <v>155975973</v>
       </c>
       <c r="J90" s="13">
-        <v>157376844</v>
+        <v>179102510</v>
       </c>
       <c r="K90" s="13">
-        <v>155975973</v>
+        <v>174859694</v>
       </c>
       <c r="L90" s="13">
-        <v>179102510</v>
+        <v>127415730</v>
       </c>
       <c r="M90" s="13">
-        <v>174859694</v>
+        <v>131175362</v>
       </c>
       <c r="N90" s="13">
-        <v>127415730</v>
+        <v>107019178</v>
       </c>
       <c r="O90" s="13">
-        <v>131175362</v>
+        <v>100245007</v>
       </c>
       <c r="P90" s="13">
-        <v>107019178</v>
+        <v>103178741</v>
       </c>
       <c r="Q90" s="13">
-        <v>100245007</v>
+        <v>96090395</v>
       </c>
       <c r="R90" s="13">
-        <v>103178741</v>
+        <v>108917391</v>
       </c>
       <c r="S90" s="13">
-        <v>96090395</v>
+        <v>104390533</v>
       </c>
       <c r="T90" s="13">
-        <v>108917391</v>
+        <v>99484490</v>
       </c>
       <c r="U90" s="13">
-        <v>104390533</v>
+        <v>99818930</v>
       </c>
       <c r="V90" s="13">
-        <v>99484490</v>
+        <v>100116854</v>
       </c>
       <c r="W90" s="13">
-        <v>99818930</v>
+        <v>105901218</v>
       </c>
       <c r="X90" s="13">
-        <v>100116854</v>
+        <v>113580420</v>
       </c>
       <c r="Y90" s="13">
-        <v>105901218</v>
+        <v>112042718</v>
       </c>
       <c r="Z90" s="13">
-        <v>113580420</v>
+        <v>96604298</v>
       </c>
       <c r="AA90" s="13">
-        <v>112042718</v>
+        <v>117833952</v>
       </c>
       <c r="AB90" s="13">
-        <v>96604298</v>
+        <v>122036750</v>
       </c>
       <c r="AC90" s="13">
-        <v>117833952</v>
+        <v>123326531</v>
       </c>
       <c r="AD90" s="13">
-        <v>122036750</v>
+        <v>124420168</v>
       </c>
       <c r="AE90" s="13">
-        <v>123326531</v>
+        <v>127832584</v>
       </c>
       <c r="AF90" s="13">
-        <v>124420168</v>
+        <v>128838746</v>
       </c>
       <c r="AG90" s="13">
-        <v>127832584</v>
+        <v>115015796</v>
       </c>
       <c r="AH90" s="13">
-        <v>128838746</v>
+        <v>123666957</v>
       </c>
       <c r="AI90" s="13">
-        <v>115015796</v>
+        <v>156911260</v>
       </c>
       <c r="AJ90" s="13">
-        <v>123666957</v>
+        <v>144497970</v>
       </c>
       <c r="AK90" s="13">
-        <v>156911260</v>
+        <v>251921628</v>
       </c>
       <c r="AL90" s="13">
-        <v>144497970</v>
+        <v>222789499</v>
       </c>
       <c r="AM90" s="13">
-        <v>251921628</v>
+        <v>260420949</v>
       </c>
       <c r="AN90" s="13">
-        <v>222789499</v>
+        <v>247552995</v>
       </c>
       <c r="AO90" s="13">
-        <v>260420949</v>
+        <v>263867133</v>
       </c>
       <c r="AP90" s="13">
-        <v>247552995</v>
+        <v>257946793</v>
       </c>
       <c r="AQ90" s="13">
-        <v>263867133</v>
-      </c>
-      <c r="AR90" s="13">
-        <v>257957576</v>
-      </c>
-      <c r="AS90" s="13">
         <v>256516689</v>
       </c>
+      <c r="AR90" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS90" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AT90" s="13" t="s">
         <v>58</v>
       </c>
@@ -11942,7 +11942,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="91" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B91" s="10" t="s">
         <v>59</v>
       </c>
@@ -11951,128 +11951,128 @@
       </c>
       <c r="D91" s="11"/>
       <c r="E91" s="11">
-        <v>68619822</v>
+        <v>67989429</v>
       </c>
       <c r="F91" s="11">
-        <v>68158343</v>
+        <v>69292683</v>
       </c>
       <c r="G91" s="11">
-        <v>67989429</v>
+        <v>78350816</v>
       </c>
       <c r="H91" s="11">
-        <v>69292683</v>
+        <v>81713584</v>
       </c>
       <c r="I91" s="11">
-        <v>78350816</v>
+        <v>87811794</v>
       </c>
       <c r="J91" s="11">
-        <v>81713584</v>
+        <v>90343972</v>
       </c>
       <c r="K91" s="11">
-        <v>87811794</v>
+        <v>86995208</v>
       </c>
       <c r="L91" s="11">
-        <v>90343972</v>
+        <v>87263333</v>
       </c>
       <c r="M91" s="11">
-        <v>86995208</v>
+        <v>86040238</v>
       </c>
       <c r="N91" s="11">
-        <v>87263333</v>
+        <v>86261538</v>
       </c>
       <c r="O91" s="11">
-        <v>86040238</v>
+        <v>85669715</v>
       </c>
       <c r="P91" s="11">
-        <v>86261538</v>
+        <v>85244338</v>
       </c>
       <c r="Q91" s="11">
-        <v>85669715</v>
+        <v>85416595</v>
       </c>
       <c r="R91" s="11">
-        <v>85244338</v>
+        <v>86685938</v>
       </c>
       <c r="S91" s="11">
-        <v>85416595</v>
+        <v>90443173</v>
       </c>
       <c r="T91" s="11">
-        <v>86685938</v>
+        <v>94173521</v>
       </c>
       <c r="U91" s="11">
-        <v>90443173</v>
+        <v>97186411</v>
       </c>
       <c r="V91" s="11">
-        <v>94173521</v>
+        <v>99582902</v>
       </c>
       <c r="W91" s="11">
-        <v>97186411</v>
+        <v>99533333</v>
       </c>
       <c r="X91" s="11">
-        <v>99582902</v>
+        <v>105063063</v>
       </c>
       <c r="Y91" s="11">
-        <v>99533333</v>
+        <v>105174404</v>
       </c>
       <c r="Z91" s="11">
-        <v>105063063</v>
+        <v>114493366</v>
       </c>
       <c r="AA91" s="11">
-        <v>105174404</v>
+        <v>142946809</v>
       </c>
       <c r="AB91" s="11">
-        <v>114493366</v>
+        <v>146176143</v>
       </c>
       <c r="AC91" s="11">
-        <v>142946809</v>
+        <v>152933054</v>
       </c>
       <c r="AD91" s="11">
-        <v>146176143</v>
+        <v>155343073</v>
       </c>
       <c r="AE91" s="11">
-        <v>152933054</v>
+        <v>158322526</v>
       </c>
       <c r="AF91" s="11">
-        <v>155343073</v>
+        <v>171252294</v>
       </c>
       <c r="AG91" s="11">
-        <v>158322526</v>
+        <v>171659062</v>
       </c>
       <c r="AH91" s="11">
-        <v>171252294</v>
+        <v>175025253</v>
       </c>
       <c r="AI91" s="11">
-        <v>171659062</v>
+        <v>165217469</v>
       </c>
       <c r="AJ91" s="11">
-        <v>175025253</v>
+        <v>165928465</v>
       </c>
       <c r="AK91" s="11">
-        <v>165217469</v>
+        <v>168288022</v>
       </c>
       <c r="AL91" s="11">
-        <v>165928465</v>
+        <v>160170732</v>
       </c>
       <c r="AM91" s="11">
-        <v>168288022</v>
+        <v>170650821</v>
       </c>
       <c r="AN91" s="11">
-        <v>160170732</v>
+        <v>175584008</v>
       </c>
       <c r="AO91" s="11">
-        <v>170650821</v>
+        <v>193348322</v>
       </c>
       <c r="AP91" s="11">
-        <v>175584008</v>
+        <v>226089184</v>
       </c>
       <c r="AQ91" s="11">
-        <v>193348322</v>
-      </c>
-      <c r="AR91" s="11">
-        <v>226113417</v>
-      </c>
-      <c r="AS91" s="11">
         <v>238760668</v>
       </c>
+      <c r="AR91" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS91" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AT91" s="11" t="s">
         <v>58</v>
       </c>
@@ -12101,7 +12101,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="92" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B92" s="12" t="s">
         <v>60</v>
       </c>
@@ -12238,29 +12238,29 @@
       <c r="AU92" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AV92" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW92" s="13" t="s">
-        <v>58</v>
+      <c r="AV92" s="13">
+        <v>310416667</v>
+      </c>
+      <c r="AW92" s="13">
+        <v>297914894</v>
       </c>
       <c r="AX92" s="13">
-        <v>310416667</v>
+        <v>227769417</v>
       </c>
       <c r="AY92" s="13">
-        <v>297914894</v>
+        <v>227808316</v>
       </c>
       <c r="AZ92" s="13">
-        <v>227769417</v>
+        <v>412907042</v>
       </c>
       <c r="BA92" s="13">
-        <v>227808316</v>
+        <v>260181311</v>
       </c>
       <c r="BB92" s="13">
-        <v>243887324</v>
+        <v>251144781</v>
       </c>
     </row>
-    <row r="93" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B93" s="10" t="s">
         <v>61</v>
       </c>
@@ -12269,7 +12269,7 @@
       </c>
       <c r="D93" s="11"/>
       <c r="E93" s="11">
-        <v>6668842</v>
+        <v>0</v>
       </c>
       <c r="F93" s="11">
         <v>0</v>
@@ -12277,11 +12277,11 @@
       <c r="G93" s="11">
         <v>0</v>
       </c>
-      <c r="H93" s="11">
-        <v>0</v>
-      </c>
-      <c r="I93" s="11">
-        <v>0</v>
+      <c r="H93" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="I93" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="J93" s="11" t="s">
         <v>58</v>
@@ -12289,23 +12289,23 @@
       <c r="K93" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="L93" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="M93" s="11" t="s">
-        <v>58</v>
+      <c r="L93" s="11">
+        <v>7633670</v>
+      </c>
+      <c r="M93" s="11">
+        <v>8378804</v>
       </c>
       <c r="N93" s="11">
-        <v>7633670</v>
+        <v>5895007</v>
       </c>
       <c r="O93" s="11">
-        <v>8378804</v>
+        <v>4895833</v>
       </c>
       <c r="P93" s="11">
-        <v>5895007</v>
+        <v>0</v>
       </c>
       <c r="Q93" s="11">
-        <v>4895833</v>
+        <v>0</v>
       </c>
       <c r="R93" s="11">
         <v>0</v>
@@ -12313,11 +12313,11 @@
       <c r="S93" s="11">
         <v>0</v>
       </c>
-      <c r="T93" s="11">
-        <v>0</v>
-      </c>
-      <c r="U93" s="11">
-        <v>0</v>
+      <c r="T93" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="U93" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="V93" s="11" t="s">
         <v>58</v>
@@ -12419,7 +12419,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="94" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B94" s="12" t="s">
         <v>62</v>
       </c>
@@ -12544,41 +12544,41 @@
       <c r="AQ94" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR94" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS94" s="13" t="s">
-        <v>58</v>
+      <c r="AR94" s="13">
+        <v>252868949</v>
+      </c>
+      <c r="AS94" s="13">
+        <v>293958556</v>
       </c>
       <c r="AT94" s="13">
-        <v>252868949</v>
+        <v>442265273</v>
       </c>
       <c r="AU94" s="13">
-        <v>293958556</v>
+        <v>450141606</v>
       </c>
       <c r="AV94" s="13">
-        <v>442265273</v>
+        <v>438577080</v>
       </c>
       <c r="AW94" s="13">
-        <v>450141606</v>
+        <v>423233333</v>
       </c>
       <c r="AX94" s="13">
-        <v>438577080</v>
+        <v>423910100</v>
       </c>
       <c r="AY94" s="13">
-        <v>423233333</v>
+        <v>422274414</v>
       </c>
       <c r="AZ94" s="13">
-        <v>423910100</v>
+        <v>430785575</v>
       </c>
       <c r="BA94" s="13">
-        <v>422274414</v>
+        <v>444093484</v>
       </c>
       <c r="BB94" s="13">
-        <v>430785575</v>
+        <v>463680291</v>
       </c>
     </row>
-    <row r="95" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B95" s="10" t="s">
         <v>63</v>
       </c>
@@ -12703,41 +12703,41 @@
       <c r="AQ95" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR95" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS95" s="11" t="s">
-        <v>58</v>
+      <c r="AR95" s="11">
+        <v>306637624</v>
+      </c>
+      <c r="AS95" s="11">
+        <v>332118506</v>
       </c>
       <c r="AT95" s="11">
-        <v>306637624</v>
+        <v>408752969</v>
       </c>
       <c r="AU95" s="11">
-        <v>332118506</v>
+        <v>409601885</v>
       </c>
       <c r="AV95" s="11">
-        <v>408752969</v>
+        <v>401239286</v>
       </c>
       <c r="AW95" s="11">
-        <v>409601885</v>
+        <v>386250811</v>
       </c>
       <c r="AX95" s="11">
-        <v>401239286</v>
+        <v>373160256</v>
       </c>
       <c r="AY95" s="11">
-        <v>386250811</v>
+        <v>375367901</v>
       </c>
       <c r="AZ95" s="11">
-        <v>373160256</v>
+        <v>296139759</v>
       </c>
       <c r="BA95" s="11">
-        <v>375367901</v>
+        <v>366996257</v>
       </c>
       <c r="BB95" s="11">
-        <v>368430120</v>
+        <v>362866557</v>
       </c>
     </row>
-    <row r="96" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B96" s="8" t="s">
         <v>80</v>
       </c>
@@ -12794,7 +12794,7 @@
       <c r="BA96" s="9"/>
       <c r="BB96" s="9"/>
     </row>
-    <row r="97" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B97" s="10" t="s">
         <v>55</v>
       </c>
@@ -12856,11 +12856,11 @@
       <c r="V97" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W97" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X97" s="11" t="s">
-        <v>58</v>
+      <c r="W97" s="11">
+        <v>0</v>
+      </c>
+      <c r="X97" s="11">
+        <v>0</v>
       </c>
       <c r="Y97" s="11">
         <v>0</v>
@@ -12880,11 +12880,11 @@
       <c r="AD97" s="11">
         <v>0</v>
       </c>
-      <c r="AE97" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF97" s="11">
-        <v>0</v>
+      <c r="AE97" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF97" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AG97" s="11" t="s">
         <v>58</v>
@@ -12953,7 +12953,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="98" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B98" s="12" t="s">
         <v>57</v>
       </c>
@@ -13015,11 +13015,11 @@
       <c r="V98" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W98" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X98" s="13" t="s">
-        <v>58</v>
+      <c r="W98" s="13">
+        <v>0</v>
+      </c>
+      <c r="X98" s="13">
+        <v>0</v>
       </c>
       <c r="Y98" s="13">
         <v>0</v>
@@ -13039,11 +13039,11 @@
       <c r="AD98" s="13">
         <v>0</v>
       </c>
-      <c r="AE98" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF98" s="13">
-        <v>0</v>
+      <c r="AE98" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF98" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AG98" s="13" t="s">
         <v>58</v>
@@ -13112,7 +13112,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="99" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B99" s="10" t="s">
         <v>59</v>
       </c>
@@ -13174,11 +13174,11 @@
       <c r="V99" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W99" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X99" s="11" t="s">
-        <v>58</v>
+      <c r="W99" s="11">
+        <v>0</v>
+      </c>
+      <c r="X99" s="11">
+        <v>0</v>
       </c>
       <c r="Y99" s="11">
         <v>0</v>
@@ -13198,11 +13198,11 @@
       <c r="AD99" s="11">
         <v>0</v>
       </c>
-      <c r="AE99" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF99" s="11">
-        <v>0</v>
+      <c r="AE99" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF99" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AG99" s="11" t="s">
         <v>58</v>
@@ -13271,7 +13271,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="100" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B100" s="12" t="s">
         <v>65</v>
       </c>
@@ -13393,14 +13393,14 @@
       <c r="AP100" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ100" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR100" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS100" s="13">
-        <v>0</v>
+      <c r="AQ100" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR100" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS100" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT100" s="13" t="s">
         <v>58</v>
@@ -13420,14 +13420,14 @@
       <c r="AY100" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AZ100" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA100" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB100" s="13" t="s">
-        <v>58</v>
+      <c r="AZ100" s="13">
+        <v>0</v>
+      </c>
+      <c r="BA100" s="13">
+        <v>0</v>
+      </c>
+      <c r="BB100" s="13">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
